--- a/results/test_merged_result_MJ.xlsx
+++ b/results/test_merged_result_MJ.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS121"/>
+  <dimension ref="A1:AT116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,7 @@
     <col width="30" customWidth="1" min="43" max="43"/>
     <col width="12" customWidth="1" min="44" max="44"/>
     <col width="19" customWidth="1" min="45" max="45"/>
+    <col width="22" customWidth="1" min="46" max="46"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -710,6 +711,11 @@
           <t>Object Type</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Density [Solar unit]</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -860,15 +866,13 @@
           <t>GJ 1094</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>33955</t>
-        </is>
-      </c>
       <c r="AS2" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.11927517458269</v>
       </c>
     </row>
     <row r="3">
@@ -1017,15 +1021,13 @@
           <t>GJ 1079</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>25421</t>
-        </is>
-      </c>
       <c r="AS3" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.052688921124784</v>
       </c>
     </row>
     <row r="4">
@@ -1174,15 +1176,13 @@
           <t>GJ 565</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>72688</t>
-        </is>
-      </c>
       <c r="AS4" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.041952602911969</v>
       </c>
     </row>
     <row r="5">
@@ -1256,88 +1256,6 @@
       <c r="V5" t="n">
         <v>2.452378776434277e+18</v>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>2452378776434477184</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>2452378776434276992</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2452378776434477184</t>
-        </is>
-      </c>
-      <c r="Z5" t="n">
-        <v>26.0090550571601</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>-15.93368020069386</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>3.571155598571301</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>3.300399780273438</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>3.799520492553711</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2.748299360275269</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1.051221132278442</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>273.8097451185997</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>5420.00849935214</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.4528975560350175</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.6710101207150422</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.03679153671820569</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.3033620232341859</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>HD  10700</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>GJ 71.0, GJ 71</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>8102</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1485,15 +1403,13 @@
           <t>GJ 9824, GJ 894.5</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>115445</t>
-        </is>
-      </c>
       <c r="AS6" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.239104212270826</v>
       </c>
     </row>
     <row r="7">
@@ -1642,15 +1558,13 @@
           <t>GJ 796</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>101997</t>
-        </is>
-      </c>
       <c r="AS7" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT7" t="n">
+        <v>1.528241921070437</v>
       </c>
     </row>
     <row r="8">
@@ -1802,15 +1716,13 @@
           <t>GJ 1126</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>46626</t>
-        </is>
-      </c>
       <c r="AS8" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT8" t="n">
+        <v>1.621604673108436</v>
       </c>
     </row>
     <row r="9">
@@ -1959,15 +1871,13 @@
           <t>GJ 776</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>98959</t>
-        </is>
-      </c>
       <c r="AS9" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.8528938169750084</v>
       </c>
     </row>
     <row r="10">
@@ -2116,15 +2026,13 @@
           <t>GJ 3021 A, GJ 3021</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>1292</t>
-        </is>
-      </c>
       <c r="AS10" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT10" t="n">
+        <v>1.055039360931723</v>
       </c>
     </row>
     <row r="11">
@@ -2273,15 +2181,13 @@
           <t>GJ 722</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>91438</t>
-        </is>
-      </c>
       <c r="AS11" t="inlineStr">
         <is>
           <t>**</t>
         </is>
+      </c>
+      <c r="AT11" t="n">
+        <v>1.356604055150243</v>
       </c>
     </row>
     <row r="12">
@@ -2430,15 +2336,13 @@
           <t>GJ 139</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>15510</t>
-        </is>
-      </c>
       <c r="AS12" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT12" t="n">
+        <v>1.177088983194154</v>
       </c>
     </row>
     <row r="13">
@@ -2587,15 +2491,13 @@
           <t>GJ 446</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>57507</t>
-        </is>
-      </c>
       <c r="AS13" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT13" t="n">
+        <v>1.292561167675858</v>
       </c>
     </row>
     <row r="14">
@@ -2744,15 +2646,13 @@
           <t>GJ 166 A</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>19849</t>
-        </is>
-      </c>
       <c r="AS14" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
+      </c>
+      <c r="AT14" t="n">
+        <v>1.381521552589273</v>
       </c>
     </row>
     <row r="15">
@@ -2901,15 +2801,13 @@
           <t>GJ 798.0, GJ 798</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>102186</t>
-        </is>
-      </c>
       <c r="AS15" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.3728520291368</v>
       </c>
     </row>
     <row r="16">
@@ -3058,15 +2956,13 @@
           <t>GJ 18.0, GJ 18</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>1936</t>
-        </is>
-      </c>
       <c r="AS16" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.366201403288587</v>
       </c>
     </row>
     <row r="17">
@@ -3223,15 +3119,13 @@
           <t>GJ 787</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>100223</t>
-        </is>
-      </c>
       <c r="AS17" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.032467946890793</v>
       </c>
     </row>
     <row r="18">
@@ -3308,85 +3202,6 @@
       <c r="V18" t="n">
         <v>5.994771148252505e+18</v>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>5994771148252505216</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>5994771148252505216</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>5994771148252505216</t>
-        </is>
-      </c>
-      <c r="Z18" t="n">
-        <v>239.4182138238268</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>-42.62508240537215</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8.036714071187973</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.658037185668945</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>8.272919654846191</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>6.906684875488281</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1.36623477935791</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>67.84333793843794</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>4413.7607</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0.17772165</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0.71036565</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0.4411868963696321</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0.2252009048390298</v>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>HD 142709</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>GJ 604</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>78170</t>
-        </is>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3612,15 +3427,13 @@
           <t>GJ 653</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>83591</t>
-        </is>
-      </c>
       <c r="AS20" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT20" t="n">
+        <v>1.781510507227236</v>
       </c>
     </row>
     <row r="21">
@@ -3769,15 +3582,13 @@
           <t>GJ 582</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>75181</t>
-        </is>
-      </c>
       <c r="AS21" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.7940434459215121</v>
       </c>
     </row>
     <row r="22">
@@ -3934,15 +3745,13 @@
           <t>GJ 715</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>90656</t>
-        </is>
-      </c>
       <c r="AS22" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT22" t="n">
+        <v>1.78211177339737</v>
       </c>
     </row>
     <row r="23">
@@ -4091,85 +3900,6 @@
       <c r="V24" t="n">
         <v>5.285775539195331e+18</v>
       </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>5285775539195330560</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>5285775539195330560</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>5285775539195330560</t>
-        </is>
-      </c>
-      <c r="Z24" t="n">
-        <v>108.2768913871574</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>-63.34238904353339</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9.05973434832096</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.570058822631836</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>9.300670623779297</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>7.744371891021729</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1.556298732757568</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>51.05388225075709</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>4179.2197</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0.15366574</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0.74814504</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0.4133280492459198</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0.3434973018235495</v>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>HD  56533</t>
-        </is>
-      </c>
-      <c r="AQ24" t="inlineStr">
-        <is>
-          <t>GJ 9226, GJ 268.2</t>
-        </is>
-      </c>
-      <c r="AR24" t="inlineStr">
-        <is>
-          <t>34890</t>
-        </is>
-      </c>
-      <c r="AS24" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4389,15 +4119,13 @@
           <t>GJ 506</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>64924</t>
-        </is>
-      </c>
       <c r="AS26" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.906764956917385</v>
       </c>
     </row>
     <row r="27">
@@ -4549,15 +4277,13 @@
           <t>GJ 666 A, GJ 666</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>84720</t>
-        </is>
-      </c>
       <c r="AS27" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT27" t="n">
+        <v>1.457793859010921</v>
       </c>
     </row>
     <row r="28">
@@ -4783,15 +4509,13 @@
           <t>GJ 3</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
       <c r="AS29" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.745567710296219</v>
       </c>
     </row>
     <row r="30">
@@ -4935,15 +4659,13 @@
           <t>HD 157347</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t>85042</t>
-        </is>
-      </c>
       <c r="AS30" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.8158904314580906</v>
       </c>
     </row>
     <row r="31">
@@ -5095,85 +4817,6 @@
       <c r="V32" t="n">
         <v>4.258375617747093e+18</v>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>4258375617747092864</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>4258375617747092864</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>4258375617747092864</t>
-        </is>
-      </c>
-      <c r="Z32" t="n">
-        <v>281.8629551175184</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>-3.641055455311226</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>8.786167160444259</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.26960277557373</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>9.028376579284668</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>7.420927047729492</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1.607449531555176</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>70.13347528858606</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>4022.2102</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0.11139318</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0.69506925</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0.3533903924347861</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0.2800848151418651</v>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>HD 173818</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>GJ 726</t>
-        </is>
-      </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>92200</t>
-        </is>
-      </c>
-      <c r="AS32" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5319,15 +4962,13 @@
           <t>HD  23356</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>17420</t>
-        </is>
-      </c>
       <c r="AS33" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.052239288285687</v>
       </c>
     </row>
     <row r="34">
@@ -5404,85 +5045,6 @@
       <c r="V34" t="n">
         <v>6.288325222245418e+18</v>
       </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>6288325222245417856</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>6288325222245417856</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>6288325222245417856</t>
-        </is>
-      </c>
-      <c r="Z34" t="n">
-        <v>207.4282987217777</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>-22.11328889048028</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>8.153160107531548</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.691279411315918</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>8.393013954162598</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>6.880203723907471</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>1.512810230255127</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>71.07799890467766</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>4214.972</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0.17158246</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0.75877374</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0.4363038004387554</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0.2291331933202787</v>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>HD 120467</t>
-        </is>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>GJ 529</t>
-        </is>
-      </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>67487</t>
-        </is>
-      </c>
-      <c r="AS34" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5630,15 +5192,13 @@
           <t>GJ 9833, GJ 902.1</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>116763</t>
-        </is>
-      </c>
       <c r="AS35" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT35" t="n">
+        <v>1.852212400374402</v>
       </c>
     </row>
     <row r="36">
@@ -5795,15 +5355,13 @@
           <t>GJ 862</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>110996</t>
-        </is>
-      </c>
       <c r="AS36" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.769575738741929</v>
       </c>
     </row>
     <row r="37">
@@ -5880,85 +5438,6 @@
       <c r="V37" t="n">
         <v>4.673947174316727e+18</v>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>4673947174316727040</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>4673947174316727040</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>4673947174316727040</t>
-        </is>
-      </c>
-      <c r="Z37" t="n">
-        <v>51.75029890079423</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>-63.50020035944183</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>8.069829419689178</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>7.686758995056152</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>8.306118011474609</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>6.936548233032227</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>1.369569778442383</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>61.22711646241579</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>4425.028</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>0.20409887</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0.7259589</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0.4726066306240386</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>0.2286520868473961</v>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>HD  21749</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>GJ 143</t>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>16069</t>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6106,15 +5585,13 @@
           <t>GJ 327</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>43726</t>
-        </is>
-      </c>
       <c r="AS38" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT38" t="n">
+        <v>1.270700200018976</v>
       </c>
     </row>
     <row r="39">
@@ -6268,15 +5745,13 @@
           <t>GJ 136</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
-        <is>
-          <t>15330</t>
-        </is>
-      </c>
       <c r="AS39" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT39" t="n">
+        <v>1.37647581175124</v>
       </c>
     </row>
     <row r="40">
@@ -6355,80 +5830,6 @@
       <c r="V40" t="n">
         <v>6.742873637093575e+18</v>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>6742873637093574400</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>6742873637093574400</t>
-        </is>
-      </c>
-      <c r="Z40" t="n">
-        <v>290.3744480746946</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>-34.98379423442576</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>6.312130451202393</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>6.312130451202393</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>6.660956859588623</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>5.850902557373047</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0.8100543022155762</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>50.28644486484526</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>5848.5</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0.87565553</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0.91144466</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0.908749052603017</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0.1565707366592258</v>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
-          <t>HD 181321</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>GJ 755</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>95149</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
-        <is>
-          <t>SB*</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6506,80 +5907,6 @@
       <c r="V41" t="n">
         <v>4.377160604838377e+18</v>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>4377160604838377600</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>4377160604838377600</t>
-        </is>
-      </c>
-      <c r="Z41" t="n">
-        <v>264.8197082287717</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>3.554823749415744</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>6.513840073809623</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>6.200440406799316</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6.745635509490967</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>5.556586265563965</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>1.189049243927002</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>99.13913477749777</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>4897.033</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0.28352284</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0.7397425</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0.5461048055189085</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0.1129173461585706</v>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="AP41" t="inlineStr">
-        <is>
-          <t>HD 160346</t>
-        </is>
-      </c>
-      <c r="AQ41" t="inlineStr">
-        <is>
-          <t>GJ 688</t>
-        </is>
-      </c>
-      <c r="AR41" t="inlineStr">
-        <is>
-          <t>86400</t>
-        </is>
-      </c>
-      <c r="AS41" t="inlineStr">
-        <is>
-          <t>SB*</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6652,85 +5979,6 @@
       <c r="V42" t="n">
         <v>5.117974602912371e+18</v>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>5117974602912370432</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>5117974602912370432</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>5117974602912370432</t>
-        </is>
-      </c>
-      <c r="Z42" t="n">
-        <v>34.74269374763958</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>-25.94371112925351</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>6.147863864898682</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>6.147863864898682</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>6.518683910369873</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>5.598161220550537</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0.9205226898193359</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>77.91401913043707</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>5357.897</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0.44263253</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0.7770072</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0.6657742669072401</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0.1169016179159743</v>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="AP42" t="inlineStr">
-        <is>
-          <t>HD  14412</t>
-        </is>
-      </c>
-      <c r="AQ42" t="inlineStr">
-        <is>
-          <t>GJ 95</t>
-        </is>
-      </c>
-      <c r="AR42" t="inlineStr">
-        <is>
-          <t>10798</t>
-        </is>
-      </c>
-      <c r="AS42" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6953,15 +6201,13 @@
           <t>GJ 2037</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
-        <is>
-          <t>22907</t>
-        </is>
-      </c>
       <c r="AS44" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.026252168653316</v>
       </c>
     </row>
     <row r="45">
@@ -7038,85 +6284,6 @@
       <c r="V45" t="n">
         <v>6.029992663310612e+18</v>
       </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>6029992663310612096</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>6029992663310612096</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>6029992663310612096</t>
-        </is>
-      </c>
-      <c r="Z45" t="n">
-        <v>256.1164346070391</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>-28.5838715417241</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>6.380115509033203</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>6.380115509033203</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>6.777419090270996</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>5.814102172851562</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0.9633169174194336</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>54.72597918734041</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>5421.711</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0.6974737</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0.9731488</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0.8326249431969582</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0.1342446975344438</v>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="AP45" t="inlineStr">
-        <is>
-          <t>HD 154088</t>
-        </is>
-      </c>
-      <c r="AQ45" t="inlineStr">
-        <is>
-          <t>GJ 652</t>
-        </is>
-      </c>
-      <c r="AR45" t="inlineStr">
-        <is>
-          <t>83541</t>
-        </is>
-      </c>
-      <c r="AS45" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7189,85 +6356,6 @@
       <c r="V46" t="n">
         <v>6.313600142709959e+18</v>
       </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>6313600142709958144</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>6313600142709958144</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>6313600142709958144</t>
-        </is>
-      </c>
-      <c r="Z46" t="n">
-        <v>225.1808186516746</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>-11.13726849432206</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>9.452585903630256</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8.844958305358887</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>9.698563575744629</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>7.939717769622803</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>1.758845806121826</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>56.06777131891592</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>3890.9976</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0.110792436</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0.764504</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0.3535030973536811</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0.3434949446544288</v>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP46" t="inlineStr">
-        <is>
-          <t>HD 132683</t>
-        </is>
-      </c>
-      <c r="AQ46" t="inlineStr">
-        <is>
-          <t>GJ 9507, GJ 571.1</t>
-        </is>
-      </c>
-      <c r="AR46" t="inlineStr">
-        <is>
-          <t>73457</t>
-        </is>
-      </c>
-      <c r="AS46" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7420,15 +6508,13 @@
           <t>GJ 616</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
-        <is>
-          <t>79672</t>
-        </is>
-      </c>
       <c r="AS47" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.9403060490214101</v>
       </c>
     </row>
     <row r="48">
@@ -7577,15 +6663,13 @@
           <t>GJ 138</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
-        <is>
-          <t>15371</t>
-        </is>
-      </c>
       <c r="AS48" t="inlineStr">
         <is>
           <t>**</t>
         </is>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.9941371187539264</v>
       </c>
     </row>
     <row r="49">
@@ -7734,15 +6818,13 @@
           <t>GJ 302</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
-        <is>
-          <t>40693</t>
-        </is>
-      </c>
       <c r="AS49" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.226402369197755</v>
       </c>
     </row>
     <row r="50">
@@ -7886,15 +6968,13 @@
           <t>GJ 105 A</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
-        <is>
-          <t>12114</t>
-        </is>
-      </c>
       <c r="AS50" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT50" t="n">
+        <v>1.603459718691285</v>
       </c>
     </row>
     <row r="51">
@@ -8041,15 +7121,13 @@
           <t>GJ 583</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
-        <is>
-          <t>75201</t>
-        </is>
-      </c>
       <c r="AS51" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT51" t="n">
+        <v>1.793063235341547</v>
       </c>
     </row>
     <row r="52">
@@ -8195,15 +7273,13 @@
           <t>GJ 1066</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
-        <is>
-          <t>18450</t>
-        </is>
-      </c>
       <c r="AS52" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT52" t="n">
+        <v>2.241552152343242</v>
       </c>
     </row>
     <row r="53">
@@ -8277,85 +7353,6 @@
       <c r="V53" t="n">
         <v>6.832674634380239e+18</v>
       </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>6832674634380238848</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>6832674634380238848</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>6832674634380238848</t>
-        </is>
-      </c>
-      <c r="Z53" t="n">
-        <v>320.0567709913498</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>-19.85548923847976</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>9.066298904175758</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>8.497677803039551</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>9.310630798339844</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>7.617907047271729</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>1.692723751068115</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>63.38643828104384</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>3939.6514</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0.10051212</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0.5759601</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0.3363424972877731</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>0.3002265324091725</v>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP53" t="inlineStr">
-        <is>
-          <t>HD 203040</t>
-        </is>
-      </c>
-      <c r="AQ53" t="inlineStr">
-        <is>
-          <t>GJ 9736, GJ 826.1</t>
-        </is>
-      </c>
-      <c r="AR53" t="inlineStr">
-        <is>
-          <t>105341</t>
-        </is>
-      </c>
-      <c r="AS53" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8506,15 +7503,13 @@
           <t>GJ 4008</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
-        <is>
-          <t>85561</t>
-        </is>
-      </c>
       <c r="AS54" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT54" t="n">
+        <v>3.191221396749432</v>
       </c>
     </row>
     <row r="55">
@@ -8663,15 +7658,13 @@
           <t>GJ 144.0, GJ 144</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
-        <is>
-          <t>16537</t>
-        </is>
-      </c>
       <c r="AS55" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
+      </c>
+      <c r="AT55" t="n">
+        <v>1.735189810693292</v>
       </c>
     </row>
     <row r="56">
@@ -8820,15 +7813,13 @@
           <t>GJ 3317</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
-        <is>
-          <t>22451</t>
-        </is>
-      </c>
       <c r="AS56" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.566652800021061</v>
       </c>
     </row>
     <row r="57">
@@ -8977,15 +7968,13 @@
           <t>GJ 131</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
-        <is>
-          <t>15095</t>
-        </is>
-      </c>
       <c r="AS57" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.953543939316974</v>
       </c>
     </row>
     <row r="58">
@@ -9062,85 +8051,6 @@
       <c r="V58" t="n">
         <v>6.232511606838404e+18</v>
       </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>6232511606838403968</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>6232511606838403968</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>6232511606838403968</t>
-        </is>
-      </c>
-      <c r="Z58" t="n">
-        <v>224.3715942734814</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>-21.42314039626168</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>5.725483061494828</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>5.364036560058594</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>5.960627555847168</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>4.63702392578125</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>1.323603630065918</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>169.8842702825854</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>4503.0303</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0.22034836</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0.7356795</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0.4896606979971491</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>0.076958406914061</v>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP58" t="inlineStr">
-        <is>
-          <t>HD 131977</t>
-        </is>
-      </c>
-      <c r="AQ58" t="inlineStr">
-        <is>
-          <t>GJ 570 A</t>
-        </is>
-      </c>
-      <c r="AR58" t="inlineStr">
-        <is>
-          <t>73184</t>
-        </is>
-      </c>
-      <c r="AS58" t="inlineStr">
-        <is>
-          <t>BYDraV*</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9288,15 +8198,13 @@
           <t>GJ 785</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
-        <is>
-          <t>99825</t>
-        </is>
-      </c>
       <c r="AS59" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.712118408202441</v>
       </c>
     </row>
     <row r="60">
@@ -9448,15 +8356,13 @@
           <t>GJ 845 A, GJ 845</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
-        <is>
-          <t>108870</t>
-        </is>
-      </c>
       <c r="AS60" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.216291768419251</v>
       </c>
     </row>
     <row r="61">
@@ -9605,15 +8511,13 @@
           <t>GJ 1021</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
-        <is>
-          <t>3583</t>
-        </is>
-      </c>
       <c r="AS61" t="inlineStr">
         <is>
           <t>EclBin</t>
         </is>
+      </c>
+      <c r="AT61" t="n">
+        <v>1.252485750795232</v>
       </c>
     </row>
     <row r="62">
@@ -9836,15 +8740,13 @@
           <t>GJ 3222</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
-        <is>
-          <t>15799</t>
-        </is>
-      </c>
       <c r="AS63" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT63" t="n">
+        <v>1.702394448792871</v>
       </c>
     </row>
     <row r="64">
@@ -9988,15 +8890,13 @@
           <t>GJ 744</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
-        <is>
-          <t>93858</t>
-        </is>
-      </c>
       <c r="AS64" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.114227419076153</v>
       </c>
     </row>
     <row r="65">
@@ -10142,15 +9042,13 @@
           <t>GJ 227</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
-        <is>
-          <t>28954</t>
-        </is>
-      </c>
       <c r="AS65" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT65" t="n">
+        <v>1.333250845514523</v>
       </c>
     </row>
     <row r="66">
@@ -10229,85 +9127,6 @@
       <c r="V66" t="n">
         <v>6.427464325637242e+18</v>
       </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>6427464123776727168</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>6427464325637241728</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>6427464123776727168</t>
-        </is>
-      </c>
-      <c r="Z66" t="n">
-        <v>302.1950398892303</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>-66.18709128441725</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>3.618788456735611</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>3.364138126373291</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>3.846358299255371</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>2.827079772949219</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>1.019278526306152</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>163.9544145383167</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>5437.5474</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>1.2535083</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>1.2615935</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>1.115174356615853</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>0.03792613478839159</v>
-      </c>
-      <c r="AO66" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="AP66" t="inlineStr">
-        <is>
-          <t>HD 190248</t>
-        </is>
-      </c>
-      <c r="AQ66" t="inlineStr">
-        <is>
-          <t>GJ 780</t>
-        </is>
-      </c>
-      <c r="AR66" t="inlineStr">
-        <is>
-          <t>99240</t>
-        </is>
-      </c>
-      <c r="AS66" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10380,80 +9199,6 @@
       <c r="V67" t="n">
         <v>6.190970236474308e+18</v>
       </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>6190970236474307200</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>6190970236474307200</t>
-        </is>
-      </c>
-      <c r="Z67" t="n">
-        <v>207.8319719009521</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>-24.39172004263088</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>6.238136291503906</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>6.238136291503906</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>6.630614757537842</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>5.73026704788208</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0.9003477096557617</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>53.87850062839401</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>5576.3335</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>0.83231246</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>0.9774586</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0.9011460241167897</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>0.1350887681894243</v>
-      </c>
-      <c r="AO67" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AP67" t="inlineStr">
-        <is>
-          <t>HD 120690</t>
-        </is>
-      </c>
-      <c r="AQ67" t="inlineStr">
-        <is>
-          <t>GJ 530</t>
-        </is>
-      </c>
-      <c r="AR67" t="inlineStr">
-        <is>
-          <t>67620</t>
-        </is>
-      </c>
-      <c r="AS67" t="inlineStr">
-        <is>
-          <t>SB*</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10529,85 +9274,6 @@
       <c r="V68" t="n">
         <v>3.211461469444773e+18</v>
       </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>3211461469444773376</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>3211461469444773376</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>3211461469444773376</t>
-        </is>
-      </c>
-      <c r="Z68" t="n">
-        <v>75.2066176720424</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>-5.758598962923454</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>6.203080644965172</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>5.886491775512695</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>6.436380386352539</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>5.186892986297607</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>1.249487400054932</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>113.0714591247876</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>4626.91</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>0.29215857</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0.7966039</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0.5610884998955769</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>0.09669506855543795</v>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP68" t="inlineStr">
-        <is>
-          <t>HD  32147</t>
-        </is>
-      </c>
-      <c r="AQ68" t="inlineStr">
-        <is>
-          <t>GJ 183</t>
-        </is>
-      </c>
-      <c r="AR68" t="inlineStr">
-        <is>
-          <t>23311</t>
-        </is>
-      </c>
-      <c r="AS68" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10755,15 +9421,13 @@
           <t>GJ 309</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
-        <is>
-          <t>41926</t>
-        </is>
-      </c>
       <c r="AS69" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.844836198763456</v>
       </c>
     </row>
     <row r="70">
@@ -10909,15 +9573,13 @@
           <t>GJ 33</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
-        <is>
-          <t>3765</t>
-        </is>
-      </c>
       <c r="AS70" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.953362366508123</v>
       </c>
     </row>
     <row r="71">
@@ -11066,15 +9728,13 @@
           <t>GJ 615</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
-        <is>
-          <t>79537</t>
-        </is>
-      </c>
       <c r="AS71" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT71" t="n">
+        <v>2.324699077934539</v>
       </c>
     </row>
     <row r="72">
@@ -11223,15 +9883,13 @@
           <t>GJ 472</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
-        <is>
-          <t>61291</t>
-        </is>
-      </c>
       <c r="AS72" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.642855324617889</v>
       </c>
     </row>
     <row r="73">
@@ -11308,85 +9966,6 @@
       <c r="V73" t="n">
         <v>5.866992641380992e+18</v>
       </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>5866992641380992256</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>5866992641380992256</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr">
-        <is>
-          <t>5866992641380992256</t>
-        </is>
-      </c>
-      <c r="Z73" t="n">
-        <v>214.7661730152802</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>-59.38264069990895</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>6.636012609438896</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>6.354505062103271</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>6.867697715759277</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>5.683081150054932</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>1.184616565704346</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>84.60291005524316</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>4778.8843</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0.3268907</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0.79882145</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0.5896269305727422</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>0.1189527091138819</v>
-      </c>
-      <c r="AO73" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP73" t="inlineStr">
-        <is>
-          <t>HD 125072</t>
-        </is>
-      </c>
-      <c r="AQ73" t="inlineStr">
-        <is>
-          <t>GJ 542</t>
-        </is>
-      </c>
-      <c r="AR73" t="inlineStr">
-        <is>
-          <t>69972</t>
-        </is>
-      </c>
-      <c r="AS73" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11534,15 +10113,13 @@
           <t>GJ 1085</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
-        <is>
-          <t>27435</t>
-        </is>
-      </c>
       <c r="AS74" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.219684522050477</v>
       </c>
     </row>
     <row r="75">
@@ -11731,7 +10308,7 @@
         <v>77.32613406116261</v>
       </c>
       <c r="AH76" t="n">
-        <v>4907</v>
+        <v>4830.588190118799</v>
       </c>
       <c r="AI76" t="n">
         <v>0.7568047</v>
@@ -11743,13 +10320,13 @@
         <v>0.75517464</v>
       </c>
       <c r="AL76" t="n">
-        <v>0.5221904062065191</v>
+        <v>0.5240868655026989</v>
       </c>
       <c r="AM76" t="n">
-        <v>0.1499149439884245</v>
+        <v>0.1495504888924379</v>
       </c>
       <c r="AN76" t="n">
-        <v>1.054042650754229</v>
+        <v>1.053387808678923</v>
       </c>
       <c r="AO76" t="inlineStr">
         <is>
@@ -11766,15 +10343,13 @@
           <t>GJ 2046</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
-        <is>
-          <t>27887</t>
-        </is>
-      </c>
       <c r="AS76" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT76" t="n">
+        <v>1.75728268109685</v>
       </c>
     </row>
     <row r="77">
@@ -11845,82 +10420,6 @@
       <c r="V77" t="n">
         <v>4.270814637616488e+18</v>
       </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>4270814637616488064</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>4270814637616488064</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>4270814637616488064</t>
-        </is>
-      </c>
-      <c r="Z77" t="n">
-        <v>274.9618362969113</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>-1.938612759804832</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>9.632092778863907</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>9.063088417053223</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>9.876449584960938</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>8.182724952697754</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>1.693724632263184</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>52.39629220529056</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>4205</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>0.102434</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0.3372117479355314</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>0.4512559326716648</v>
-      </c>
-      <c r="AO77" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP77" t="inlineStr">
-        <is>
-          <t>HD 168442</t>
-        </is>
-      </c>
-      <c r="AQ77" t="inlineStr">
-        <is>
-          <t>GJ 710</t>
-        </is>
-      </c>
-      <c r="AR77" t="inlineStr">
-        <is>
-          <t>89825</t>
-        </is>
-      </c>
-      <c r="AS77" t="inlineStr">
-        <is>
-          <t>Variable*</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -12063,15 +10562,13 @@
           <t>GJ 9527 A, GJ 9527, GJ 596.1</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
-        <is>
-          <t>77052</t>
-        </is>
-      </c>
       <c r="AS78" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT78" t="n">
+        <v>1.185166893634851</v>
       </c>
     </row>
     <row r="79">
@@ -12145,91 +10642,6 @@
       <c r="V79" t="n">
         <v>3.083867749248355e+18</v>
       </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>3083867749248355456</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>3083867749248355456</t>
-        </is>
-      </c>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>3083867749248355456</t>
-        </is>
-      </c>
-      <c r="Z79" t="n">
-        <v>119.4900692438513</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>-0.814376708826008</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>8.054514473519326</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>7.737601757049561</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>8.287890434265137</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>7.035340785980225</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>1.252549648284912</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>56.64121974787593</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>4453</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0.7643373999999999</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0.22388743</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0.7442147</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0.4944910507034814</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>0.2267059931574514</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>1.558806109298379</v>
-      </c>
-      <c r="AO79" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP79" t="inlineStr">
-        <is>
-          <t>HD  65277, HD  65277A</t>
-        </is>
-      </c>
-      <c r="AQ79" t="inlineStr">
-        <is>
-          <t>GJ 293.1 A, GJ 293.1</t>
-        </is>
-      </c>
-      <c r="AR79" t="inlineStr">
-        <is>
-          <t>38931</t>
-        </is>
-      </c>
-      <c r="AS79" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -12372,15 +10784,13 @@
           <t>HD 274255</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
-        <is>
-          <t>25775</t>
-        </is>
-      </c>
       <c r="AS80" t="inlineStr">
         <is>
           <t>BYDraV*_Candidate</t>
         </is>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.228367536626836</v>
       </c>
     </row>
     <row r="81">
@@ -12532,15 +10942,13 @@
           <t>GJ 3633</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
-        <is>
-          <t>53486</t>
-        </is>
-      </c>
       <c r="AS81" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
+      </c>
+      <c r="AT81" t="n">
+        <v>1.450416803044171</v>
       </c>
     </row>
     <row r="82">
@@ -12764,15 +11172,13 @@
           <t>GJ 631</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
-        <is>
-          <t>81300</t>
-        </is>
-      </c>
       <c r="AS83" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
+      </c>
+      <c r="AT83" t="n">
+        <v>1.25015691391364</v>
       </c>
     </row>
     <row r="84">
@@ -12919,15 +11325,13 @@
           <t>HD 139763</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
-        <is>
-          <t>76779</t>
-        </is>
-      </c>
       <c r="AS84" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT84" t="n">
+        <v>1.95212998726749</v>
       </c>
     </row>
     <row r="85">
@@ -13079,15 +11483,13 @@
           <t>GJ 707</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
-        <is>
-          <t>89211</t>
-        </is>
-      </c>
       <c r="AS85" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.138539647024254</v>
       </c>
     </row>
     <row r="86">
@@ -13236,15 +11638,13 @@
           <t>GJ 902</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
-        <is>
-          <t>116745</t>
-        </is>
-      </c>
       <c r="AS86" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT86" t="n">
+        <v>1.717218532617633</v>
       </c>
     </row>
     <row r="87">
@@ -13393,15 +11793,13 @@
           <t>GJ 177</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
-        <is>
-          <t>22263</t>
-        </is>
-      </c>
       <c r="AS87" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
+      </c>
+      <c r="AT87" t="n">
+        <v>0.94254112753729</v>
       </c>
     </row>
     <row r="88">
@@ -13553,15 +11951,13 @@
           <t>GJ 879</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
-        <is>
-          <t>113283</t>
-        </is>
-      </c>
       <c r="AS88" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
+      </c>
+      <c r="AT88" t="n">
+        <v>1.747532432148586</v>
       </c>
     </row>
     <row r="89">
@@ -13710,15 +12106,13 @@
           <t>GJ 641</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
-        <is>
-          <t>82588</t>
-        </is>
-      </c>
       <c r="AS89" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT89" t="n">
+        <v>1.630200033813258</v>
       </c>
     </row>
     <row r="90">
@@ -13870,15 +12264,13 @@
           <t>GJ 898</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
-        <is>
-          <t>116215</t>
-        </is>
-      </c>
       <c r="AS90" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.582829748692533</v>
       </c>
     </row>
     <row r="91">
@@ -14027,15 +12419,13 @@
           <t>GJ 260</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
-        <is>
-          <t>33690</t>
-        </is>
-      </c>
       <c r="AS91" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT91" t="n">
+        <v>1.15004501453396</v>
       </c>
     </row>
     <row r="92">
@@ -14179,15 +12569,13 @@
           <t>HD  35650</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
-        <is>
-          <t>25283</t>
-        </is>
-      </c>
       <c r="AS92" t="inlineStr">
         <is>
           <t>RotV*</t>
         </is>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.573311979644731</v>
       </c>
     </row>
     <row r="93">
@@ -14408,15 +12796,13 @@
           <t>GJ 117</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
-        <is>
-          <t>13402</t>
-        </is>
-      </c>
       <c r="AS94" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
+      </c>
+      <c r="AT94" t="n">
+        <v>1.297074282976997</v>
       </c>
     </row>
     <row r="95">
@@ -14490,85 +12876,6 @@
       <c r="V95" t="n">
         <v>7.049670370909467e+17</v>
       </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>704967037090946688</t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>704967037090946688</t>
-        </is>
-      </c>
-      <c r="Y95" t="inlineStr">
-        <is>
-          <t>704967037090946688</t>
-        </is>
-      </c>
-      <c r="Z95" t="n">
-        <v>133.146760620834</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>28.3297830003627</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>5.928375293149948</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>5.732680797576904</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>6.155681133270264</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>5.147009372711182</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>1.008671760559082</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>79.44818375718161</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>5184.4775</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>0.6048682</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>0.92796665</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>0.7859231827122458</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>0.09642394740613273</v>
-      </c>
-      <c r="AO95" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="AP95" t="inlineStr">
-        <is>
-          <t>HD  75732</t>
-        </is>
-      </c>
-      <c r="AQ95" t="inlineStr">
-        <is>
-          <t>GJ 324 A</t>
-        </is>
-      </c>
-      <c r="AR95" t="inlineStr">
-        <is>
-          <t>43587</t>
-        </is>
-      </c>
-      <c r="AS95" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -14719,15 +13026,13 @@
           <t>GJ 157 A</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
-        <is>
-          <t>18512</t>
-        </is>
-      </c>
       <c r="AS96" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
+      </c>
+      <c r="AT96" t="n">
+        <v>1.865432587008721</v>
       </c>
     </row>
     <row r="97">
@@ -14876,85 +13181,6 @@
       <c r="V98" t="n">
         <v>5.914096303621756e+18</v>
       </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>5914096303621755520</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>5914096303621755520</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>5914096303621755520</t>
-        </is>
-      </c>
-      <c r="Z98" t="n">
-        <v>257.5437749987619</v>
-      </c>
-      <c r="AA98" t="n">
-        <v>-60.7261529768452</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>7.356441058626175</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>7.116920948028564</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>7.58627986907959</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>6.475841522216797</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>1.110438346862793</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>72.85383430610172</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>4866.0356</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>0.2271543</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>0.68606955</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>0.4895369286453091</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>0.1662923591501416</v>
-      </c>
-      <c r="AO98" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP98" t="inlineStr">
-        <is>
-          <t>HD 154577</t>
-        </is>
-      </c>
-      <c r="AQ98" t="inlineStr">
-        <is>
-          <t>GJ 656</t>
-        </is>
-      </c>
-      <c r="AR98" t="inlineStr">
-        <is>
-          <t>83990</t>
-        </is>
-      </c>
-      <c r="AS98" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15102,15 +13328,13 @@
           <t>GJ 782</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
-        <is>
-          <t>99385</t>
-        </is>
-      </c>
       <c r="AS99" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.673127109034097</v>
       </c>
     </row>
     <row r="100">
@@ -15259,15 +13483,13 @@
           <t>GJ 613.0, GJ 613</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
-        <is>
-          <t>79190</t>
-        </is>
-      </c>
       <c r="AS100" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.848206256583958</v>
       </c>
     </row>
     <row r="101">
@@ -15416,15 +13638,13 @@
           <t>GJ 1164 B</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
-        <is>
-          <t>62471</t>
-        </is>
-      </c>
       <c r="AS101" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.895997877367483</v>
       </c>
     </row>
     <row r="102">
@@ -15501,85 +13721,6 @@
       <c r="V102" t="n">
         <v>6.863535898551993e+18</v>
       </c>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>6863535898551993472</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>6863535898551993472</t>
-        </is>
-      </c>
-      <c r="Y102" t="inlineStr">
-        <is>
-          <t>6863535898551993472</t>
-        </is>
-      </c>
-      <c r="Z102" t="n">
-        <v>298.573333453915</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>-23.94289729665476</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>6.193460552186966</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>5.908112049102783</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>6.425188064575195</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>5.23886775970459</v>
-      </c>
-      <c r="AF102" t="n">
-        <v>1.186320304870605</v>
-      </c>
-      <c r="AG102" t="n">
-        <v>70.70095856863598</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>4769.5723</v>
-      </c>
-      <c r="AJ102" t="n">
-        <v>0.7291860999999999</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>1.2505819</v>
-      </c>
-      <c r="AL102" t="n">
-        <v>0.8810027677025035</v>
-      </c>
-      <c r="AM102" t="n">
-        <v>0.09698179014823462</v>
-      </c>
-      <c r="AO102" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP102" t="inlineStr">
-        <is>
-          <t>HD 188088</t>
-        </is>
-      </c>
-      <c r="AQ102" t="inlineStr">
-        <is>
-          <t>GJ 770</t>
-        </is>
-      </c>
-      <c r="AR102" t="inlineStr">
-        <is>
-          <t>97944</t>
-        </is>
-      </c>
-      <c r="AS102" t="inlineStr">
-        <is>
-          <t>BYDraV*</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -15652,82 +13793,6 @@
       <c r="V103" t="n">
         <v>3.372159045216183e+18</v>
       </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>3372159045216183552</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>3372159045216183552</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>3372159045216183552</t>
-        </is>
-      </c>
-      <c r="Z103" t="n">
-        <v>96.54210989551521</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>18.75620888605506</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>6.760678221149445</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>6.484982013702393</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>6.992666721343994</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>5.795860767364502</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>1.196805953979492</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>68.4141911114458</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>4602.566867780783</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>0.3698282317554196</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>0.6319064737305783</v>
-      </c>
-      <c r="AM103" t="n">
-        <v>0.1248168035010945</v>
-      </c>
-      <c r="AO103" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP103" t="inlineStr">
-        <is>
-          <t>HD  45088</t>
-        </is>
-      </c>
-      <c r="AQ103" t="inlineStr">
-        <is>
-          <t>GJ 233 A, GJ 233</t>
-        </is>
-      </c>
-      <c r="AR103" t="inlineStr">
-        <is>
-          <t>30630</t>
-        </is>
-      </c>
-      <c r="AS103" t="inlineStr">
-        <is>
-          <t>BYDraV*</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -15872,80 +13937,6 @@
       <c r="V105" t="n">
         <v>4.224259562941399e+18</v>
       </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>4224259562941398400</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>4224259562941398400</t>
-        </is>
-      </c>
-      <c r="Y105" t="inlineStr">
-        <is>
-          <t>4224259562941398400</t>
-        </is>
-      </c>
-      <c r="Z105" t="n">
-        <v>303.4990777515728</v>
-      </c>
-      <c r="AA105" t="n">
-        <v>-0.8657212651967648</v>
-      </c>
-      <c r="AB105" t="n">
-        <v>7.767514817652702</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>7.512979030609131</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>7.99785327911377</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>6.867340564727783</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>1.130512714385986</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>50.94324624411764</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>4810.8853</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>0.3194363</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>0.8135819399999999</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>0.5820161714796293</v>
-      </c>
-      <c r="AM105" t="n">
-        <v>0.2005572136799087</v>
-      </c>
-      <c r="AO105" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP105" t="inlineStr">
-        <is>
-          <t>HD 192263</t>
-        </is>
-      </c>
-      <c r="AR105" t="inlineStr">
-        <is>
-          <t>99711</t>
-        </is>
-      </c>
-      <c r="AS105" t="inlineStr">
-        <is>
-          <t>BYDraV*</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -16093,15 +14084,13 @@
           <t>GJ 4130</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
-        <is>
-          <t>98505</t>
-        </is>
-      </c>
       <c r="AS106" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
+      </c>
+      <c r="AT106" t="n">
+        <v>1.480664521061823</v>
       </c>
     </row>
     <row r="107">
@@ -16250,15 +14239,13 @@
           <t>GJ 86 A, GJ 86</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
-        <is>
-          <t>10138</t>
-        </is>
-      </c>
       <c r="AS107" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.202675635122268</v>
       </c>
     </row>
     <row r="108">
@@ -16409,970 +14396,593 @@
           <t>GJ 230</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
-        <is>
-          <t>29525</t>
-        </is>
-      </c>
       <c r="AS108" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
+      </c>
+      <c r="AT108" t="n">
+        <v>1.185370263578394</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2452378776434276992</t>
+          <t>4847957293277762560</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>HD10700</t>
+          <t>HD20794</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>11346</v>
+        <v>576</v>
       </c>
       <c r="D109" t="n">
-        <v>561</v>
+        <v>73</v>
       </c>
       <c r="E109" t="n">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="F109" t="n">
         <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>3.5</v>
+        <v>4.27</v>
       </c>
       <c r="H109" t="n">
-        <v>0.518</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="I109" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>G8V</t>
+          <t>G6V</t>
         </is>
       </c>
       <c r="L109" s="3" t="n">
-        <v>37921</v>
+        <v>42237</v>
       </c>
       <c r="M109" s="3" t="n">
-        <v>43068</v>
+        <v>42416</v>
       </c>
       <c r="N109" t="n">
-        <v>14.09171800136892</v>
+        <v>0.4900752908966461</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>4 known planets, tau Cet g at 20d, 1.75Me; h at 49d, 1.8Me; e at 162d, 3.9Me; f at 636d, 3.9Me. 11346 obs over 561 nights!! Suitable: unlikely to find more candidates, but could do independent confirmation/validation?</t>
+          <t>4 planets (Pepe et al 2011, Feng et al 2017): b at 18d, 2.7 Me; c at 40d, 2.4Me; d at 90d, 4.8Me; e at 147d, 4.8Me (only in Pepe). Also strong signal at 10d in act ind, forest of peaks in CRX</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q109" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S109" t="n">
         <v>1</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>HD10700</t>
+          <t>HD20794</t>
         </is>
       </c>
       <c r="V109" t="n">
-        <v>2.452378776434277e+18</v>
+        <v>4.847957293277763e+18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4847957293277762560</t>
+          <t>3195919528988725120</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>HD20794</t>
+          <t>HD26965</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="D110" t="n">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E110" t="n">
-        <v>1.46</v>
+        <v>1.81</v>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="H110" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="I110" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="J110" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>G6V</t>
+          <t>K0V</t>
         </is>
       </c>
       <c r="L110" s="3" t="n">
-        <v>42237</v>
+        <v>37921</v>
       </c>
       <c r="M110" s="3" t="n">
-        <v>42416</v>
+        <v>42456</v>
       </c>
       <c r="N110" t="n">
-        <v>0.4900752908966461</v>
+        <v>12.41615331964408</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>4 planets (Pepe et al 2011, Feng et al 2017): b at 18d, 2.7 Me; c at 40d, 2.4Me; d at 90d, 4.8Me; e at 147d, 4.8Me (only in Pepe). Also strong signal at 10d in act ind, forest of peaks in CRX</t>
+          <t>Triple star system (40Eri) and one known planet, b at 42d, 8Me (Ma et al 2018, Dharma Planet Survey). 616 obs on 101 nights. Very strong signal at ~40d in RV! Matches the planet. Also activity signals all over the place in unbinned, vanish in binned (the 40d doesn't, though). RMS is low, 1.81 m/s. Activity may be a problem. From Ma et al: "HD 26965 is the primary of a very widely separated triple system. The  other two companions are an M4 dwarf and a white dwarf. The on-sky separation between the primary and the other two stars is about 82 arcsec. The estimated orbital period of this system is ∼8000 yr (Heintz 1974). This star has a star-spot activity cycle period of 10.1 yr (Baliunas et al. 1995)."</t>
         </is>
       </c>
       <c r="P110" t="n">
         <v>2</v>
       </c>
       <c r="Q110" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S110" t="n">
         <v>1</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>HD20794</t>
+          <t>HD26965</t>
         </is>
       </c>
       <c r="V110" t="n">
-        <v>4.847957293277763e+18</v>
+        <v>3.195919528988725e+18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3195919528988725120</t>
+          <t>4722135642226356736</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>HD26965</t>
+          <t>GJ138</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>616</v>
+        <v>316</v>
       </c>
       <c r="D111" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E111" t="n">
-        <v>1.81</v>
+        <v>2.73</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>4.43</v>
+        <v>5.228</v>
       </c>
       <c r="H111" t="n">
-        <v>0.369</v>
+        <v>2.055</v>
       </c>
       <c r="I111" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J111" t="n">
-        <v>0.59</v>
+        <v>1.28</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>K0V</t>
+          <t>G1V</t>
         </is>
       </c>
       <c r="L111" s="3" t="n">
-        <v>37921</v>
+        <v>37931</v>
       </c>
       <c r="M111" s="3" t="n">
-        <v>42456</v>
+        <v>42644</v>
       </c>
       <c r="N111" t="n">
-        <v>12.41615331964408</v>
+        <v>12.90349075975359</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Triple star system (40Eri) and one known planet, b at 42d, 8Me (Ma et al 2018, Dharma Planet Survey). 616 obs on 101 nights. Very strong signal at ~40d in RV! Matches the planet. Also activity signals all over the place in unbinned, vanish in binned (the 40d doesn't, though). RMS is low, 1.81 m/s. Activity may be a problem. From Ma et al: "HD 26965 is the primary of a very widely separated triple system. The  other two companions are an M4 dwarf and a white dwarf. The on-sky separation between the primary and the other two stars is about 82 arcsec. The estimated orbital period of this system is ∼8000 yr (Heintz 1974). This star has a star-spot activity cycle period of 10.1 yr (Baliunas et al. 1995)."</t>
+          <t>Forest of peaks in 10-1000d range in all periodograms. 316 obs on 99 nights, night-medianned periodograms look cleaner...</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q111" t="n">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="S111" t="n">
         <v>1</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>HD26965</t>
+          <t>GJ138</t>
         </is>
       </c>
       <c r="V111" t="n">
-        <v>3.195919528988725e+18</v>
+        <v>4.722135642226356e+18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>6742873637093574400</t>
+          <t>5164707970261630080</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GJ755</t>
+          <t>HD22049</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>34</v>
+        <v>541</v>
       </c>
       <c r="D112" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E112" t="n">
-        <v>463.56</v>
+        <v>5.22</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>6.48</v>
+        <v>3.73</v>
       </c>
       <c r="H112" t="n">
-        <v>12</v>
+        <v>1.507</v>
       </c>
       <c r="I112" t="n">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="J112" t="n">
-        <v>2.9</v>
+        <v>0.38</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>G2V</t>
+          <t>K2V</t>
         </is>
       </c>
       <c r="L112" s="3" t="n">
-        <v>38448</v>
+        <v>37931</v>
       </c>
       <c r="M112" s="3" t="n">
-        <v>42206</v>
+        <v>42235</v>
       </c>
       <c r="N112" t="n">
-        <v>10.28884325804244</v>
+        <v>11.78370978781656</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Clear linear trend in RVs, but linear alone doesn't remove everything. No known planet, but strong signal in RV periodogram at ~770d, ~1000d, ~1500d. Some peaks above FAP level in NaD1 at ~200,400d, otherwise nothing in activity.-&gt; Could be worth fitting out the RV signal, seeing what it looks like -&gt; fitting at 782d, 34Mj! And still high RMS in residuals, periodograms clustered at 1d</t>
+          <t>One known planet, eps Eri b at 2671 d, 0.66Mj. 541 obs over 26 nights. unbinned is chaos, binned shows no signal, but RMS is high at 5.22m/s (unbinned, 7.9m/s binned)</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q112" t="n">
-        <v>1</v>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
+        <v>107</v>
       </c>
       <c r="S112" t="n">
         <v>1</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>GJ755</t>
+          <t>HD22049</t>
         </is>
       </c>
       <c r="V112" t="n">
-        <v>6.742873637093575e+18</v>
+        <v>5.16470797026163e+18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>4377160604838377600</t>
+          <t>4975284381907834880</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GJ688</t>
+          <t>GJ1021</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="D113" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E113" t="n">
-        <v>3505.43</v>
+        <v>10.11</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>6.525</v>
+        <v>5.794</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I113" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="J113" t="n">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>K3-V</t>
+          <t>G3V</t>
         </is>
       </c>
       <c r="L113" s="3" t="n">
-        <v>38028</v>
+        <v>37931</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>39703</v>
+        <v>39332</v>
       </c>
       <c r="N113" t="n">
-        <v>4.58590006844627</v>
+        <v>3.835728952772074</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Very strong signal at 90d! Close signal in CRX though... Super high RMS -&gt; fitting the 83d signal, rms=5.68. Also fitting the next signal at 27d, fit is very eccentric and rms only goes down to 3.4</t>
+          <t>RV peaks at 50, 60d, but also peaks in CRX, Halpha at 50d (G pdf). Taking the night medians (GK pdf), no peaks!</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q113" t="n">
-        <v>92</v>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
+        <v>56</v>
       </c>
       <c r="S113" t="n">
         <v>1</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>GJ688</t>
+          <t>GJ1021</t>
         </is>
       </c>
       <c r="V113" t="n">
-        <v>4.377160604838377e+18</v>
+        <v>4.975284381907835e+18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4722135642226356736</t>
+          <t>4852870701504645376</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GJ138</t>
+          <t>GJ3222</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="D114" t="n">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="E114" t="n">
-        <v>2.73</v>
+        <v>14</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>5.228</v>
+        <v>6.903</v>
       </c>
       <c r="H114" t="n">
-        <v>2.055</v>
+        <v>1.8</v>
       </c>
       <c r="I114" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="J114" t="n">
-        <v>1.28</v>
+        <v>2.03</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>G1V</t>
+          <t>K0V</t>
         </is>
       </c>
       <c r="L114" s="3" t="n">
-        <v>37931</v>
+        <v>41550</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>42644</v>
+        <v>43017</v>
       </c>
       <c r="N114" t="n">
-        <v>12.90349075975359</v>
+        <v>4.016427104722792</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Forest of peaks in 10-1000d range in all periodograms. 316 obs on 99 nights, night-medianned periodograms look cleaner...</t>
+          <t>No data on exoplanet archive. Multiple RV peaks at ~100-200d, also Halpha</t>
         </is>
       </c>
       <c r="P114" t="n">
         <v>4</v>
       </c>
       <c r="Q114" t="n">
-        <v>84</v>
+        <v>32</v>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
       </c>
       <c r="S114" t="n">
         <v>1</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>GJ138</t>
+          <t>GJ3222</t>
         </is>
       </c>
       <c r="V114" t="n">
-        <v>4.722135642226356e+18</v>
+        <v>4.852870701504645e+18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>5164707970261630080</t>
+          <t>4358031335897026304</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>HD22049</t>
+          <t>GJ631</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>541</v>
+        <v>21</v>
       </c>
       <c r="D115" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E115" t="n">
-        <v>5.22</v>
+        <v>7.05</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>3.73</v>
+        <v>5.77</v>
       </c>
       <c r="H115" t="n">
-        <v>1.507</v>
+        <v>2.4</v>
       </c>
       <c r="I115" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="J115" t="n">
-        <v>0.38</v>
+        <v>1.08</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>K2V</t>
+          <t>K1V</t>
         </is>
       </c>
       <c r="L115" s="3" t="n">
-        <v>37931</v>
+        <v>38429</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>42235</v>
+        <v>40960</v>
       </c>
       <c r="N115" t="n">
-        <v>11.78370978781656</v>
+        <v>6.929500342231348</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>One known planet, eps Eri b at 2671 d, 0.66Mj. 541 obs over 26 nights. unbinned is chaos, binned shows no signal, but RMS is high at 5.22m/s (unbinned, 7.9m/s binned)</t>
+          <t>lots of signals at 50-100d in all periodograms, high rms</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q115" t="n">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="S115" t="n">
         <v>1</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>HD22049</t>
+          <t>GJ631</t>
         </is>
       </c>
       <c r="V115" t="n">
-        <v>5.16470797026163e+18</v>
+        <v>4.358031335897027e+18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>4975284381907834880</t>
+          <t>4937000898855759104</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>GJ1021</t>
+          <t>GJ86</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D116" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E116" t="n">
-        <v>10.11</v>
+        <v>202.46</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>5.794</v>
+        <v>6.117</v>
       </c>
       <c r="H116" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="J116" t="n">
-        <v>1.95</v>
+        <v>1.26</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>G3V</t>
+          <t>K1.5V</t>
         </is>
       </c>
       <c r="L116" s="3" t="n">
-        <v>37931</v>
+        <v>42543</v>
       </c>
       <c r="M116" s="3" t="n">
-        <v>39332</v>
+        <v>43177</v>
       </c>
       <c r="N116" t="n">
-        <v>3.835728952772074</v>
+        <v>1.735797399041752</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>RV peaks at 50, 60d, but also peaks in CRX, Halpha at 50d (G pdf). Taking the night medians (GK pdf), no peaks!</t>
+          <t>One planet, b at 15d, 4.4Mj</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q116" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="S116" t="n">
         <v>1</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>GJ1021</t>
+          <t>GJ86</t>
         </is>
       </c>
       <c r="V116" t="n">
-        <v>4.975284381907835e+18</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>4852870701504645376</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>GJ3222</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>61</v>
-      </c>
-      <c r="D117" t="n">
-        <v>30</v>
-      </c>
-      <c r="E117" t="n">
-        <v>14</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>6.903</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J117" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>K0V</t>
-        </is>
-      </c>
-      <c r="L117" s="3" t="n">
-        <v>41550</v>
-      </c>
-      <c r="M117" s="3" t="n">
-        <v>43017</v>
-      </c>
-      <c r="N117" t="n">
-        <v>4.016427104722792</v>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>No data on exoplanet archive. Multiple RV peaks at ~100-200d, also Halpha</t>
-        </is>
-      </c>
-      <c r="P117" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>32</v>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>bad</t>
-        </is>
-      </c>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>GJ3222</t>
-        </is>
-      </c>
-      <c r="V117" t="n">
-        <v>4.852870701504645e+18</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>6427464325637241728</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>GJ780</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>5323</v>
-      </c>
-      <c r="D118" t="n">
-        <v>392</v>
-      </c>
-      <c r="E118" t="n">
-        <v>100.11</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1.507</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>G8IV</t>
-        </is>
-      </c>
-      <c r="L118" s="3" t="n">
-        <v>38262</v>
-      </c>
-      <c r="M118" s="3" t="n">
-        <v>42644</v>
-      </c>
-      <c r="N118" t="n">
-        <v>11.99726214921287</v>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>5323 obs over 391 nights, jump from pre to post. Unbinned shows strong peaks at 1d, binned at ~300d, also in act ind</t>
-        </is>
-      </c>
-      <c r="P118" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>101</v>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>GJ780</t>
-        </is>
-      </c>
-      <c r="V118" t="n">
-        <v>6.427464325637242e+18</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>6190970236474307200</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>GJ530</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>24</v>
-      </c>
-      <c r="D119" t="n">
-        <v>11</v>
-      </c>
-      <c r="E119" t="n">
-        <v>912.95</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="H119" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>G5Va</t>
-        </is>
-      </c>
-      <c r="L119" s="3" t="n">
-        <v>40965</v>
-      </c>
-      <c r="M119" s="3" t="n">
-        <v>41358</v>
-      </c>
-      <c r="N119" t="n">
-        <v>1.075975359342916</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>Looks like linear trend? Fitting out a linear leaves a curve. Lots of peaks in RV, CRX, Halpha at 10-100d, probably not a good target</t>
-        </is>
-      </c>
-      <c r="P119" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>17</v>
-      </c>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>GJ530</t>
-        </is>
-      </c>
-      <c r="V119" t="n">
-        <v>6.190970236474308e+18</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>4358031335897026304</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>GJ631</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>21</v>
-      </c>
-      <c r="D120" t="n">
-        <v>12</v>
-      </c>
-      <c r="E120" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>K1V</t>
-        </is>
-      </c>
-      <c r="L120" s="3" t="n">
-        <v>38429</v>
-      </c>
-      <c r="M120" s="3" t="n">
-        <v>40960</v>
-      </c>
-      <c r="N120" t="n">
-        <v>6.929500342231348</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>lots of signals at 50-100d in all periodograms, high rms</t>
-        </is>
-      </c>
-      <c r="P120" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>93</v>
-      </c>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>GJ631</t>
-        </is>
-      </c>
-      <c r="V120" t="n">
-        <v>4.358031335897027e+18</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>4937000898855759104</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>GJ86</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>54</v>
-      </c>
-      <c r="D121" t="n">
-        <v>11</v>
-      </c>
-      <c r="E121" t="n">
-        <v>202.46</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" t="n">
-        <v>6.117</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>K1.5V</t>
-        </is>
-      </c>
-      <c r="L121" s="3" t="n">
-        <v>42543</v>
-      </c>
-      <c r="M121" s="3" t="n">
-        <v>43177</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.735797399041752</v>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>One planet, b at 15d, 4.4Mj</t>
-        </is>
-      </c>
-      <c r="P121" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>89</v>
-      </c>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-      <c r="U121" t="inlineStr">
-        <is>
-          <t>GJ86</t>
-        </is>
-      </c>
-      <c r="V121" t="n">
         <v>4.937000898855759e+18</v>
       </c>
     </row>

--- a/results/test_merged_result_MJ.xlsx
+++ b/results/test_merged_result_MJ.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV108"/>
+  <dimension ref="A1:AW108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,8 +483,9 @@
     <col width="12" customWidth="1" min="44" max="44"/>
     <col width="19" customWidth="1" min="45" max="45"/>
     <col width="22" customWidth="1" min="46" max="46"/>
-    <col width="19" customWidth="1" min="47" max="47"/>
-    <col width="13" customWidth="1" min="48" max="48"/>
+    <col width="22" customWidth="1" min="47" max="47"/>
+    <col width="19" customWidth="1" min="48" max="48"/>
+    <col width="13" customWidth="1" min="49" max="49"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -715,15 +716,20 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>Spectral Type Simbad</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>Density [Solar unit]</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Distance [pc]</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>V_mag_group</t>
         </is>
@@ -877,18 +883,23 @@
           <t>GJ 796</t>
         </is>
       </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>101997</t>
+        </is>
+      </c>
       <c r="AS2" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>1.528241921070437</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>14.67227710117747</v>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -1042,20 +1053,25 @@
           <t>GJ 722</t>
         </is>
       </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>91438</t>
+        </is>
+      </c>
       <c r="AS3" t="inlineStr">
         <is>
           <t>**</t>
         </is>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>1.356604055150243</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>13.0309238390451</v>
       </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -1207,20 +1223,25 @@
           <t>GJ 565</t>
         </is>
       </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>72688</t>
+        </is>
+      </c>
       <c r="AS4" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>2.041952602911969</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>16.76761069658454</v>
       </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1372,20 +1393,25 @@
           <t>GJ 9824, GJ 894.5</t>
         </is>
       </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>115445</t>
+        </is>
+      </c>
       <c r="AS5" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>2.239104212270826</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>19.17020321539005</v>
       </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1510,6 +1536,9 @@
       <c r="AJ6" t="n">
         <v>0.4528975560350175</v>
       </c>
+      <c r="AK6" t="n">
+        <v>1.06</v>
+      </c>
       <c r="AL6" t="n">
         <v>0.6710101207150422</v>
       </c>
@@ -1534,15 +1563,23 @@
           <t>GJ 71.0, GJ 71</t>
         </is>
       </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>8102</t>
+        </is>
+      </c>
       <c r="AS6" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
       <c r="AU6" t="n">
+        <v>0.6800916192561645</v>
+      </c>
+      <c r="AV6" t="n">
         <v>3.652170961142577</v>
       </c>
-      <c r="AV6" t="inlineStr">
+      <c r="AW6" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -1696,20 +1733,25 @@
           <t>GJ 1079</t>
         </is>
       </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>25421</t>
+        </is>
+      </c>
       <c r="AS7" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT7" t="n">
+      <c r="AU7" t="n">
         <v>2.052688921124784</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AV7" t="n">
         <v>17.86166659875671</v>
       </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1864,20 +1906,25 @@
           <t>GJ 1126</t>
         </is>
       </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>46626</t>
+        </is>
+      </c>
       <c r="AS8" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT8" t="n">
+      <c r="AU8" t="n">
         <v>1.621604673108436</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AV8" t="n">
         <v>19.62991435281008</v>
       </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -2032,20 +2079,25 @@
           <t>GJ 1094</t>
         </is>
       </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>33955</t>
+        </is>
+      </c>
       <c r="AS9" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT9" t="n">
+      <c r="AU9" t="n">
         <v>2.11927517458269</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AV9" t="n">
         <v>19.11360225322881</v>
       </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -2197,18 +2249,23 @@
           <t>GJ 776</t>
         </is>
       </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>98959</t>
+        </is>
+      </c>
       <c r="AS10" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT10" t="n">
+      <c r="AU10" t="n">
         <v>0.8528938169750084</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AV10" t="n">
         <v>17.93225480992242</v>
       </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AW10" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -2365,20 +2422,25 @@
           <t>GJ 666 A, GJ 666</t>
         </is>
       </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>84720</t>
+        </is>
+      </c>
       <c r="AS11" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT11" t="n">
+      <c r="AU11" t="n">
         <v>1.457793859010921</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AV11" t="n">
         <v>8.791104886960111</v>
       </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -2457,6 +2519,102 @@
           <t>6080301367488384896</t>
         </is>
       </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>6080301367488384896</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>6080301367488384896</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>6080301367488384896</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>196.2337538641043</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-52.4464606454391</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.038844431605339</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.445794105529785</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.284271240234375</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7.547557353973389</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.736713886260986</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>61.3202021352086</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>3640</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.1310105</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.7293058</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.3862192906125948</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.2029069987476966</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.997255190854221</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>HD 113538</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>GJ 9425, GJ 496.1</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>63833</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.288964635557539</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>16.30783926307092</v>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2534,6 +2692,102 @@
           <t>5994771148252505216</t>
         </is>
       </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>5994771148252505216</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>5994771148252505216</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>5994771148252505216</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v>239.4182138238268</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-42.62508240537215</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.036714071187973</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.658037185668945</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.272919654846191</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>6.906684875488281</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.36623477935791</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>67.84333793843794</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>4413.7607</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.17772165</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.71036565</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.4411868963696321</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.2252009048390298</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.39970899103004</v>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>HD 142709</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>GJ 604</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>78170</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.952774888141471</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>14.73984079184628</v>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2683,20 +2937,25 @@
           <t>GJ 582</t>
         </is>
       </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>75181</t>
+        </is>
+      </c>
       <c r="AS14" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT14" t="n">
+      <c r="AU14" t="n">
         <v>0.7940434459215121</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AV14" t="n">
         <v>14.73911160268253</v>
       </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -2848,18 +3107,23 @@
           <t>GJ 506</t>
         </is>
       </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>64924</t>
+        </is>
+      </c>
       <c r="AS15" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT15" t="n">
+      <c r="AU15" t="n">
         <v>0.906764956917385</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AV15" t="n">
         <v>8.534415098502675</v>
       </c>
-      <c r="AV15" t="inlineStr">
+      <c r="AW15" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -3013,18 +3277,23 @@
           <t>GJ 446</t>
         </is>
       </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>57507</t>
+        </is>
+      </c>
       <c r="AS16" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT16" t="n">
+      <c r="AU16" t="n">
         <v>1.292561167675858</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AV16" t="n">
         <v>17.74227354232349</v>
       </c>
-      <c r="AV16" t="inlineStr">
+      <c r="AW16" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -3181,20 +3450,25 @@
           <t>GJ 3</t>
         </is>
       </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
       <c r="AS17" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT17" t="n">
+      <c r="AU17" t="n">
         <v>2.745567710296219</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AV17" t="n">
         <v>16.39172288343968</v>
       </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -3354,20 +3628,25 @@
           <t>GJ 715</t>
         </is>
       </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>90656</t>
+        </is>
+      </c>
       <c r="AS18" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT18" t="n">
+      <c r="AU18" t="n">
         <v>1.78211177339737</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AV18" t="n">
         <v>18.81162115767776</v>
       </c>
-      <c r="AV18" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -3519,20 +3798,25 @@
           <t>GJ 798.0, GJ 798</t>
         </is>
       </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>102186</t>
+        </is>
+      </c>
       <c r="AS19" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT19" t="n">
+      <c r="AU19" t="n">
         <v>2.3728520291368</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AV19" t="n">
         <v>12.34142491279828</v>
       </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -3612,6 +3896,102 @@
           <t>5378886891122066560</t>
         </is>
       </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>5378886891123024512</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>5378886891122066560</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>5378886891123024512</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
+        <v>175.2561753700118</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-44.40411484982858</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>7.744590456547737</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.394228935241699</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.979490756988525</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>6.665698051452637</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.313792705535889</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>78.22675647892444</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>4270</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.16284244</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.6427813</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.4243346297157088</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1928964054458701</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.17580278043234</v>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>HD 101581</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>GJ 435</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>56998</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU20" t="n">
+        <v>2.635775028242927</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>12.7833499049576</v>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3769,20 +4149,25 @@
           <t>GJ 787</t>
         </is>
       </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>100223</t>
+        </is>
+      </c>
       <c r="AS21" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT21" t="n">
+      <c r="AU21" t="n">
         <v>2.032467946890793</v>
       </c>
-      <c r="AU21" t="n">
+      <c r="AV21" t="n">
         <v>18.50341299310089</v>
       </c>
-      <c r="AV21" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -3862,6 +4247,102 @@
           <t>4737533237421005952</t>
         </is>
       </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>4737533237421005952</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>4737533237421005952</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>4737533237421005952</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>50.82325574741139</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-49.9907184713681</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.543711507334709</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.192389488220215</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8.778672218322754</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>7.462452411651611</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.316219806671143</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>51.81551879878727</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>4410</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.74283314</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.17813864</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.67277056</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.4417625331460715</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2844115961768082</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.822195496765714</v>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>HD  21209A, HD  21209</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>GJ 9115 A, GJ 140.1 A</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>15774</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU22" t="n">
+        <v>2.439441087603737</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>19.29923743277091</v>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3936,6 +4417,102 @@
           <t>5285775539195330560</t>
         </is>
       </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>5285775539195330560</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>5285775539195330560</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>5285775539195330560</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>108.2768913871574</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-63.34238904353339</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9.05973434832096</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.570058822631836</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>9.300670623779297</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>7.744371891021729</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.556298732757568</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>51.05388225075709</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>4179.2197</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.15366574</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.74814504</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.4133280492459198</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.3434973018235495</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.913173990332276</v>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>HD  56533</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>GJ 9226, GJ 268.2</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>34890</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.43282729890182</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>19.58714902597188</v>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4010,6 +4587,102 @@
           <t>4833654227548585856</t>
         </is>
       </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>4833654227548585856</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>4833654227548585856</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>4833654227548585856</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>53.75662455732397</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-48.41777462792747</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.559503447828293</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.020994186401367</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8.802591323852539</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>7.159848213195801</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.642743110656738</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>73.51988280065039</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>3850</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.6617253</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.1286912</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.7185779</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.3813171613997799</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.218216145001496</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.225959512009539</v>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>HD  22496</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>GJ 146</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>16711</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.783430422381145</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>13.60176270562762</v>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4159,20 +4832,25 @@
           <t>GJ 18.0, GJ 18</t>
         </is>
       </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
       <c r="AS25" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT25" t="n">
+      <c r="AU25" t="n">
         <v>2.366201403288587</v>
       </c>
-      <c r="AU25" t="n">
+      <c r="AV25" t="n">
         <v>17.91335395150217</v>
       </c>
-      <c r="AV25" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -4324,18 +5002,23 @@
           <t>GJ 139</t>
         </is>
       </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>15510</t>
+        </is>
+      </c>
       <c r="AS26" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT26" t="n">
+      <c r="AU26" t="n">
         <v>1.177088983194154</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="AV26" t="n">
         <v>6.041412326770681</v>
       </c>
-      <c r="AV26" t="inlineStr">
+      <c r="AW26" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -4489,18 +5172,23 @@
           <t>GJ 166 A</t>
         </is>
       </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>19849</t>
+        </is>
+      </c>
       <c r="AS27" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
       </c>
-      <c r="AT27" t="n">
+      <c r="AU27" t="n">
         <v>1.381521552589273</v>
       </c>
-      <c r="AU27" t="n">
+      <c r="AV27" t="n">
         <v>5.009818934047725</v>
       </c>
-      <c r="AV27" t="inlineStr">
+      <c r="AW27" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -4582,6 +5270,102 @@
           <t>4673947174316727040</t>
         </is>
       </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>4673947174316727040</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>4673947174316727040</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>4673947174316727040</t>
+        </is>
+      </c>
+      <c r="Z28" t="n">
+        <v>51.75029890079423</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-63.50020035944183</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.069829419689178</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.686758995056152</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>8.306118011474609</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>6.936548233032227</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.369569778442383</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>61.22711646241579</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>4425.028</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.20409887</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.7259589</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.4726066306240386</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.2286520868473961</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.470894281626461</v>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>HD  21749</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>GJ 143</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>16069</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.82962437834759</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>16.33263262714404</v>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4661,6 +5445,97 @@
           <t>4377160604838377600</t>
         </is>
       </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>4377160604838377600</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>4377160604838377600</t>
+        </is>
+      </c>
+      <c r="Z29" t="n">
+        <v>264.8197082287717</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3.554823749415744</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>6.513840073809623</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>6.200440406799316</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.745635509490967</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>5.556586265563965</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.189049243927002</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>99.13913477749777</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>4897.033</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.28352284</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.7397425</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.5461048055189085</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.1129173461585706</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.7808262481243979</v>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>HD 160346</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>GJ 688</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>86400</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>SB*</t>
+        </is>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.729244200975598</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>10.0868340463566</v>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4805,18 +5680,23 @@
           <t>HD 157347</t>
         </is>
       </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>85042</t>
+        </is>
+      </c>
       <c r="AS30" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT30" t="n">
+      <c r="AU30" t="n">
         <v>0.8158904314580906</v>
       </c>
-      <c r="AU30" t="n">
+      <c r="AV30" t="n">
         <v>19.61960010657953</v>
       </c>
-      <c r="AV30" t="inlineStr">
+      <c r="AW30" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -4973,20 +5853,25 @@
           <t>GJ 653</t>
         </is>
       </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>83591</t>
+        </is>
+      </c>
       <c r="AS31" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT31" t="n">
+      <c r="AU31" t="n">
         <v>1.781510507227236</v>
       </c>
-      <c r="AU31" t="n">
+      <c r="AV31" t="n">
         <v>10.46386619996736</v>
       </c>
-      <c r="AV31" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -5138,18 +6023,23 @@
           <t>GJ 327</t>
         </is>
       </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>43726</t>
+        </is>
+      </c>
       <c r="AS32" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT32" t="n">
+      <c r="AU32" t="n">
         <v>1.270700200018976</v>
       </c>
-      <c r="AU32" t="n">
+      <c r="AV32" t="n">
         <v>16.8464974404826</v>
       </c>
-      <c r="AV32" t="inlineStr">
+      <c r="AW32" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -5301,20 +6191,25 @@
           <t>HD  23356</t>
         </is>
       </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>17420</t>
+        </is>
+      </c>
       <c r="AS33" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT33" t="n">
+      <c r="AU33" t="n">
         <v>2.052239288285687</v>
       </c>
-      <c r="AU33" t="n">
+      <c r="AV33" t="n">
         <v>13.93717968355234</v>
       </c>
-      <c r="AV33" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -5471,20 +6366,25 @@
           <t>GJ 136</t>
         </is>
       </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>15330</t>
+        </is>
+      </c>
       <c r="AS34" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT34" t="n">
+      <c r="AU34" t="n">
         <v>1.37647581175124</v>
       </c>
-      <c r="AU34" t="n">
+      <c r="AV34" t="n">
         <v>12.04471428916949</v>
       </c>
-      <c r="AV34" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5564,6 +6464,102 @@
           <t>1736838805468812160</t>
         </is>
       </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>1736838805468812160</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>1736838805468812160</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>1736838805468812160</t>
+        </is>
+      </c>
+      <c r="Z35" t="n">
+        <v>316.3326270326946</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>7.066791776223249</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8.269753558840751</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.816643714904785</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>8.509196281433105</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>7.012903690338135</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.496292591094971</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>66.46255615107758</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>4060</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.18256173</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8133548</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.4519785977553837</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.2258359775272261</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.315331177466831</v>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>HD 200779</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>GJ 818</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>104092</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.115093151133548</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>15.04606590403891</v>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5713,20 +6709,25 @@
           <t>GJ 9833, GJ 902.1</t>
         </is>
       </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>116763</t>
+        </is>
+      </c>
       <c r="AS36" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT36" t="n">
+      <c r="AU36" t="n">
         <v>1.852212400374402</v>
       </c>
-      <c r="AU36" t="n">
+      <c r="AV36" t="n">
         <v>18.27507516390551</v>
       </c>
-      <c r="AV36" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -5806,6 +6807,102 @@
           <t>6288325222245417856</t>
         </is>
       </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>6288325222245417856</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>6288325222245417856</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>6288325222245417856</t>
+        </is>
+      </c>
+      <c r="Z37" t="n">
+        <v>207.4282987217777</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>-22.11328889048028</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8.153160107531548</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.691279411315918</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>8.393013954162598</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>6.880203723907471</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.512810230255127</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>71.07799890467766</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>4214.972</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.17158246</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.75877374</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.4363038004387554</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.2291331933202787</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.311189765087929</v>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>HD 120467</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>GJ 529</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>67487</t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.373454807188958</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>14.06905111863229</v>
+      </c>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5885,6 +6982,97 @@
           <t>6742873637093574400</t>
         </is>
       </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>6742873637093574400</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>6742873637093574400</t>
+        </is>
+      </c>
+      <c r="Z38" t="n">
+        <v>290.3744480746946</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-34.98379423442576</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>6.312130451202393</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>6.312130451202393</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6.660956859588623</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>5.850902557373047</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.8100543022155762</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>50.28644486484526</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>5848.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.87565553</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.91144466</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.908749052603017</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.1565707366592258</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.669320258238543</v>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>HD 181321</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>GJ 755</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>95149</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>SB*</t>
+        </is>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.320714924499832</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>19.88607472028888</v>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6042,20 +7230,25 @@
           <t>GJ 862</t>
         </is>
       </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>110996</t>
+        </is>
+      </c>
       <c r="AS39" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT39" t="n">
+      <c r="AU39" t="n">
         <v>1.769575738741929</v>
       </c>
-      <c r="AU39" t="n">
+      <c r="AV39" t="n">
         <v>15.71044010482964</v>
       </c>
-      <c r="AV39" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -6135,6 +7328,102 @@
           <t>4258375617747092864</t>
         </is>
       </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>4258375617747092864</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>4258375617747092864</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>4258375617747092864</t>
+        </is>
+      </c>
+      <c r="Z40" t="n">
+        <v>281.8629551175184</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>-3.641055455311226</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>8.786167160444259</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.26960277557373</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>9.028376579284668</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>7.420927047729492</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.607449531555176</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>70.13347528858606</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>4022.2102</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.11139318</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.69506925</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.3533903924347861</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.2800848151418651</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.55802133070193</v>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>HD 173818</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>GJ 726</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>92200</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU40" t="n">
+        <v>2.084557182793672</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>14.25852627272766</v>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6212,6 +7501,102 @@
           <t>6029992663310612096</t>
         </is>
       </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>6029992663310612096</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>6029992663310612096</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>6029992663310612096</t>
+        </is>
+      </c>
+      <c r="Z41" t="n">
+        <v>256.1164346070391</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>-28.5838715417241</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>6.380115509033203</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>6.380115509033203</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6.777419090270996</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>5.814102172851562</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.9633169174194336</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>54.72597918734041</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>5421.711</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.6974737</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.9731488</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.8326249431969582</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.1342446975344438</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.500787772810031</v>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>HD 154088</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>GJ 652</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>83541</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.302097459932565</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>18.27285714846244</v>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6361,20 +7746,25 @@
           <t>GJ 785</t>
         </is>
       </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>99825</t>
+        </is>
+      </c>
       <c r="AS42" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT42" t="n">
+      <c r="AU42" t="n">
         <v>1.712118408202441</v>
       </c>
-      <c r="AU42" t="n">
+      <c r="AV42" t="n">
         <v>8.811567976359871</v>
       </c>
-      <c r="AV42" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6451,6 +7841,102 @@
           <t>6832674634380238848</t>
         </is>
       </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>6832674634380238848</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>6832674634380238848</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>6832674634380238848</t>
+        </is>
+      </c>
+      <c r="Z43" t="n">
+        <v>320.0567709913498</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>-19.85548923847976</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9.066298904175758</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.497677803039551</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>9.310630798339844</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>7.617907047271729</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.692723751068115</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>63.38643828104384</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>3939.6514</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.10051212</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.5759601</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.3363424972877731</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.3002265324091725</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.508423193722087</v>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>HD 203040</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>GJ 9736, GJ 826.1</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>105341</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU43" t="n">
+        <v>3.140321084148939</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>15.77624531553869</v>
+      </c>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6525,6 +8011,102 @@
           <t>5117974602912370432</t>
         </is>
       </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>5117974602912370432</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>5117974602912370432</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>5117974602912370432</t>
+        </is>
+      </c>
+      <c r="Z44" t="n">
+        <v>34.74269374763958</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>-25.94371112925351</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>6.147863864898682</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>6.147863864898682</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>6.518683910369873</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>5.598161220550537</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.9205226898193359</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>77.91401913043707</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>5357.897</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.44263253</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7770072</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.6657742669072401</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.1169016179159743</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.9541920429052705</v>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>HD  14412</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>GJ 95</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>10798</t>
+        </is>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.705355230604966</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>12.83466070882423</v>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6674,18 +8256,23 @@
           <t>GJ 144.0, GJ 144</t>
         </is>
       </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>16537</t>
+        </is>
+      </c>
       <c r="AS45" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
       </c>
-      <c r="AT45" t="n">
+      <c r="AU45" t="n">
         <v>1.735189810693292</v>
       </c>
-      <c r="AU45" t="n">
+      <c r="AV45" t="n">
         <v>3.219810408490127</v>
       </c>
-      <c r="AV45" t="inlineStr">
+      <c r="AW45" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -6834,18 +8421,23 @@
           <t>GJ 744</t>
         </is>
       </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>93858</t>
+        </is>
+      </c>
       <c r="AS46" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT46" t="n">
+      <c r="AU46" t="n">
         <v>1.114227419076153</v>
       </c>
-      <c r="AU46" t="n">
+      <c r="AV46" t="n">
         <v>16.95317213092454</v>
       </c>
-      <c r="AV46" t="inlineStr">
+      <c r="AW46" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -6929,6 +8521,102 @@
           <t>6427464325637241728</t>
         </is>
       </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>6427464123776727168</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>6427464325637241728</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>6427464123776727168</t>
+        </is>
+      </c>
+      <c r="Z47" t="n">
+        <v>302.1950398892303</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-66.18709128441725</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>3.618788456735611</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>3.364138126373291</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.846358299255371</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2.827079772949219</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.019278526306152</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>163.9544145383167</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>5437.5474</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.2535083</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.2615935</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.115174356615853</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0.03792613478839159</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.5486076188205466</v>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>HD 190248</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>GJ 780</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>99240</t>
+        </is>
+      </c>
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.7470212065555705</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>6.099256325704463</v>
+      </c>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Brightest</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7076,20 +8764,25 @@
           <t>GJ 583</t>
         </is>
       </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>75201</t>
+        </is>
+      </c>
       <c r="AS48" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT48" t="n">
+      <c r="AU48" t="n">
         <v>1.793063235341547</v>
       </c>
-      <c r="AU48" t="n">
+      <c r="AV48" t="n">
         <v>19.15340158131814</v>
       </c>
-      <c r="AV48" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -7169,6 +8862,102 @@
           <t>5412947081287925504</t>
         </is>
       </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>5412947081295024896</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>5412947081287925504</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>5412947081295024896</t>
+        </is>
+      </c>
+      <c r="Z49" t="n">
+        <v>147.782210929189</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-43.50488163509864</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.625186750273705</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7.196407794952393</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>7.863672256469727</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>6.405837535858154</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.457834720611572</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>88.67366322546205</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>4060</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.6977318</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.17581</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.78265923</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0.4435420364286489</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0.1678339315201408</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.04423534837364</v>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>HD  85512</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
+          <t>GJ 370</t>
+        </is>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>48331</t>
+        </is>
+      </c>
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.455359828131016</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>11.27730561279955</v>
+      </c>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7243,6 +9032,102 @@
           <t>6313600142709958144</t>
         </is>
       </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>6313600142709958144</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>6313600142709958144</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>6313600142709958144</t>
+        </is>
+      </c>
+      <c r="Z50" t="n">
+        <v>225.1808186516746</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-11.13726849432206</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>9.452585903630256</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>8.844958305358887</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>9.698563575744629</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>7.939717769622803</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.758845806121826</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>56.06777131891592</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>3890.9976</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.110792436</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.764504</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.3535030973536811</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.3434949446544288</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.769296033820299</v>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>HD 132683</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>GJ 9507, GJ 571.1</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>73457</t>
+        </is>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.342801953045888</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>17.83555822670312</v>
+      </c>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7392,20 +9277,25 @@
           <t>GJ 302</t>
         </is>
       </c>
+      <c r="AR51" t="inlineStr">
+        <is>
+          <t>40693</t>
+        </is>
+      </c>
       <c r="AS51" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT51" t="n">
+      <c r="AU51" t="n">
         <v>1.226402369197755</v>
       </c>
-      <c r="AU51" t="n">
+      <c r="AV51" t="n">
         <v>12.57936463354278</v>
       </c>
-      <c r="AV51" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -7485,6 +9375,102 @@
           <t>6232511606838403968</t>
         </is>
       </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>6232511606838403968</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>6232511606838403968</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>6232511606838403968</t>
+        </is>
+      </c>
+      <c r="Z52" t="n">
+        <v>224.3715942734814</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-21.42314039626168</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>5.725483061494828</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>5.364036560058594</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>5.960627555847168</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>4.63702392578125</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.323603630065918</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>169.8842702825854</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>4503.0303</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0.22034836</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.7356795</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0.4896606979971491</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0.076958406914061</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0.5039171941821956</v>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP52" t="inlineStr">
+        <is>
+          <t>HD 131977</t>
+        </is>
+      </c>
+      <c r="AQ52" t="inlineStr">
+        <is>
+          <t>GJ 570, GJ 570 A</t>
+        </is>
+      </c>
+      <c r="AR52" t="inlineStr">
+        <is>
+          <t>73184</t>
+        </is>
+      </c>
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.758053457990462</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>5.886360157633197</v>
+      </c>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7559,6 +9545,97 @@
           <t>6190970236474307200</t>
         </is>
       </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>6190970236474307200</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>6190970236474307200</t>
+        </is>
+      </c>
+      <c r="Z53" t="n">
+        <v>207.8319719009521</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-24.39172004263088</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>6.238136291503906</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>6.238136291503906</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>6.630614757537842</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>5.73026704788208</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.9003477096557617</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>53.87850062839401</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>5576.3335</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0.83231246</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.9774586</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0.9011460241167897</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0.1350887681894243</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.360645728100882</v>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AP53" t="inlineStr">
+        <is>
+          <t>HD 120690</t>
+        </is>
+      </c>
+      <c r="AQ53" t="inlineStr">
+        <is>
+          <t>GJ 530</t>
+        </is>
+      </c>
+      <c r="AR53" t="inlineStr">
+        <is>
+          <t>67620</t>
+        </is>
+      </c>
+      <c r="AS53" t="inlineStr">
+        <is>
+          <t>SB*</t>
+        </is>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.9637122808438549</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>18.56027893012671</v>
+      </c>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7708,20 +9785,25 @@
           <t>GJ 131</t>
         </is>
       </c>
+      <c r="AR54" t="inlineStr">
+        <is>
+          <t>15095</t>
+        </is>
+      </c>
       <c r="AS54" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT54" t="n">
+      <c r="AU54" t="n">
         <v>1.953543939316974</v>
       </c>
-      <c r="AU54" t="n">
+      <c r="AV54" t="n">
         <v>18.67265068138592</v>
       </c>
-      <c r="AV54" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -7876,18 +9958,23 @@
           <t>GJ 845 A, GJ 845</t>
         </is>
       </c>
+      <c r="AR55" t="inlineStr">
+        <is>
+          <t>108870</t>
+        </is>
+      </c>
       <c r="AS55" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT55" t="n">
+      <c r="AU55" t="n">
         <v>2.216291768419251</v>
       </c>
-      <c r="AU55" t="n">
+      <c r="AV55" t="n">
         <v>3.638438981826665</v>
       </c>
-      <c r="AV55" t="inlineStr">
+      <c r="AW55" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -8041,20 +10128,25 @@
           <t>GJ 1021</t>
         </is>
       </c>
+      <c r="AR56" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
       <c r="AS56" t="inlineStr">
         <is>
           <t>EclBin</t>
         </is>
       </c>
-      <c r="AT56" t="n">
+      <c r="AU56" t="n">
         <v>1.252485750795232</v>
       </c>
-      <c r="AU56" t="n">
+      <c r="AV56" t="n">
         <v>15.04871165248797</v>
       </c>
-      <c r="AV56" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8211,20 +10303,25 @@
           <t>GJ 3222</t>
         </is>
       </c>
+      <c r="AR57" t="inlineStr">
+        <is>
+          <t>15799</t>
+        </is>
+      </c>
       <c r="AS57" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT57" t="n">
+      <c r="AU57" t="n">
         <v>1.702394448792871</v>
       </c>
-      <c r="AU57" t="n">
+      <c r="AV57" t="n">
         <v>17.68128750509605</v>
       </c>
-      <c r="AV57" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -8298,6 +10395,92 @@
           <t>4072260704719970944</t>
         </is>
       </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>4072260704719970944</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>4072260704719970944</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>4072260704719970944</t>
+        </is>
+      </c>
+      <c r="Z58" t="n">
+        <v>282.587477867388</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-26.92373729815386</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>9.67037747138977</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>9.050765991210938</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>9.916899681091309</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>8.136176109313965</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.780723571777344</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>56.66021768982383</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0.4190619018868291</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0.3330449041784046</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.867779189947706</v>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AR58" t="inlineStr">
+        <is>
+          <t>92444</t>
+        </is>
+      </c>
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU58" t="n">
+        <v>0.7087251445485094</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>17.64906738400336</v>
+      </c>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8447,20 +10630,25 @@
           <t>GJ 3317</t>
         </is>
       </c>
+      <c r="AR59" t="inlineStr">
+        <is>
+          <t>22451</t>
+        </is>
+      </c>
       <c r="AS59" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT59" t="n">
+      <c r="AU59" t="n">
         <v>1.566652800021061</v>
       </c>
-      <c r="AU59" t="n">
+      <c r="AV59" t="n">
         <v>17.68739743596811</v>
       </c>
-      <c r="AV59" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -8615,20 +10803,25 @@
           <t>GJ 4008</t>
         </is>
       </c>
+      <c r="AR60" t="inlineStr">
+        <is>
+          <t>85561</t>
+        </is>
+      </c>
       <c r="AS60" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT60" t="n">
+      <c r="AU60" t="n">
         <v>3.191221396749432</v>
       </c>
-      <c r="AU60" t="n">
+      <c r="AV60" t="n">
         <v>18.39359418021142</v>
       </c>
-      <c r="AV60" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -8777,20 +10970,25 @@
           <t>GJ 1066</t>
         </is>
       </c>
+      <c r="AR61" t="inlineStr">
+        <is>
+          <t>18450</t>
+        </is>
+      </c>
       <c r="AS61" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT61" t="n">
+      <c r="AU61" t="n">
         <v>2.241552152343242</v>
       </c>
-      <c r="AU61" t="n">
+      <c r="AV61" t="n">
         <v>17.56383168799474</v>
       </c>
-      <c r="AV61" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -8937,18 +11135,23 @@
           <t>GJ 105 A</t>
         </is>
       </c>
+      <c r="AR62" t="inlineStr">
+        <is>
+          <t>12114</t>
+        </is>
+      </c>
       <c r="AS62" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT62" t="n">
+      <c r="AU62" t="n">
         <v>1.603459718691285</v>
       </c>
-      <c r="AU62" t="n">
+      <c r="AV62" t="n">
         <v>7.228567098899183</v>
       </c>
-      <c r="AV62" t="inlineStr">
+      <c r="AW62" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -9102,20 +11305,25 @@
           <t>GJ 138</t>
         </is>
       </c>
+      <c r="AR63" t="inlineStr">
+        <is>
+          <t>15371</t>
+        </is>
+      </c>
       <c r="AS63" t="inlineStr">
         <is>
           <t>**</t>
         </is>
       </c>
-      <c r="AT63" t="n">
+      <c r="AU63" t="n">
         <v>0.9941371187539264</v>
       </c>
-      <c r="AU63" t="n">
+      <c r="AV63" t="n">
         <v>12.03939579583873</v>
       </c>
-      <c r="AV63" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9267,18 +11475,23 @@
           <t>GJ 3021 A, GJ 3021</t>
         </is>
       </c>
+      <c r="AR64" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
       <c r="AS64" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT64" t="n">
+      <c r="AU64" t="n">
         <v>1.055039360931723</v>
       </c>
-      <c r="AU64" t="n">
+      <c r="AV64" t="n">
         <v>17.55481503082285</v>
       </c>
-      <c r="AV64" t="inlineStr">
+      <c r="AW64" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -9437,20 +11650,25 @@
           <t>GJ 616</t>
         </is>
       </c>
+      <c r="AR65" t="inlineStr">
+        <is>
+          <t>79672</t>
+        </is>
+      </c>
       <c r="AS65" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT65" t="n">
+      <c r="AU65" t="n">
         <v>0.9403060490214101</v>
       </c>
-      <c r="AU65" t="n">
+      <c r="AV65" t="n">
         <v>14.136843884035</v>
       </c>
-      <c r="AV65" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9599,18 +11817,23 @@
           <t>GJ 227</t>
         </is>
       </c>
+      <c r="AR66" t="inlineStr">
+        <is>
+          <t>28954</t>
+        </is>
+      </c>
       <c r="AS66" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT66" t="n">
+      <c r="AU66" t="n">
         <v>1.333250845514523</v>
       </c>
-      <c r="AU66" t="n">
+      <c r="AV66" t="n">
         <v>15.771242532647</v>
       </c>
-      <c r="AV66" t="inlineStr">
+      <c r="AW66" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -9764,20 +11987,25 @@
           <t>GJ 2037</t>
         </is>
       </c>
+      <c r="AR67" t="inlineStr">
+        <is>
+          <t>22907</t>
+        </is>
+      </c>
       <c r="AS67" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT67" t="n">
+      <c r="AU67" t="n">
         <v>2.026252168653316</v>
       </c>
-      <c r="AU67" t="n">
+      <c r="AV67" t="n">
         <v>18.2083349278885</v>
       </c>
-      <c r="AV67" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -9929,20 +12157,25 @@
           <t>GJ 1164 B</t>
         </is>
       </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>62471</t>
+        </is>
+      </c>
       <c r="AS68" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT68" t="n">
+      <c r="AU68" t="n">
         <v>2.895997877367483</v>
       </c>
-      <c r="AU68" t="n">
+      <c r="AV68" t="n">
         <v>18.72703714229642</v>
       </c>
-      <c r="AV68" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -10092,20 +12325,25 @@
           <t>HD 139763</t>
         </is>
       </c>
+      <c r="AR69" t="inlineStr">
+        <is>
+          <t>76779</t>
+        </is>
+      </c>
       <c r="AS69" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT69" t="n">
+      <c r="AU69" t="n">
         <v>1.95212998726749</v>
       </c>
-      <c r="AU69" t="n">
+      <c r="AV69" t="n">
         <v>15.58056293018915</v>
       </c>
-      <c r="AV69" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -10224,15 +12462,24 @@
       <c r="AH70" t="n">
         <v>4602.566867780783</v>
       </c>
+      <c r="AI70" t="n">
+        <v>0.7</v>
+      </c>
       <c r="AJ70" t="n">
         <v>0.3698282317554196</v>
       </c>
+      <c r="AK70" t="n">
+        <v>1.02</v>
+      </c>
       <c r="AL70" t="n">
         <v>0.6319064737305783</v>
       </c>
       <c r="AM70" t="n">
         <v>0.1248168035010945</v>
       </c>
+      <c r="AN70" t="n">
+        <v>0.9284431972491323</v>
+      </c>
       <c r="AO70" t="inlineStr">
         <is>
           <t>K</t>
@@ -10248,17 +12495,25 @@
           <t>GJ 233 A, GJ 233</t>
         </is>
       </c>
+      <c r="AR70" t="inlineStr">
+        <is>
+          <t>30630</t>
+        </is>
+      </c>
       <c r="AS70" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
       </c>
       <c r="AU70" t="n">
+        <v>0.659625634182931</v>
+      </c>
+      <c r="AV70" t="n">
         <v>14.6168504480454</v>
       </c>
-      <c r="AV70" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10410,20 +12665,25 @@
           <t>GJ 902</t>
         </is>
       </c>
+      <c r="AR71" t="inlineStr">
+        <is>
+          <t>116745</t>
+        </is>
+      </c>
       <c r="AS71" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT71" t="n">
+      <c r="AU71" t="n">
         <v>1.717218532617633</v>
       </c>
-      <c r="AU71" t="n">
+      <c r="AV71" t="n">
         <v>11.44526772917466</v>
       </c>
-      <c r="AV71" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10578,20 +12838,25 @@
           <t>GJ 157 A</t>
         </is>
       </c>
+      <c r="AR72" t="inlineStr">
+        <is>
+          <t>18512</t>
+        </is>
+      </c>
       <c r="AS72" t="inlineStr">
         <is>
           <t>Eruptive*</t>
         </is>
       </c>
-      <c r="AT72" t="n">
+      <c r="AU72" t="n">
         <v>1.865432587008721</v>
       </c>
-      <c r="AU72" t="n">
+      <c r="AV72" t="n">
         <v>15.28440035086513</v>
       </c>
-      <c r="AV72" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10671,6 +12936,102 @@
           <t>3211461469444773376</t>
         </is>
       </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>3211461469444773376</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>3211461469444773376</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>3211461469444773376</t>
+        </is>
+      </c>
+      <c r="Z73" t="n">
+        <v>75.2066176720424</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>-5.758598962923454</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>6.203080644965172</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>5.886491775512695</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>6.436380386352539</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>5.186892986297607</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.249487400054932</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>113.0714591247876</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>4626.91</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>0.29215857</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0.7966039</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0.5610884998955769</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0.09669506855543795</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0.6777595657245122</v>
+      </c>
+      <c r="AO73" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP73" t="inlineStr">
+        <is>
+          <t>HD  32147</t>
+        </is>
+      </c>
+      <c r="AQ73" t="inlineStr">
+        <is>
+          <t>GJ 183</t>
+        </is>
+      </c>
+      <c r="AR73" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.384748027353553</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>8.843964761225756</v>
+      </c>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Bright</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10823,18 +13184,23 @@
           <t>GJ 879</t>
         </is>
       </c>
+      <c r="AR74" t="inlineStr">
+        <is>
+          <t>113283</t>
+        </is>
+      </c>
       <c r="AS74" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
       </c>
-      <c r="AT74" t="n">
+      <c r="AU74" t="n">
         <v>1.747532432148586</v>
       </c>
-      <c r="AU74" t="n">
+      <c r="AV74" t="n">
         <v>7.601527372616974</v>
       </c>
-      <c r="AV74" t="inlineStr">
+      <c r="AW74" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -10913,6 +13279,102 @@
           <t>3083867749248355456</t>
         </is>
       </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>3083867749248355456</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>3083867749248355456</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>3083867749248355456</t>
+        </is>
+      </c>
+      <c r="Z75" t="n">
+        <v>119.4900692438513</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>-0.814376708826008</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>8.054514473519326</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>7.737601757049561</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>8.287890434265137</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>7.035340785980225</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.252549648284912</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>56.64121974787593</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>4453</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>0.7643373999999999</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0.22388743</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0.7442147</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0.4944910507034814</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>0.2267059931574514</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.558806109298379</v>
+      </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP75" t="inlineStr">
+        <is>
+          <t>HD  65277, HD  65277A</t>
+        </is>
+      </c>
+      <c r="AQ75" t="inlineStr">
+        <is>
+          <t>GJ 293.1 A, GJ 293.1</t>
+        </is>
+      </c>
+      <c r="AR75" t="inlineStr">
+        <is>
+          <t>38931</t>
+        </is>
+      </c>
+      <c r="AS75" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.854344319993111</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>17.65498702978585</v>
+      </c>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11062,18 +13524,23 @@
           <t>GJ 1085</t>
         </is>
       </c>
+      <c r="AR76" t="inlineStr">
+        <is>
+          <t>27435</t>
+        </is>
+      </c>
       <c r="AS76" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT76" t="n">
+      <c r="AU76" t="n">
         <v>1.219684522050477</v>
       </c>
-      <c r="AU76" t="n">
+      <c r="AV76" t="n">
         <v>15.21037582946627</v>
       </c>
-      <c r="AV76" t="inlineStr">
+      <c r="AW76" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -11227,20 +13694,25 @@
           <t>GJ 177</t>
         </is>
       </c>
+      <c r="AR77" t="inlineStr">
+        <is>
+          <t>22263</t>
+        </is>
+      </c>
       <c r="AS77" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
       </c>
-      <c r="AT77" t="n">
+      <c r="AU77" t="n">
         <v>0.94254112753729</v>
       </c>
-      <c r="AU77" t="n">
+      <c r="AV77" t="n">
         <v>13.23996519741542</v>
       </c>
-      <c r="AV77" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11389,20 +13861,25 @@
           <t>GJ 33</t>
         </is>
       </c>
+      <c r="AR78" t="inlineStr">
+        <is>
+          <t>3765</t>
+        </is>
+      </c>
       <c r="AS78" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT78" t="n">
+      <c r="AU78" t="n">
         <v>1.953362366508123</v>
       </c>
-      <c r="AU78" t="n">
+      <c r="AV78" t="n">
         <v>7.435229060298576</v>
       </c>
-      <c r="AV78" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11557,20 +14034,25 @@
           <t>GJ 707</t>
         </is>
       </c>
+      <c r="AR79" t="inlineStr">
+        <is>
+          <t>89211</t>
+        </is>
+      </c>
       <c r="AS79" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT79" t="n">
+      <c r="AU79" t="n">
         <v>2.138539647024254</v>
       </c>
-      <c r="AU79" t="n">
+      <c r="AV79" t="n">
         <v>13.20790661666426</v>
       </c>
-      <c r="AV79" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -11647,6 +14129,97 @@
           <t>2552288133874677760</t>
         </is>
       </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>2552288133874677760</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>2552288133874677760</t>
+        </is>
+      </c>
+      <c r="Z80" t="n">
+        <v>15.60373575245375</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>5.06248962829555</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>8.16461388376236</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>7.887868881225586</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>8.399222373962402</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>7.097153663635254</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.302068710327148</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>65.76032180609275</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>4753.16</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>0.14162683</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0.5549585</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0.3885521458696633</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0.24021713357441</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.401151048948318</v>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP80" t="inlineStr">
+        <is>
+          <t>HD   6101</t>
+        </is>
+      </c>
+      <c r="AQ80" t="inlineStr">
+        <is>
+          <t>GJ 3071</t>
+        </is>
+      </c>
+      <c r="AR80" t="inlineStr">
+        <is>
+          <t>4849</t>
+        </is>
+      </c>
+      <c r="AS80" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="AU80" t="n">
+        <v>4.095590407139206</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>15.20673823569016</v>
+      </c>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11799,20 +14372,25 @@
           <t>GJ 898</t>
         </is>
       </c>
+      <c r="AR81" t="inlineStr">
+        <is>
+          <t>116215</t>
+        </is>
+      </c>
       <c r="AS81" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT81" t="n">
+      <c r="AU81" t="n">
         <v>1.582829748692533</v>
       </c>
-      <c r="AU81" t="n">
+      <c r="AV81" t="n">
         <v>14.54849207934481</v>
       </c>
-      <c r="AV81" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -11969,6 +14547,102 @@
           <t>3210731015767419520</t>
         </is>
       </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>3210731015768096000</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>3210731015767419520</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>3210731015768096000</t>
+        </is>
+      </c>
+      <c r="Z83" t="n">
+        <v>82.10736002059835</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>-3.503099306330114</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>7.625078404002189</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>7.242387771606445</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>7.861436367034912</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>6.489079475402832</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.37235689163208</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>77.34986706396188</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0.20168027</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>0.7616906</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0.473234194283935</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0.1787598387922583</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.150705264465096</v>
+      </c>
+      <c r="AO83" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP83" t="inlineStr">
+        <is>
+          <t>HD  36003</t>
+        </is>
+      </c>
+      <c r="AQ83" t="inlineStr">
+        <is>
+          <t>GJ 204</t>
+        </is>
+      </c>
+      <c r="AR83" t="inlineStr">
+        <is>
+          <t>25623</t>
+        </is>
+      </c>
+      <c r="AS83" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.584025803819568</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>12.92827044128057</v>
+      </c>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12269,18 +14943,23 @@
           <t>GJ 641</t>
         </is>
       </c>
+      <c r="AR86" t="inlineStr">
+        <is>
+          <t>82588</t>
+        </is>
+      </c>
       <c r="AS86" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT86" t="n">
+      <c r="AU86" t="n">
         <v>1.630200033813258</v>
       </c>
-      <c r="AU86" t="n">
+      <c r="AV86" t="n">
         <v>16.81223174833525</v>
       </c>
-      <c r="AV86" t="inlineStr">
+      <c r="AW86" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -12429,20 +15108,25 @@
           <t>HD 274255</t>
         </is>
       </c>
+      <c r="AR87" t="inlineStr">
+        <is>
+          <t>25775</t>
+        </is>
+      </c>
       <c r="AS87" t="inlineStr">
         <is>
           <t>BYDraV*_Candidate</t>
         </is>
       </c>
-      <c r="AT87" t="n">
+      <c r="AU87" t="n">
         <v>2.228367536626836</v>
       </c>
-      <c r="AU87" t="n">
+      <c r="AV87" t="n">
         <v>19.15843702324353</v>
       </c>
-      <c r="AV87" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -12559,7 +15243,7 @@
         <v>77.32613406116261</v>
       </c>
       <c r="AH88" t="n">
-        <v>4830.588190118799</v>
+        <v>4907</v>
       </c>
       <c r="AI88" t="n">
         <v>0.7568047</v>
@@ -12571,13 +15255,13 @@
         <v>0.75517464</v>
       </c>
       <c r="AL88" t="n">
-        <v>0.5240868655026989</v>
+        <v>0.5221904062065191</v>
       </c>
       <c r="AM88" t="n">
-        <v>0.1495504888924379</v>
+        <v>0.1499149439884245</v>
       </c>
       <c r="AN88" t="n">
-        <v>1.053387808678923</v>
+        <v>1.054042650754229</v>
       </c>
       <c r="AO88" t="inlineStr">
         <is>
@@ -12594,20 +15278,25 @@
           <t>GJ 2046</t>
         </is>
       </c>
+      <c r="AR88" t="inlineStr">
+        <is>
+          <t>27887</t>
+        </is>
+      </c>
       <c r="AS88" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT88" t="n">
+      <c r="AU88" t="n">
         <v>1.75728268109685</v>
       </c>
-      <c r="AU88" t="n">
+      <c r="AV88" t="n">
         <v>12.93223839703444</v>
       </c>
-      <c r="AV88" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -12759,20 +15448,25 @@
           <t>GJ 260</t>
         </is>
       </c>
+      <c r="AR89" t="inlineStr">
+        <is>
+          <t>33690</t>
+        </is>
+      </c>
       <c r="AS89" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT89" t="n">
+      <c r="AU89" t="n">
         <v>1.15004501453396</v>
       </c>
-      <c r="AU89" t="n">
+      <c r="AV89" t="n">
         <v>18.34013046861489</v>
       </c>
-      <c r="AV89" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -12919,20 +15613,25 @@
           <t>GJ 9527 A, GJ 9527, GJ 596.1</t>
         </is>
       </c>
+      <c r="AR90" t="inlineStr">
+        <is>
+          <t>77052</t>
+        </is>
+      </c>
       <c r="AS90" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT90" t="n">
+      <c r="AU90" t="n">
         <v>1.185166893634851</v>
       </c>
-      <c r="AU90" t="n">
+      <c r="AV90" t="n">
         <v>14.79273794856554</v>
       </c>
-      <c r="AV90" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13084,18 +15783,23 @@
           <t>GJ 309</t>
         </is>
       </c>
+      <c r="AR91" t="inlineStr">
+        <is>
+          <t>41926</t>
+        </is>
+      </c>
       <c r="AS91" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT91" t="n">
+      <c r="AU91" t="n">
         <v>1.844836198763456</v>
       </c>
-      <c r="AU91" t="n">
+      <c r="AV91" t="n">
         <v>12.16426728699849</v>
       </c>
-      <c r="AV91" t="inlineStr">
+      <c r="AW91" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -13252,20 +15956,25 @@
           <t>GJ 3633</t>
         </is>
       </c>
+      <c r="AR92" t="inlineStr">
+        <is>
+          <t>53486</t>
+        </is>
+      </c>
       <c r="AS92" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
       </c>
-      <c r="AT92" t="n">
+      <c r="AU92" t="n">
         <v>1.450416803044171</v>
       </c>
-      <c r="AU92" t="n">
+      <c r="AV92" t="n">
         <v>17.30031548819083</v>
       </c>
-      <c r="AV92" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -13417,18 +16126,23 @@
           <t>GJ 117</t>
         </is>
       </c>
+      <c r="AR93" t="inlineStr">
+        <is>
+          <t>13402</t>
+        </is>
+      </c>
       <c r="AS93" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
       </c>
-      <c r="AT93" t="n">
+      <c r="AU93" t="n">
         <v>1.297074282976997</v>
       </c>
-      <c r="AU93" t="n">
+      <c r="AV93" t="n">
         <v>10.36054259710993</v>
       </c>
-      <c r="AV93" t="inlineStr">
+      <c r="AW93" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -13510,6 +16224,102 @@
           <t>5739942011185493888</t>
         </is>
       </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>5739942011185493888</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>5739942011185493888</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>5739942011185493888</t>
+        </is>
+      </c>
+      <c r="Z94" t="n">
+        <v>143.1054112091792</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>-11.18448439131105</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>7.743117658715248</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>7.488391876220703</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>7.973812103271484</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>6.828997135162354</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.144814968109131</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>54.73622066880527</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>4760</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>0.686983108491947</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>0.1978966560553824</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.640830842664263</v>
+      </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP94" t="inlineStr">
+        <is>
+          <t>HD  82558</t>
+        </is>
+      </c>
+      <c r="AQ94" t="inlineStr">
+        <is>
+          <t>GJ 355</t>
+        </is>
+      </c>
+      <c r="AR94" t="inlineStr">
+        <is>
+          <t>46816</t>
+        </is>
+      </c>
+      <c r="AS94" t="inlineStr">
+        <is>
+          <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU94" t="n">
+        <v>0.7764721183421155</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>18.26943818519626</v>
+      </c>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13659,20 +16469,25 @@
           <t>GJ 615</t>
         </is>
       </c>
+      <c r="AR95" t="inlineStr">
+        <is>
+          <t>79537</t>
+        </is>
+      </c>
       <c r="AS95" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT95" t="n">
+      <c r="AU95" t="n">
         <v>2.324699077934539</v>
       </c>
-      <c r="AU95" t="n">
+      <c r="AV95" t="n">
         <v>13.59651784149522</v>
       </c>
-      <c r="AV95" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -13824,20 +16639,25 @@
           <t>GJ 613.0, GJ 613</t>
         </is>
       </c>
+      <c r="AR96" t="inlineStr">
+        <is>
+          <t>79190</t>
+        </is>
+      </c>
       <c r="AS96" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT96" t="n">
+      <c r="AU96" t="n">
         <v>1.848206256583958</v>
       </c>
-      <c r="AU96" t="n">
+      <c r="AV96" t="n">
         <v>14.82647987202467</v>
       </c>
-      <c r="AV96" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -13989,20 +16809,25 @@
           <t>GJ 472</t>
         </is>
       </c>
+      <c r="AR97" t="inlineStr">
+        <is>
+          <t>61291</t>
+        </is>
+      </c>
       <c r="AS97" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT97" t="n">
+      <c r="AU97" t="n">
         <v>1.642855324617889</v>
       </c>
-      <c r="AU97" t="n">
+      <c r="AV97" t="n">
         <v>16.18810659335618</v>
       </c>
-      <c r="AV97" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW97" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -14154,20 +16979,25 @@
           <t>GJ 782</t>
         </is>
       </c>
+      <c r="AR98" t="inlineStr">
+        <is>
+          <t>99385</t>
+        </is>
+      </c>
       <c r="AS98" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT98" t="n">
+      <c r="AU98" t="n">
         <v>1.673127109034097</v>
       </c>
-      <c r="AU98" t="n">
+      <c r="AV98" t="n">
         <v>15.82092734860303</v>
       </c>
-      <c r="AV98" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -14247,6 +17077,102 @@
           <t>5866992641380992256</t>
         </is>
       </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>5866992641380992256</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>5866992641380992256</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>5866992641380992256</t>
+        </is>
+      </c>
+      <c r="Z99" t="n">
+        <v>214.7661730152802</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>-59.38264069990895</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>6.636012609438896</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>6.354505062103271</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>6.867697715759277</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>5.683081150054932</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.184616565704346</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>84.60291005524316</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>4778.8843</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>0.3268907</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>0.79882145</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>0.5896269305727422</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0.1189527091138819</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.33196851694712</v>
+      </c>
+      <c r="AO99" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP99" t="inlineStr">
+        <is>
+          <t>HD 125072</t>
+        </is>
+      </c>
+      <c r="AQ99" t="inlineStr">
+        <is>
+          <t>GJ 542</t>
+        </is>
+      </c>
+      <c r="AR99" t="inlineStr">
+        <is>
+          <t>69972</t>
+        </is>
+      </c>
+      <c r="AS99" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU99" t="n">
+        <v>3.335030171081395</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>11.81992438968151</v>
+      </c>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14321,6 +17247,102 @@
           <t>5914096303621755520</t>
         </is>
       </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>5914096303621755520</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>5914096303621755520</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>5914096303621755520</t>
+        </is>
+      </c>
+      <c r="Z100" t="n">
+        <v>257.5437749987619</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>-60.7261529768452</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>7.356441058626175</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>7.116920948028564</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>7.58627986907959</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>6.475841522216797</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.110438346862793</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>72.85383430610172</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>4866.0356</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>0.2271543</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>0.68606955</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>0.4895369286453091</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>0.1662923591501416</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.088732163376552</v>
+      </c>
+      <c r="AO100" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP100" t="inlineStr">
+        <is>
+          <t>HD 154577</t>
+        </is>
+      </c>
+      <c r="AQ100" t="inlineStr">
+        <is>
+          <t>GJ 656</t>
+        </is>
+      </c>
+      <c r="AR100" t="inlineStr">
+        <is>
+          <t>83990</t>
+        </is>
+      </c>
+      <c r="AS100" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU100" t="n">
+        <v>2.167672195328044</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>13.72611351927495</v>
+      </c>
+      <c r="AW100" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14392,6 +17414,102 @@
           <t>4270814637616488064</t>
         </is>
       </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>4270814637616488064</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>4270814637616488064</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>4270814637616488064</t>
+        </is>
+      </c>
+      <c r="Z101" t="n">
+        <v>274.9618362969113</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>-1.938612759804832</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>9.632092778863907</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>9.063088417053223</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>9.876449584960938</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>8.182724952697754</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.693724632263184</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>52.39629220529056</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>4205</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>0.102434</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0.3372117479355314</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>0.4512559326716648</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>2.270169891124356</v>
+      </c>
+      <c r="AO101" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP101" t="inlineStr">
+        <is>
+          <t>HD 168442</t>
+        </is>
+      </c>
+      <c r="AQ101" t="inlineStr">
+        <is>
+          <t>GJ 710</t>
+        </is>
+      </c>
+      <c r="AR101" t="inlineStr">
+        <is>
+          <t>89825</t>
+        </is>
+      </c>
+      <c r="AS101" t="inlineStr">
+        <is>
+          <t>Variable*</t>
+        </is>
+      </c>
+      <c r="AU101" t="n">
+        <v>0.6635472110517399</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>19.08531993221894</v>
+      </c>
+      <c r="AW101" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14541,20 +17659,25 @@
           <t>GJ 631</t>
         </is>
       </c>
+      <c r="AR102" t="inlineStr">
+        <is>
+          <t>81300</t>
+        </is>
+      </c>
       <c r="AS102" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
       </c>
-      <c r="AT102" t="n">
+      <c r="AU102" t="n">
         <v>1.25015691391364</v>
       </c>
-      <c r="AU102" t="n">
+      <c r="AV102" t="n">
         <v>9.893947947441871</v>
       </c>
-      <c r="AV102" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AW102" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14701,20 +17824,25 @@
           <t>HD  35650</t>
         </is>
       </c>
+      <c r="AR103" t="inlineStr">
+        <is>
+          <t>25283</t>
+        </is>
+      </c>
       <c r="AS103" t="inlineStr">
         <is>
           <t>RotV*</t>
         </is>
       </c>
-      <c r="AT103" t="n">
+      <c r="AU103" t="n">
         <v>2.573311979644731</v>
       </c>
-      <c r="AU103" t="n">
+      <c r="AV103" t="n">
         <v>17.46096412701272</v>
       </c>
-      <c r="AV103" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AW103" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -14866,20 +17994,25 @@
           <t>GJ 4130</t>
         </is>
       </c>
+      <c r="AR104" t="inlineStr">
+        <is>
+          <t>98505</t>
+        </is>
+      </c>
       <c r="AS104" t="inlineStr">
         <is>
           <t>BYDraV*</t>
         </is>
       </c>
-      <c r="AT104" t="n">
+      <c r="AU104" t="n">
         <v>1.480664521061823</v>
       </c>
-      <c r="AU104" t="n">
+      <c r="AV104" t="n">
         <v>19.77580196500298</v>
       </c>
-      <c r="AV104" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AW104" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -14956,6 +18089,97 @@
           <t>4224259562941398400</t>
         </is>
       </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>4224259562941398400</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>4224259562941398400</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>4224259562941398400</t>
+        </is>
+      </c>
+      <c r="Z105" t="n">
+        <v>303.4990777515728</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>-0.8657212651967648</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>7.767514817652702</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>7.512979030609131</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>7.99785327911377</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>6.867340564727783</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.130512714385986</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>50.94324624411764</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>4810.8853</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>0.3194363</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>0.8135819399999999</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>0.5820161714796293</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>0.2005572136799087</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.48198472804781</v>
+      </c>
+      <c r="AO105" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP105" t="inlineStr">
+        <is>
+          <t>HD 192263</t>
+        </is>
+      </c>
+      <c r="AR105" t="inlineStr">
+        <is>
+          <t>99711</t>
+        </is>
+      </c>
+      <c r="AS105" t="inlineStr">
+        <is>
+          <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.392699324365376</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>19.6296874213325</v>
+      </c>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15107,18 +18331,23 @@
           <t>GJ 230</t>
         </is>
       </c>
+      <c r="AR106" t="inlineStr">
+        <is>
+          <t>29525</t>
+        </is>
+      </c>
       <c r="AS106" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
         </is>
       </c>
-      <c r="AT106" t="n">
+      <c r="AU106" t="n">
         <v>1.185370263578394</v>
       </c>
-      <c r="AU106" t="n">
+      <c r="AV106" t="n">
         <v>18.59937001542844</v>
       </c>
-      <c r="AV106" t="inlineStr">
+      <c r="AW106" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -15197,6 +18426,102 @@
           <t>6508401923473282432</t>
         </is>
       </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>6508401923473282432</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>6508401923473282432</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>6508401923473282432</t>
+        </is>
+      </c>
+      <c r="Z107" t="n">
+        <v>335.5661138004264</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>-54.5595680078303</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>8.960261054987907</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>8.409995079040527</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>9.203866004943848</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>7.540348529815674</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.663517475128174</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>76.15946505307657</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>3920</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0.4589700401978843</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0.2811993874321437</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.650402802109548</v>
+      </c>
+      <c r="AO107" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP107" t="inlineStr">
+        <is>
+          <t>HD 211970</t>
+        </is>
+      </c>
+      <c r="AQ107" t="inlineStr">
+        <is>
+          <t>GJ 1267</t>
+        </is>
+      </c>
+      <c r="AR107" t="inlineStr">
+        <is>
+          <t>110443</t>
+        </is>
+      </c>
+      <c r="AS107" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU107" t="n">
+        <v>0.6635472110517399</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>13.13034432822088</v>
+      </c>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15346,18 +18671,23 @@
           <t>GJ 86 A, GJ 86</t>
         </is>
       </c>
+      <c r="AR108" t="inlineStr">
+        <is>
+          <t>10138</t>
+        </is>
+      </c>
       <c r="AS108" t="inlineStr">
         <is>
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AT108" t="n">
+      <c r="AU108" t="n">
         <v>2.202675635122268</v>
       </c>
-      <c r="AU108" t="n">
+      <c r="AV108" t="n">
         <v>10.76135042939101</v>
       </c>
-      <c r="AV108" t="inlineStr">
+      <c r="AW108" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>

--- a/results/test_merged_result_MJ.xlsx
+++ b/results/test_merged_result_MJ.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW108"/>
+  <dimension ref="A1:AV108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,10 @@
     <col width="23" customWidth="1" min="42" max="42"/>
     <col width="30" customWidth="1" min="43" max="43"/>
     <col width="12" customWidth="1" min="44" max="44"/>
-    <col width="19" customWidth="1" min="45" max="45"/>
+    <col width="13" customWidth="1" min="45" max="45"/>
     <col width="22" customWidth="1" min="46" max="46"/>
-    <col width="22" customWidth="1" min="47" max="47"/>
-    <col width="19" customWidth="1" min="48" max="48"/>
-    <col width="13" customWidth="1" min="49" max="49"/>
+    <col width="19" customWidth="1" min="47" max="47"/>
+    <col width="13" customWidth="1" min="48" max="48"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -716,20 +715,15 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Spectral Type Simbad</t>
+          <t>Density [Solar unit]</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Density [Solar unit]</t>
+          <t>Distance [pc]</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Distance [pc]</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>V_mag_group</t>
         </is>
@@ -893,15 +887,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT2" t="n">
+        <v>1.528241921070437</v>
+      </c>
       <c r="AU2" t="n">
-        <v>1.528241921070437</v>
-      </c>
-      <c r="AV2" t="n">
         <v>14.67227710117747</v>
       </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1063,15 +1057,15 @@
           <t>**</t>
         </is>
       </c>
+      <c r="AT3" t="n">
+        <v>1.356604055150243</v>
+      </c>
       <c r="AU3" t="n">
-        <v>1.356604055150243</v>
-      </c>
-      <c r="AV3" t="n">
         <v>13.0309238390451</v>
       </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1233,15 +1227,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT4" t="n">
+        <v>2.041952602911969</v>
+      </c>
       <c r="AU4" t="n">
-        <v>2.041952602911969</v>
-      </c>
-      <c r="AV4" t="n">
         <v>16.76761069658454</v>
       </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -1403,15 +1397,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT5" t="n">
+        <v>2.239104212270826</v>
+      </c>
       <c r="AU5" t="n">
-        <v>2.239104212270826</v>
-      </c>
-      <c r="AV5" t="n">
         <v>19.17020321539005</v>
       </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -1573,13 +1567,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT6" t="n">
+        <v>0.6800916192561645</v>
+      </c>
       <c r="AU6" t="n">
-        <v>0.6800916192561645</v>
-      </c>
-      <c r="AV6" t="n">
         <v>3.652170961142577</v>
       </c>
-      <c r="AW6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -1743,15 +1737,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT7" t="n">
+        <v>2.052688921124784</v>
+      </c>
       <c r="AU7" t="n">
-        <v>2.052688921124784</v>
-      </c>
-      <c r="AV7" t="n">
         <v>17.86166659875671</v>
       </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -1841,34 +1835,29 @@
           <t>5630532113072532736</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>5630532113072532736</t>
-        </is>
-      </c>
       <c r="Z8" t="n">
-        <v>142.6166788918856</v>
+        <v>142.6166899241985</v>
       </c>
       <c r="AA8" t="n">
-        <v>-32.10200628852181</v>
+        <v>-32.10205002423861</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.306259956345558</v>
+        <v>8.32715599093914</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.002314567565918</v>
+        <v>7.993447303771973</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.539155006408691</v>
+        <v>8.560214042663574</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.30592679977417</v>
+        <v>7.320436954498291</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.233228206634521</v>
+        <v>1.239777088165283</v>
       </c>
       <c r="AG8" t="n">
-        <v>50.9426573151017</v>
+        <v>50.93645103359646</v>
       </c>
       <c r="AH8" t="n">
         <v>4576.884</v>
@@ -1886,10 +1875,10 @@
         <v>0.490707367225516</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.2539042489581328</v>
+        <v>0.2563593581410618</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.692851787552183</v>
+        <v>1.709220756196676</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1916,15 +1905,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT8" t="n">
+        <v>1.621604673108436</v>
+      </c>
       <c r="AU8" t="n">
-        <v>1.621604673108436</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>19.62991435281008</v>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
+        <v>19.6323061326048</v>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -2089,15 +2078,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT9" t="n">
+        <v>2.11927517458269</v>
+      </c>
       <c r="AU9" t="n">
-        <v>2.11927517458269</v>
-      </c>
-      <c r="AV9" t="n">
         <v>19.11360225322881</v>
       </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -2259,15 +2248,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT10" t="n">
+        <v>0.8528938169750084</v>
+      </c>
       <c r="AU10" t="n">
-        <v>0.8528938169750084</v>
-      </c>
-      <c r="AV10" t="n">
         <v>17.93225480992242</v>
       </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -2432,13 +2421,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT11" t="n">
+        <v>1.457793859010921</v>
+      </c>
       <c r="AU11" t="n">
-        <v>1.457793859010921</v>
-      </c>
-      <c r="AV11" t="n">
         <v>8.791104886960111</v>
       </c>
-      <c r="AW11" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -2519,102 +2508,6 @@
           <t>6080301367488384896</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>6080301367488384896</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>6080301367488384896</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>6080301367488384896</t>
-        </is>
-      </c>
-      <c r="Z12" t="n">
-        <v>196.2337538641043</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>-52.4464606454391</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9.038844431605339</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.445794105529785</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9.284271240234375</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>7.547557353973389</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1.736713886260986</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>61.3202021352086</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>3640</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0.1310105</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.7293058</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.3862192906125948</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0.2029069987476966</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0.997255190854221</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>HD 113538</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>GJ 9425, GJ 496.1</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>63833</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU12" t="n">
-        <v>1.288964635557539</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>16.30783926307092</v>
-      </c>
-      <c r="AW12" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2777,15 +2670,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT13" t="n">
+        <v>1.952774888141471</v>
+      </c>
       <c r="AU13" t="n">
-        <v>1.952774888141471</v>
-      </c>
-      <c r="AV13" t="n">
         <v>14.73984079184628</v>
       </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -2947,13 +2840,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT14" t="n">
+        <v>0.7940434459215121</v>
+      </c>
       <c r="AU14" t="n">
-        <v>0.7940434459215121</v>
-      </c>
-      <c r="AV14" t="n">
         <v>14.73911160268253</v>
       </c>
-      <c r="AW14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -3117,15 +3010,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT15" t="n">
+        <v>0.906764956917385</v>
+      </c>
       <c r="AU15" t="n">
-        <v>0.906764956917385</v>
-      </c>
-      <c r="AV15" t="n">
         <v>8.534415098502675</v>
       </c>
-      <c r="AW15" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -3287,15 +3180,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT16" t="n">
+        <v>1.292561167675858</v>
+      </c>
       <c r="AU16" t="n">
-        <v>1.292561167675858</v>
-      </c>
-      <c r="AV16" t="n">
         <v>17.74227354232349</v>
       </c>
-      <c r="AW16" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -3375,102 +3268,6 @@
           <t>4706630501049679744</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>4706630501049679744</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>4706630501049679744</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>4706630501049679744</t>
-        </is>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.322328801511178</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>-67.83508132890724</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8.455076312074661</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.091019630432129</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8.690603256225586</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>7.35163402557373</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.338969230651855</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>61.00639982208859</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>4398.7754</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0.7053809</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0.14590912</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0.63571703</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0.3999643383147214</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0.2729440123358245</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1.621449951999693</v>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>HD     55</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>GJ 3</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU17" t="n">
-        <v>2.745567710296219</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>16.39172288343968</v>
-      </c>
-      <c r="AW17" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3638,15 +3435,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT18" t="n">
+        <v>1.78211177339737</v>
+      </c>
       <c r="AU18" t="n">
-        <v>1.78211177339737</v>
-      </c>
-      <c r="AV18" t="n">
         <v>18.81162115767776</v>
       </c>
-      <c r="AW18" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -3723,102 +3520,6 @@
           <t>6471497502884511232</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>6471497502884511232</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>6471497502884511232</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>6471497502884511232</t>
-        </is>
-      </c>
-      <c r="Z19" t="n">
-        <v>310.5788689173076</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>-52.70400747589355</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8.804230053181648</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.240460395812988</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>9.048484802246094</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>7.358860492706299</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1.689624309539795</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>81.02792076812638</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>3917.272</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0.61094534</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0.08590003</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0.6361759299999999</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0.3110902437816222</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0.261076460238167</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1.27297373505892</v>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>HD 196877</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>GJ 798.0, GJ 798</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>102186</t>
-        </is>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU19" t="n">
-        <v>2.3728520291368</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>12.34142491279828</v>
-      </c>
-      <c r="AW19" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3981,15 +3682,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT20" t="n">
+        <v>2.635775028242927</v>
+      </c>
       <c r="AU20" t="n">
-        <v>2.635775028242927</v>
-      </c>
-      <c r="AV20" t="n">
         <v>12.7833499049576</v>
       </c>
-      <c r="AW20" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -4074,102 +3775,6 @@
           <t>6669657123437047424</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>6669657123437047424</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>6669657123437047424</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>6669657123437047424</t>
-        </is>
-      </c>
-      <c r="Z21" t="n">
-        <v>304.9014800275145</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>-46.42856921734209</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8.696639160513877</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.282655715942383</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>8.93438720703125</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>7.506181240081787</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1.428205966949463</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>54.04408367109657</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>4389.5796</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0.6886628</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0.16172463</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0.69715226</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0.4212175615883222</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0.3049162003307058</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1.836727717196075</v>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>HD 192961</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>GJ 787</t>
-        </is>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>100223</t>
-        </is>
-      </c>
-      <c r="AS21" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU21" t="n">
-        <v>2.032467946890793</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>18.50341299310089</v>
-      </c>
-      <c r="AW21" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4247,102 +3852,6 @@
           <t>4737533237421005952</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>4737533237421005952</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>4737533237421005952</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>4737533237421005952</t>
-        </is>
-      </c>
-      <c r="Z22" t="n">
-        <v>50.82325574741139</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>-49.9907184713681</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8.543711507334709</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.192389488220215</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>8.778672218322754</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>7.462452411651611</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1.316219806671143</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>51.81551879878727</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>4410</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0.74283314</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0.17813864</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0.67277056</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0.4417625331460715</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0.2844115961768082</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1.822195496765714</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>HD  21209A, HD  21209</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>GJ 9115 A, GJ 140.1 A</t>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>15774</t>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU22" t="n">
-        <v>2.439441087603737</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>19.29923743277091</v>
-      </c>
-      <c r="AW22" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4417,102 +3926,6 @@
           <t>5285775539195330560</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>5285775539195330560</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>5285775539195330560</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>5285775539195330560</t>
-        </is>
-      </c>
-      <c r="Z23" t="n">
-        <v>108.2768913871574</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>-63.34238904353339</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9.05973434832096</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.570058822631836</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>9.300670623779297</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>7.744371891021729</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.556298732757568</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>51.05388225075709</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>4179.2197</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.15366574</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0.74814504</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0.4133280492459198</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0.3434973018235495</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1.913173990332276</v>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>HD  56533</t>
-        </is>
-      </c>
-      <c r="AQ23" t="inlineStr">
-        <is>
-          <t>GJ 9226, GJ 268.2</t>
-        </is>
-      </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>34890</t>
-        </is>
-      </c>
-      <c r="AS23" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU23" t="n">
-        <v>1.43282729890182</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>19.58714902597188</v>
-      </c>
-      <c r="AW23" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4587,102 +4000,6 @@
           <t>4833654227548585856</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>4833654227548585856</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>4833654227548585856</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>4833654227548585856</t>
-        </is>
-      </c>
-      <c r="Z24" t="n">
-        <v>53.75662455732397</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>-48.41777462792747</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>8.559503447828293</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.020994186401367</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>8.802591323852539</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>7.159848213195801</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1.642743110656738</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>73.51988280065039</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>3850</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0.6617253</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0.1286912</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0.7185779</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0.3813171613997799</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0.218216145001496</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1.225959512009539</v>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>HD  22496</t>
-        </is>
-      </c>
-      <c r="AQ24" t="inlineStr">
-        <is>
-          <t>GJ 146</t>
-        </is>
-      </c>
-      <c r="AR24" t="inlineStr">
-        <is>
-          <t>16711</t>
-        </is>
-      </c>
-      <c r="AS24" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU24" t="n">
-        <v>1.783430422381145</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>13.60176270562762</v>
-      </c>
-      <c r="AW24" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4842,15 +4159,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT25" t="n">
+        <v>2.366201403288587</v>
+      </c>
       <c r="AU25" t="n">
-        <v>2.366201403288587</v>
-      </c>
-      <c r="AV25" t="n">
         <v>17.91335395150217</v>
       </c>
-      <c r="AW25" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -5012,13 +4329,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT26" t="n">
+        <v>1.177088983194154</v>
+      </c>
       <c r="AU26" t="n">
-        <v>1.177088983194154</v>
-      </c>
-      <c r="AV26" t="n">
         <v>6.041412326770681</v>
       </c>
-      <c r="AW26" t="inlineStr">
+      <c r="AV26" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -5182,13 +4499,13 @@
           <t>Eruptive*</t>
         </is>
       </c>
+      <c r="AT27" t="n">
+        <v>1.381521552589273</v>
+      </c>
       <c r="AU27" t="n">
-        <v>1.381521552589273</v>
-      </c>
-      <c r="AV27" t="n">
         <v>5.009818934047725</v>
       </c>
-      <c r="AW27" t="inlineStr">
+      <c r="AV27" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -5355,15 +4672,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT28" t="n">
+        <v>1.82962437834759</v>
+      </c>
       <c r="AU28" t="n">
-        <v>1.82962437834759</v>
-      </c>
-      <c r="AV28" t="n">
         <v>16.33263262714404</v>
       </c>
-      <c r="AW28" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -5525,15 +4842,15 @@
           <t>SB*</t>
         </is>
       </c>
+      <c r="AT29" t="n">
+        <v>1.729244200975598</v>
+      </c>
       <c r="AU29" t="n">
-        <v>1.729244200975598</v>
-      </c>
-      <c r="AV29" t="n">
         <v>10.0868340463566</v>
       </c>
-      <c r="AW29" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -5690,15 +5007,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT30" t="n">
+        <v>0.8158904314580906</v>
+      </c>
       <c r="AU30" t="n">
-        <v>0.8158904314580906</v>
-      </c>
-      <c r="AV30" t="n">
         <v>19.61960010657953</v>
       </c>
-      <c r="AW30" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -5863,15 +5180,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT31" t="n">
+        <v>1.781510507227236</v>
+      </c>
       <c r="AU31" t="n">
-        <v>1.781510507227236</v>
-      </c>
-      <c r="AV31" t="n">
         <v>10.46386619996736</v>
       </c>
-      <c r="AW31" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -6033,15 +5350,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT32" t="n">
+        <v>1.270700200018976</v>
+      </c>
       <c r="AU32" t="n">
-        <v>1.270700200018976</v>
-      </c>
-      <c r="AV32" t="n">
         <v>16.8464974404826</v>
       </c>
-      <c r="AW32" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -6201,15 +5518,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT33" t="n">
+        <v>2.052239288285687</v>
+      </c>
       <c r="AU33" t="n">
-        <v>2.052239288285687</v>
-      </c>
-      <c r="AV33" t="n">
         <v>13.93717968355234</v>
       </c>
-      <c r="AW33" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -6376,13 +5693,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT34" t="n">
+        <v>1.37647581175124</v>
+      </c>
       <c r="AU34" t="n">
-        <v>1.37647581175124</v>
-      </c>
-      <c r="AV34" t="n">
         <v>12.04471428916949</v>
       </c>
-      <c r="AW34" t="inlineStr">
+      <c r="AV34" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -6549,15 +5866,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT35" t="n">
+        <v>1.115093151133548</v>
+      </c>
       <c r="AU35" t="n">
-        <v>1.115093151133548</v>
-      </c>
-      <c r="AV35" t="n">
         <v>15.04606590403891</v>
       </c>
-      <c r="AW35" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -6719,15 +6036,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT36" t="n">
+        <v>1.852212400374402</v>
+      </c>
       <c r="AU36" t="n">
-        <v>1.852212400374402</v>
-      </c>
-      <c r="AV36" t="n">
         <v>18.27507516390551</v>
       </c>
-      <c r="AW36" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -6892,15 +6209,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT37" t="n">
+        <v>1.373454807188958</v>
+      </c>
       <c r="AU37" t="n">
-        <v>1.373454807188958</v>
-      </c>
-      <c r="AV37" t="n">
         <v>14.06905111863229</v>
       </c>
-      <c r="AW37" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV37" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -7062,15 +6379,15 @@
           <t>SB*</t>
         </is>
       </c>
+      <c r="AT38" t="n">
+        <v>1.320714924499832</v>
+      </c>
       <c r="AU38" t="n">
-        <v>1.320714924499832</v>
-      </c>
-      <c r="AV38" t="n">
         <v>19.88607472028888</v>
       </c>
-      <c r="AW38" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -7240,15 +6557,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT39" t="n">
+        <v>1.769575738741929</v>
+      </c>
       <c r="AU39" t="n">
-        <v>1.769575738741929</v>
-      </c>
-      <c r="AV39" t="n">
         <v>15.71044010482964</v>
       </c>
-      <c r="AW39" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -7328,102 +6645,6 @@
           <t>4258375617747092864</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>4258375617747092864</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>4258375617747092864</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>4258375617747092864</t>
-        </is>
-      </c>
-      <c r="Z40" t="n">
-        <v>281.8629551175184</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>-3.641055455311226</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>8.786167160444259</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8.26960277557373</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>9.028376579284668</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>7.420927047729492</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.607449531555176</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>70.13347528858606</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>4022.2102</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0.11139318</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0.69506925</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0.3533903924347861</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0.2800848151418651</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1.55802133070193</v>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
-          <t>HD 173818</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>GJ 726</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>92200</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU40" t="n">
-        <v>2.084557182793672</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>14.25852627272766</v>
-      </c>
-      <c r="AW40" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7586,15 +6807,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT41" t="n">
+        <v>1.302097459932565</v>
+      </c>
       <c r="AU41" t="n">
-        <v>1.302097459932565</v>
-      </c>
-      <c r="AV41" t="n">
         <v>18.27285714846244</v>
       </c>
-      <c r="AW41" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -7756,15 +6977,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT42" t="n">
+        <v>1.712118408202441</v>
+      </c>
       <c r="AU42" t="n">
-        <v>1.712118408202441</v>
-      </c>
-      <c r="AV42" t="n">
         <v>8.811567976359871</v>
       </c>
-      <c r="AW42" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -7841,102 +7062,6 @@
           <t>6832674634380238848</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>6832674634380238848</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>6832674634380238848</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>6832674634380238848</t>
-        </is>
-      </c>
-      <c r="Z43" t="n">
-        <v>320.0567709913498</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>-19.85548923847976</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>9.066298904175758</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.497677803039551</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>9.310630798339844</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>7.617907047271729</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>1.692723751068115</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>63.38643828104384</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>3939.6514</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>0.10051212</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0.5759601</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0.3363424972877731</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>0.3002265324091725</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1.508423193722087</v>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP43" t="inlineStr">
-        <is>
-          <t>HD 203040</t>
-        </is>
-      </c>
-      <c r="AQ43" t="inlineStr">
-        <is>
-          <t>GJ 9736, GJ 826.1</t>
-        </is>
-      </c>
-      <c r="AR43" t="inlineStr">
-        <is>
-          <t>105341</t>
-        </is>
-      </c>
-      <c r="AS43" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU43" t="n">
-        <v>3.140321084148939</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>15.77624531553869</v>
-      </c>
-      <c r="AW43" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8096,15 +7221,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT44" t="n">
+        <v>1.705355230604966</v>
+      </c>
       <c r="AU44" t="n">
-        <v>1.705355230604966</v>
-      </c>
-      <c r="AV44" t="n">
         <v>12.83466070882423</v>
       </c>
-      <c r="AW44" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -8266,13 +7391,13 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT45" t="n">
+        <v>1.735189810693292</v>
+      </c>
       <c r="AU45" t="n">
-        <v>1.735189810693292</v>
-      </c>
-      <c r="AV45" t="n">
         <v>3.219810408490127</v>
       </c>
-      <c r="AW45" t="inlineStr">
+      <c r="AV45" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -8431,15 +7556,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT46" t="n">
+        <v>1.114227419076153</v>
+      </c>
       <c r="AU46" t="n">
-        <v>1.114227419076153</v>
-      </c>
-      <c r="AV46" t="n">
         <v>16.95317213092454</v>
       </c>
-      <c r="AW46" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -8606,13 +7731,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT47" t="n">
+        <v>0.7470212065555705</v>
+      </c>
       <c r="AU47" t="n">
-        <v>0.7470212065555705</v>
-      </c>
-      <c r="AV47" t="n">
         <v>6.099256325704463</v>
       </c>
-      <c r="AW47" t="inlineStr">
+      <c r="AV47" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -8694,97 +7819,6 @@
           <t>6335064087152916224</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>6335064087152916224</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>6335064087152916224</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>6335064087152916224</t>
-        </is>
-      </c>
-      <c r="Z48" t="n">
-        <v>230.5157597977008</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>-4.777508623880735</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>9.435870217838287</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>8.901265144348145</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>9.678739547729492</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>8.044776916503906</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1.633962631225586</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>52.21004716861264</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>4093.7727</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0.64730173</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>0.113832116</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0.7120389</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0.3565852273888486</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>0.3933991440170905</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>2.11386180640969</v>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AQ48" t="inlineStr">
-        <is>
-          <t>GJ 583</t>
-        </is>
-      </c>
-      <c r="AR48" t="inlineStr">
-        <is>
-          <t>75201</t>
-        </is>
-      </c>
-      <c r="AS48" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU48" t="n">
-        <v>1.793063235341547</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>19.15340158131814</v>
-      </c>
-      <c r="AW48" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8947,15 +7981,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT49" t="n">
+        <v>1.455359828131016</v>
+      </c>
       <c r="AU49" t="n">
-        <v>1.455359828131016</v>
-      </c>
-      <c r="AV49" t="n">
         <v>11.27730561279955</v>
       </c>
-      <c r="AW49" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -9032,102 +8066,6 @@
           <t>6313600142709958144</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>6313600142709958144</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>6313600142709958144</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>6313600142709958144</t>
-        </is>
-      </c>
-      <c r="Z50" t="n">
-        <v>225.1808186516746</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>-11.13726849432206</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>9.452585903630256</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>8.844958305358887</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>9.698563575744629</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>7.939717769622803</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>1.758845806121826</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>56.06777131891592</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>3890.9976</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0.110792436</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0.764504</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0.3535030973536811</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>0.3434949446544288</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>1.769296033820299</v>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP50" t="inlineStr">
-        <is>
-          <t>HD 132683</t>
-        </is>
-      </c>
-      <c r="AQ50" t="inlineStr">
-        <is>
-          <t>GJ 9507, GJ 571.1</t>
-        </is>
-      </c>
-      <c r="AR50" t="inlineStr">
-        <is>
-          <t>73457</t>
-        </is>
-      </c>
-      <c r="AS50" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU50" t="n">
-        <v>1.342801953045888</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>17.83555822670312</v>
-      </c>
-      <c r="AW50" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9287,15 +8225,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT51" t="n">
+        <v>1.226402369197755</v>
+      </c>
       <c r="AU51" t="n">
-        <v>1.226402369197755</v>
-      </c>
-      <c r="AV51" t="n">
         <v>12.57936463354278</v>
       </c>
-      <c r="AW51" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV51" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -9460,15 +8398,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT52" t="n">
+        <v>1.758053457990462</v>
+      </c>
       <c r="AU52" t="n">
-        <v>1.758053457990462</v>
-      </c>
-      <c r="AV52" t="n">
         <v>5.886360157633197</v>
       </c>
-      <c r="AW52" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -9625,15 +8563,15 @@
           <t>SB*</t>
         </is>
       </c>
+      <c r="AT53" t="n">
+        <v>0.9637122808438549</v>
+      </c>
       <c r="AU53" t="n">
-        <v>0.9637122808438549</v>
-      </c>
-      <c r="AV53" t="n">
         <v>18.56027893012671</v>
       </c>
-      <c r="AW53" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV53" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -9710,102 +8648,6 @@
           <t>5073448642595674752</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>5073448642595674752</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>5073448642595674752</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>5073448642595674752</t>
-        </is>
-      </c>
-      <c r="Z54" t="n">
-        <v>48.68701104937745</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>-26.44581248850255</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>9.127499003171922</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>8.660046577453613</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>9.367588996887207</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>7.845291137695312</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1.522297859191895</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>53.55426056338445</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>4130.81</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0.662613</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>0.12756857</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0.69739515</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0.3771107961493197</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>0.347385855302755</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1.942157721485126</v>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP54" t="inlineStr">
-        <is>
-          <t>HD  20280</t>
-        </is>
-      </c>
-      <c r="AQ54" t="inlineStr">
-        <is>
-          <t>GJ 131</t>
-        </is>
-      </c>
-      <c r="AR54" t="inlineStr">
-        <is>
-          <t>15095</t>
-        </is>
-      </c>
-      <c r="AS54" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU54" t="n">
-        <v>1.953543939316974</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>18.67265068138592</v>
-      </c>
-      <c r="AW54" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9968,15 +8810,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT55" t="n">
+        <v>2.216291768419251</v>
+      </c>
       <c r="AU55" t="n">
-        <v>2.216291768419251</v>
-      </c>
-      <c r="AV55" t="n">
         <v>3.638438981826665</v>
       </c>
-      <c r="AW55" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -10138,15 +8980,15 @@
           <t>EclBin</t>
         </is>
       </c>
+      <c r="AT56" t="n">
+        <v>1.252485750795232</v>
+      </c>
       <c r="AU56" t="n">
-        <v>1.252485750795232</v>
-      </c>
-      <c r="AV56" t="n">
         <v>15.04871165248797</v>
       </c>
-      <c r="AW56" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10313,15 +9155,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT57" t="n">
+        <v>1.702394448792871</v>
+      </c>
       <c r="AU57" t="n">
-        <v>1.702394448792871</v>
-      </c>
-      <c r="AV57" t="n">
         <v>17.68128750509605</v>
       </c>
-      <c r="AW57" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -10395,92 +9237,6 @@
           <t>4072260704719970944</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>4072260704719970944</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>4072260704719970944</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>4072260704719970944</t>
-        </is>
-      </c>
-      <c r="Z58" t="n">
-        <v>282.587477867388</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>-26.92373729815386</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>9.67037747138977</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>9.050765991210938</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>9.916899681091309</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>8.136176109313965</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>1.780723571777344</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>56.66021768982383</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>3780</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0.4190619018868291</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>0.3330449041784046</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>1.867779189947706</v>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AR58" t="inlineStr">
-        <is>
-          <t>92444</t>
-        </is>
-      </c>
-      <c r="AS58" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU58" t="n">
-        <v>0.7087251445485094</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>17.64906738400336</v>
-      </c>
-      <c r="AW58" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10640,15 +9396,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT59" t="n">
+        <v>1.566652800021061</v>
+      </c>
       <c r="AU59" t="n">
-        <v>1.566652800021061</v>
-      </c>
-      <c r="AV59" t="n">
         <v>17.68739743596811</v>
       </c>
-      <c r="AW59" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -10728,102 +9484,6 @@
           <t>4111366313257506560</t>
         </is>
       </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>4111366313257506560</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>4111366313257506560</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>4111366313257506560</t>
-        </is>
-      </c>
-      <c r="Z60" t="n">
-        <v>262.2759143258954</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>-23.83643565047791</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>9.582686301946641</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>9.06427001953125</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>9.824929237365723</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>8.216133117675781</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>1.608796119689941</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>54.36675345788812</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>4108.1836</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0.63693863</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>0.08764215</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0.5844045</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0.312766704585708</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>0.4239206135824281</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>2.116175820186592</v>
-      </c>
-      <c r="AO60" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP60" t="inlineStr">
-        <is>
-          <t>HD 158233</t>
-        </is>
-      </c>
-      <c r="AQ60" t="inlineStr">
-        <is>
-          <t>GJ 4008</t>
-        </is>
-      </c>
-      <c r="AR60" t="inlineStr">
-        <is>
-          <t>85561</t>
-        </is>
-      </c>
-      <c r="AS60" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU60" t="n">
-        <v>3.191221396749432</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>18.39359418021142</v>
-      </c>
-      <c r="AW60" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10895,102 +9555,6 @@
           <t>4843073709303881728</t>
         </is>
       </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>4843073709303881728</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>4843073709303881728</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>4843073709303881728</t>
-        </is>
-      </c>
-      <c r="Z61" t="n">
-        <v>59.15194648780565</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>-41.3431573010344</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>8.834761856145859</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>8.376395225524902</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>9.074453353881836</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>7.56816577911377</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>1.506287574768066</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>56.93518463192297</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>4336.919</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0.672662</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>0.14044195</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0.6694981</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>0.3932234203104373</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>0.3230788704383446</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>1.858379847004002</v>
-      </c>
-      <c r="AO61" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP61" t="inlineStr">
-        <is>
-          <t>HD  25004</t>
-        </is>
-      </c>
-      <c r="AQ61" t="inlineStr">
-        <is>
-          <t>GJ 1066</t>
-        </is>
-      </c>
-      <c r="AR61" t="inlineStr">
-        <is>
-          <t>18450</t>
-        </is>
-      </c>
-      <c r="AS61" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU61" t="n">
-        <v>2.241552152343242</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>17.56383168799474</v>
-      </c>
-      <c r="AW61" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11145,15 +9709,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT62" t="n">
+        <v>1.603459718691285</v>
+      </c>
       <c r="AU62" t="n">
-        <v>1.603459718691285</v>
-      </c>
-      <c r="AV62" t="n">
         <v>7.228567098899183</v>
       </c>
-      <c r="AW62" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11315,13 +9879,13 @@
           <t>**</t>
         </is>
       </c>
+      <c r="AT63" t="n">
+        <v>0.9941371187539264</v>
+      </c>
       <c r="AU63" t="n">
-        <v>0.9941371187539264</v>
-      </c>
-      <c r="AV63" t="n">
         <v>12.03939579583873</v>
       </c>
-      <c r="AW63" t="inlineStr">
+      <c r="AV63" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -11485,15 +10049,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT64" t="n">
+        <v>1.055039360931723</v>
+      </c>
       <c r="AU64" t="n">
-        <v>1.055039360931723</v>
-      </c>
-      <c r="AV64" t="n">
         <v>17.55481503082285</v>
       </c>
-      <c r="AW64" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11660,13 +10224,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT65" t="n">
+        <v>0.9403060490214101</v>
+      </c>
       <c r="AU65" t="n">
-        <v>0.9403060490214101</v>
-      </c>
-      <c r="AV65" t="n">
         <v>14.136843884035</v>
       </c>
-      <c r="AW65" t="inlineStr">
+      <c r="AV65" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -11827,15 +10391,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT66" t="n">
+        <v>1.333250845514523</v>
+      </c>
       <c r="AU66" t="n">
-        <v>1.333250845514523</v>
-      </c>
-      <c r="AV66" t="n">
         <v>15.771242532647</v>
       </c>
-      <c r="AW66" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11997,15 +10561,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT67" t="n">
+        <v>2.026252168653316</v>
+      </c>
       <c r="AU67" t="n">
-        <v>2.026252168653316</v>
-      </c>
-      <c r="AV67" t="n">
         <v>18.2083349278885</v>
       </c>
-      <c r="AW67" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -12082,102 +10646,6 @@
           <t>3498481592531208576</t>
         </is>
       </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>3498481592531208576</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>3498481592531208576</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>3498481592531208576</t>
-        </is>
-      </c>
-      <c r="Z68" t="n">
-        <v>192.0400474542226</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>-24.80394386396552</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>9.903611348943711</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>9.304690361022949</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>10.14919948577881</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>8.406003952026367</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>1.743195533752441</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>53.39872999671822</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>3973.937</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0.59998924</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>0.07866455999999999</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0.5917184</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0.2973165950806304</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>0.4533946297083031</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>2.141736311873126</v>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP68" t="inlineStr">
-        <is>
-          <t>HD 111261B</t>
-        </is>
-      </c>
-      <c r="AQ68" t="inlineStr">
-        <is>
-          <t>GJ 1164 B</t>
-        </is>
-      </c>
-      <c r="AR68" t="inlineStr">
-        <is>
-          <t>62471</t>
-        </is>
-      </c>
-      <c r="AS68" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU68" t="n">
-        <v>2.895997877367483</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>18.72703714229642</v>
-      </c>
-      <c r="AW68" t="inlineStr">
-        <is>
-          <t>Dimmest</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12255,97 +10723,6 @@
           <t>6260386975385254656</t>
         </is>
       </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>6260386975385254656</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>6260386975385254656</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>6260386975385254656</t>
-        </is>
-      </c>
-      <c r="Z69" t="n">
-        <v>235.1447950075073</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>-18.04862887919031</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>8.889188472819328</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>8.362634658813477</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>9.131756782531738</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>7.509888172149658</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>1.62186861038208</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>64.18253335778927</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>4101.4546</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0.6586084</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>0.12352164</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0.6961553700000001</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>0.3713759460688757</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>0.3070159535824746</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>1.69820117765091</v>
-      </c>
-      <c r="AO69" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP69" t="inlineStr">
-        <is>
-          <t>HD 139763</t>
-        </is>
-      </c>
-      <c r="AR69" t="inlineStr">
-        <is>
-          <t>76779</t>
-        </is>
-      </c>
-      <c r="AS69" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU69" t="n">
-        <v>1.95212998726749</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>15.58056293018915</v>
-      </c>
-      <c r="AW69" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12505,15 +10882,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT70" t="n">
+        <v>0.659625634182931</v>
+      </c>
       <c r="AU70" t="n">
-        <v>0.659625634182931</v>
-      </c>
-      <c r="AV70" t="n">
         <v>14.6168504480454</v>
       </c>
-      <c r="AW70" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV70" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -12675,15 +11052,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT71" t="n">
+        <v>1.717218532617633</v>
+      </c>
       <c r="AU71" t="n">
-        <v>1.717218532617633</v>
-      </c>
-      <c r="AV71" t="n">
         <v>11.44526772917466</v>
       </c>
-      <c r="AW71" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV71" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -12848,15 +11225,15 @@
           <t>Eruptive*</t>
         </is>
       </c>
+      <c r="AT72" t="n">
+        <v>1.865432587008721</v>
+      </c>
       <c r="AU72" t="n">
-        <v>1.865432587008721</v>
-      </c>
-      <c r="AV72" t="n">
         <v>15.28440035086513</v>
       </c>
-      <c r="AW72" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV72" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -13021,15 +11398,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT73" t="n">
+        <v>1.384748027353553</v>
+      </c>
       <c r="AU73" t="n">
-        <v>1.384748027353553</v>
-      </c>
-      <c r="AV73" t="n">
         <v>8.843964761225756</v>
       </c>
-      <c r="AW73" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV73" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -13194,15 +11571,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT74" t="n">
+        <v>1.747532432148586</v>
+      </c>
       <c r="AU74" t="n">
-        <v>1.747532432148586</v>
-      </c>
-      <c r="AV74" t="n">
         <v>7.601527372616974</v>
       </c>
-      <c r="AW74" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV74" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -13364,15 +11741,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT75" t="n">
+        <v>1.854344319993111</v>
+      </c>
       <c r="AU75" t="n">
-        <v>1.854344319993111</v>
-      </c>
-      <c r="AV75" t="n">
         <v>17.65498702978585</v>
       </c>
-      <c r="AW75" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV75" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -13534,15 +11911,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT76" t="n">
+        <v>1.219684522050477</v>
+      </c>
       <c r="AU76" t="n">
-        <v>1.219684522050477</v>
-      </c>
-      <c r="AV76" t="n">
         <v>15.21037582946627</v>
       </c>
-      <c r="AW76" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV76" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -13704,13 +12081,13 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT77" t="n">
+        <v>0.94254112753729</v>
+      </c>
       <c r="AU77" t="n">
-        <v>0.94254112753729</v>
-      </c>
-      <c r="AV77" t="n">
         <v>13.23996519741542</v>
       </c>
-      <c r="AW77" t="inlineStr">
+      <c r="AV77" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -13871,15 +12248,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT78" t="n">
+        <v>1.953362366508123</v>
+      </c>
       <c r="AU78" t="n">
-        <v>1.953362366508123</v>
-      </c>
-      <c r="AV78" t="n">
         <v>7.435229060298576</v>
       </c>
-      <c r="AW78" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV78" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -14044,15 +12421,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT79" t="n">
+        <v>2.138539647024254</v>
+      </c>
       <c r="AU79" t="n">
-        <v>2.138539647024254</v>
-      </c>
-      <c r="AV79" t="n">
         <v>13.20790661666426</v>
       </c>
-      <c r="AW79" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
+      <c r="AV79" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -14209,15 +12586,15 @@
           <t>**</t>
         </is>
       </c>
+      <c r="AT80" t="n">
+        <v>4.095590407139206</v>
+      </c>
       <c r="AU80" t="n">
-        <v>4.095590407139206</v>
-      </c>
-      <c r="AV80" t="n">
         <v>15.20673823569016</v>
       </c>
-      <c r="AW80" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV80" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -14297,102 +12674,6 @@
           <t>2395031273585836288</t>
         </is>
       </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>2395031273585836288</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>2395031273585836288</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>2395031273585836288</t>
-        </is>
-      </c>
-      <c r="Z81" t="n">
-        <v>353.2074101827482</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>-16.84661852217994</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>8.587043935575485</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>8.085914611816406</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>8.828512191772461</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>7.250840187072754</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>1.577672004699707</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>68.73564590379422</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>4066.7944</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>0.6749642</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>0.13573194</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>0.7526889</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>0.3896531512744821</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>0.2623562655211376</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>1.504798516942306</v>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP81" t="inlineStr">
-        <is>
-          <t>HD 221503</t>
-        </is>
-      </c>
-      <c r="AQ81" t="inlineStr">
-        <is>
-          <t>GJ 898</t>
-        </is>
-      </c>
-      <c r="AR81" t="inlineStr">
-        <is>
-          <t>116215</t>
-        </is>
-      </c>
-      <c r="AS81" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU81" t="n">
-        <v>1.582829748692533</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>14.54849207934481</v>
-      </c>
-      <c r="AW81" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -14632,15 +12913,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT83" t="n">
+        <v>1.584025803819568</v>
+      </c>
       <c r="AU83" t="n">
-        <v>1.584025803819568</v>
-      </c>
-      <c r="AV83" t="n">
         <v>12.92827044128057</v>
       </c>
-      <c r="AW83" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV83" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -14794,6 +13075,102 @@
           <t>704967037090946688</t>
         </is>
       </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>704967037090946688</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>704967037090946688</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>704967037090946688</t>
+        </is>
+      </c>
+      <c r="Z85" t="n">
+        <v>133.146760620834</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>28.3297830003627</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>5.928375293149948</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>5.732680797576904</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>6.155681133270264</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>5.147009372711182</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.008671760559082</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>79.44818375718161</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>5184.4775</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0.6048682</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>0.92796665</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0.7859231827122458</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>0.09642394740613273</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.047302508265534</v>
+      </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AP85" t="inlineStr">
+        <is>
+          <t>HD  75732</t>
+        </is>
+      </c>
+      <c r="AQ85" t="inlineStr">
+        <is>
+          <t>GJ 324 A</t>
+        </is>
+      </c>
+      <c r="AR85" t="inlineStr">
+        <is>
+          <t>43587</t>
+        </is>
+      </c>
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.501703318933316</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>12.58682014753555</v>
+      </c>
+      <c r="AV85" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -14953,15 +13330,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT86" t="n">
+        <v>1.630200033813258</v>
+      </c>
       <c r="AU86" t="n">
-        <v>1.630200033813258</v>
-      </c>
-      <c r="AV86" t="n">
         <v>16.81223174833525</v>
       </c>
-      <c r="AW86" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV86" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -15038,97 +13415,6 @@
           <t>4805806449875760384</t>
         </is>
       </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>4805806449875760384</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>4805806449875760384</t>
-        </is>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>4805806449875760384</t>
-        </is>
-      </c>
-      <c r="Z87" t="n">
-        <v>82.55855476960322</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>-42.69796597525414</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>9.68979214331627</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>9.101789474487305</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>9.934929847717285</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>8.209831237792969</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>1.725098609924316</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>52.19632472037114</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>4000.1545</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0.63111806</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>0.09948211999999999</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>0.65671146</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>0.3341422746926936</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>0.4185498602889894</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>2.149692954629578</v>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP87" t="inlineStr">
-        <is>
-          <t>HD 274255</t>
-        </is>
-      </c>
-      <c r="AR87" t="inlineStr">
-        <is>
-          <t>25775</t>
-        </is>
-      </c>
-      <c r="AS87" t="inlineStr">
-        <is>
-          <t>BYDraV*_Candidate</t>
-        </is>
-      </c>
-      <c r="AU87" t="n">
-        <v>2.228367536626836</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>19.15843702324353</v>
-      </c>
-      <c r="AW87" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -15288,15 +13574,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT88" t="n">
+        <v>1.75728268109685</v>
+      </c>
       <c r="AU88" t="n">
-        <v>1.75728268109685</v>
-      </c>
-      <c r="AV88" t="n">
         <v>12.93223839703444</v>
       </c>
-      <c r="AW88" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV88" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -15458,15 +13744,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT89" t="n">
+        <v>1.15004501453396</v>
+      </c>
       <c r="AU89" t="n">
-        <v>1.15004501453396</v>
-      </c>
-      <c r="AV89" t="n">
         <v>18.34013046861489</v>
       </c>
-      <c r="AW89" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV89" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -15623,15 +13909,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT90" t="n">
+        <v>1.185166893634851</v>
+      </c>
       <c r="AU90" t="n">
-        <v>1.185166893634851</v>
-      </c>
-      <c r="AV90" t="n">
         <v>14.79273794856554</v>
       </c>
-      <c r="AW90" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV90" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -15793,15 +14079,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT91" t="n">
+        <v>1.844836198763456</v>
+      </c>
       <c r="AU91" t="n">
-        <v>1.844836198763456</v>
-      </c>
-      <c r="AV91" t="n">
         <v>12.16426728699849</v>
       </c>
-      <c r="AW91" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV91" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -15966,15 +14252,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT92" t="n">
+        <v>1.450416803044171</v>
+      </c>
       <c r="AU92" t="n">
-        <v>1.450416803044171</v>
-      </c>
-      <c r="AV92" t="n">
         <v>17.30031548819083</v>
       </c>
-      <c r="AW92" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV92" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -16136,15 +14422,15 @@
           <t>RSCVnV*</t>
         </is>
       </c>
+      <c r="AT93" t="n">
+        <v>1.297074282976997</v>
+      </c>
       <c r="AU93" t="n">
-        <v>1.297074282976997</v>
-      </c>
-      <c r="AV93" t="n">
         <v>10.36054259710993</v>
       </c>
-      <c r="AW93" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV93" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -16309,15 +14595,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT94" t="n">
+        <v>0.7764721183421155</v>
+      </c>
       <c r="AU94" t="n">
-        <v>0.7764721183421155</v>
-      </c>
-      <c r="AV94" t="n">
         <v>18.26943818519626</v>
       </c>
-      <c r="AW94" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV94" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -16479,15 +14765,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT95" t="n">
+        <v>2.324699077934539</v>
+      </c>
       <c r="AU95" t="n">
-        <v>2.324699077934539</v>
-      </c>
-      <c r="AV95" t="n">
         <v>13.59651784149522</v>
       </c>
-      <c r="AW95" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV95" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -16649,15 +14935,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT96" t="n">
+        <v>1.848206256583958</v>
+      </c>
       <c r="AU96" t="n">
-        <v>1.848206256583958</v>
-      </c>
-      <c r="AV96" t="n">
         <v>14.82647987202467</v>
       </c>
-      <c r="AW96" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV96" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -16819,15 +15105,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT97" t="n">
+        <v>1.642855324617889</v>
+      </c>
       <c r="AU97" t="n">
-        <v>1.642855324617889</v>
-      </c>
-      <c r="AV97" t="n">
         <v>16.18810659335618</v>
       </c>
-      <c r="AW97" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV97" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -16904,102 +15190,6 @@
           <t>6866310172545095424</t>
         </is>
       </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>6866310172545095424</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>6866310172545095424</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>6866310172545095424</t>
-        </is>
-      </c>
-      <c r="Z98" t="n">
-        <v>302.5795144151588</v>
-      </c>
-      <c r="AA98" t="n">
-        <v>-20.4950698499972</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>8.888467973728179</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>8.386856079101562</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>9.130548477172852</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>7.528278350830078</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>1.602270126342773</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>63.20742001816341</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>4124.9</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>0.6622315600000001</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>0.12293527</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>0.7342213</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>0.3702590183811431</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>0.3103460500167974</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>1.718745875167374</v>
-      </c>
-      <c r="AO98" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP98" t="inlineStr">
-        <is>
-          <t>HD 191391</t>
-        </is>
-      </c>
-      <c r="AQ98" t="inlineStr">
-        <is>
-          <t>GJ 782</t>
-        </is>
-      </c>
-      <c r="AR98" t="inlineStr">
-        <is>
-          <t>99385</t>
-        </is>
-      </c>
-      <c r="AS98" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU98" t="n">
-        <v>1.673127109034097</v>
-      </c>
-      <c r="AV98" t="n">
-        <v>15.82092734860303</v>
-      </c>
-      <c r="AW98" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -17162,15 +15352,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT99" t="n">
+        <v>3.335030171081395</v>
+      </c>
       <c r="AU99" t="n">
-        <v>3.335030171081395</v>
-      </c>
-      <c r="AV99" t="n">
         <v>11.81992438968151</v>
       </c>
-      <c r="AW99" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV99" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -17332,15 +15522,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT100" t="n">
+        <v>2.167672195328044</v>
+      </c>
       <c r="AU100" t="n">
-        <v>2.167672195328044</v>
-      </c>
-      <c r="AV100" t="n">
         <v>13.72611351927495</v>
       </c>
-      <c r="AW100" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV100" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -17414,102 +15604,6 @@
           <t>4270814637616488064</t>
         </is>
       </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>4270814637616488064</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>4270814637616488064</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>4270814637616488064</t>
-        </is>
-      </c>
-      <c r="Z101" t="n">
-        <v>274.9618362969113</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>-1.938612759804832</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>9.632092778863907</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>9.063088417053223</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>9.876449584960938</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>8.182724952697754</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>1.693724632263184</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>52.39629220529056</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>4205</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>0.102434</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>0.3372117479355314</v>
-      </c>
-      <c r="AM101" t="n">
-        <v>0.4512559326716648</v>
-      </c>
-      <c r="AN101" t="n">
-        <v>2.270169891124356</v>
-      </c>
-      <c r="AO101" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP101" t="inlineStr">
-        <is>
-          <t>HD 168442</t>
-        </is>
-      </c>
-      <c r="AQ101" t="inlineStr">
-        <is>
-          <t>GJ 710</t>
-        </is>
-      </c>
-      <c r="AR101" t="inlineStr">
-        <is>
-          <t>89825</t>
-        </is>
-      </c>
-      <c r="AS101" t="inlineStr">
-        <is>
-          <t>Variable*</t>
-        </is>
-      </c>
-      <c r="AU101" t="n">
-        <v>0.6635472110517399</v>
-      </c>
-      <c r="AV101" t="n">
-        <v>19.08531993221894</v>
-      </c>
-      <c r="AW101" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -17669,15 +15763,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT102" t="n">
+        <v>1.25015691391364</v>
+      </c>
       <c r="AU102" t="n">
-        <v>1.25015691391364</v>
-      </c>
-      <c r="AV102" t="n">
         <v>9.893947947441871</v>
       </c>
-      <c r="AW102" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV102" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -17754,97 +15848,6 @@
           <t>4819591920506512768</t>
         </is>
       </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>4819591920506512768</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>4819591920506512768</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>4819591920506512768</t>
-        </is>
-      </c>
-      <c r="Z103" t="n">
-        <v>81.12595314463759</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>-38.96990653268172</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>9.031418509688377</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>8.539438247680664</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>9.272552490234375</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>7.708310604095459</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>1.564241886138916</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>57.27060617763743</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>4265.911</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>0.670469</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>0.12170362</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>0.6386978</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>0.3668865106019408</v>
-      </c>
-      <c r="AM103" t="n">
-        <v>0.3485261764443434</v>
-      </c>
-      <c r="AN103" t="n">
-        <v>1.933296656800961</v>
-      </c>
-      <c r="AO103" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP103" t="inlineStr">
-        <is>
-          <t>HD  35650</t>
-        </is>
-      </c>
-      <c r="AR103" t="inlineStr">
-        <is>
-          <t>25283</t>
-        </is>
-      </c>
-      <c r="AS103" t="inlineStr">
-        <is>
-          <t>RotV*</t>
-        </is>
-      </c>
-      <c r="AU103" t="n">
-        <v>2.573311979644731</v>
-      </c>
-      <c r="AV103" t="n">
-        <v>17.46096412701272</v>
-      </c>
-      <c r="AW103" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -18004,15 +16007,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT104" t="n">
+        <v>1.480664521061823</v>
+      </c>
       <c r="AU104" t="n">
-        <v>1.480664521061823</v>
-      </c>
-      <c r="AV104" t="n">
         <v>19.77580196500298</v>
       </c>
-      <c r="AW104" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV104" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -18169,15 +16172,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT105" t="n">
+        <v>1.392699324365376</v>
+      </c>
       <c r="AU105" t="n">
-        <v>1.392699324365376</v>
-      </c>
-      <c r="AV105" t="n">
         <v>19.6296874213325</v>
       </c>
-      <c r="AW105" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV105" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -18341,15 +16344,15 @@
           <t>RSCVnV*</t>
         </is>
       </c>
+      <c r="AT106" t="n">
+        <v>1.185370263578394</v>
+      </c>
       <c r="AU106" t="n">
-        <v>1.185370263578394</v>
-      </c>
-      <c r="AV106" t="n">
         <v>18.59937001542844</v>
       </c>
-      <c r="AW106" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV106" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -18426,102 +16429,6 @@
           <t>6508401923473282432</t>
         </is>
       </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>6508401923473282432</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>6508401923473282432</t>
-        </is>
-      </c>
-      <c r="Y107" t="inlineStr">
-        <is>
-          <t>6508401923473282432</t>
-        </is>
-      </c>
-      <c r="Z107" t="n">
-        <v>335.5661138004264</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>-54.5595680078303</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>8.960261054987907</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>8.409995079040527</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>9.203866004943848</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>7.540348529815674</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>1.663517475128174</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>76.15946505307657</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>3920</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>0.187</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>0.4589700401978843</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>0.2811993874321437</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>1.650402802109548</v>
-      </c>
-      <c r="AO107" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP107" t="inlineStr">
-        <is>
-          <t>HD 211970</t>
-        </is>
-      </c>
-      <c r="AQ107" t="inlineStr">
-        <is>
-          <t>GJ 1267</t>
-        </is>
-      </c>
-      <c r="AR107" t="inlineStr">
-        <is>
-          <t>110443</t>
-        </is>
-      </c>
-      <c r="AS107" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU107" t="n">
-        <v>0.6635472110517399</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>13.13034432822088</v>
-      </c>
-      <c r="AW107" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -18681,15 +16588,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT108" t="n">
+        <v>2.202675635122268</v>
+      </c>
       <c r="AU108" t="n">
-        <v>2.202675635122268</v>
-      </c>
-      <c r="AV108" t="n">
         <v>10.76135042939101</v>
       </c>
-      <c r="AW108" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV108" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>

--- a/results/test_merged_result_MJ.xlsx
+++ b/results/test_merged_result_MJ.xlsx
@@ -481,7 +481,7 @@
     <col width="23" customWidth="1" min="42" max="42"/>
     <col width="30" customWidth="1" min="43" max="43"/>
     <col width="12" customWidth="1" min="44" max="44"/>
-    <col width="13" customWidth="1" min="45" max="45"/>
+    <col width="19" customWidth="1" min="45" max="45"/>
     <col width="22" customWidth="1" min="46" max="46"/>
     <col width="19" customWidth="1" min="47" max="47"/>
     <col width="13" customWidth="1" min="48" max="48"/>
@@ -895,7 +895,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -1835,29 +1835,34 @@
           <t>5630532113072532736</t>
         </is>
       </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>5630532113072532736</t>
+        </is>
+      </c>
       <c r="Z8" t="n">
-        <v>142.6166899241985</v>
+        <v>142.6166788918856</v>
       </c>
       <c r="AA8" t="n">
-        <v>-32.10205002423861</v>
+        <v>-32.10200628852181</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.32715599093914</v>
+        <v>8.306259956345558</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.993447303771973</v>
+        <v>8.002314567565918</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.560214042663574</v>
+        <v>8.539155006408691</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.320436954498291</v>
+        <v>7.30592679977417</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.239777088165283</v>
+        <v>1.233228206634521</v>
       </c>
       <c r="AG8" t="n">
-        <v>50.93645103359646</v>
+        <v>50.9426573151017</v>
       </c>
       <c r="AH8" t="n">
         <v>4576.884</v>
@@ -1875,10 +1880,10 @@
         <v>0.490707367225516</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.2563593581410618</v>
+        <v>0.2539042489581328</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.709220756196676</v>
+        <v>1.692851787552183</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1909,11 +1914,11 @@
         <v>1.621604673108436</v>
       </c>
       <c r="AU8" t="n">
-        <v>19.6323061326048</v>
+        <v>19.62991435281008</v>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2091,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2261,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2434,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -2508,6 +2513,102 @@
           <t>6080301367488384896</t>
         </is>
       </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>6080301367488384896</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>6080301367488384896</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>6080301367488384896</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>196.2337538641043</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-52.4464606454391</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.038844431605339</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.445794105529785</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.284271240234375</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7.547557353973389</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.736713886260986</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>61.3202021352086</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>3640</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.1310105</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.7293058</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.3862192906125948</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.2029069987476966</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.997255190854221</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>HD 113538</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>GJ 9425, GJ 496.1</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>63833</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT12" t="n">
+        <v>1.288964635557539</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>16.30783926307092</v>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2678,7 +2779,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2949,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3119,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3289,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -3268,6 +3369,102 @@
           <t>4706630501049679744</t>
         </is>
       </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>4706630501049679744</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>4706630501049679744</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>4706630501049679744</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.322328801511178</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-67.83508132890724</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.455076312074661</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.091019630432129</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8.690603256225586</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>7.35163402557373</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.338969230651855</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>61.00639982208859</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>4398.7754</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.7053809</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.14590912</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.63571703</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.3999643383147214</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.2729440123358245</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.621449951999693</v>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>HD     55</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>GJ 3</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.745567710296219</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>16.39172288343968</v>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3443,7 +3640,7 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -3520,6 +3717,102 @@
           <t>6471497502884511232</t>
         </is>
       </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>6471497502884511232</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>6471497502884511232</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>6471497502884511232</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>310.5788689173076</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-52.70400747589355</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.804230053181648</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.240460395812988</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9.048484802246094</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>7.358860492706299</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.689624309539795</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>81.02792076812638</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>3917.272</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.61094534</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.08590003</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.6361759299999999</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.3110902437816222</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.261076460238167</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.27297373505892</v>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>HD 196877</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>GJ 798.0, GJ 798</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>102186</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.3728520291368</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>12.34142491279828</v>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3690,7 +3983,7 @@
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -3775,6 +4068,102 @@
           <t>6669657123437047424</t>
         </is>
       </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>6669657123437047424</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>6669657123437047424</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>6669657123437047424</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>304.9014800275145</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-46.42856921734209</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.696639160513877</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.282655715942383</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8.93438720703125</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>7.506181240081787</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.428205966949463</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>54.04408367109657</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>4389.5796</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.6886628</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.16172463</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.69715226</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4212175615883222</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.3049162003307058</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.836727717196075</v>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>HD 192961</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>GJ 787</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>100223</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.032467946890793</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>18.50341299310089</v>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3852,6 +4241,102 @@
           <t>4737533237421005952</t>
         </is>
       </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>4737533237421005952</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>4737533237421005952</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>4737533237421005952</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>50.82325574741139</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-49.9907184713681</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.543711507334709</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.192389488220215</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8.778672218322754</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>7.462452411651611</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.316219806671143</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>51.81551879878727</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>4410</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.74283314</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.17813864</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.67277056</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.4417625331460715</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2844115961768082</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.822195496765714</v>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>HD  21209A, HD  21209</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>GJ 9115 A, GJ 140.1 A</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>15774</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.439441087603737</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>19.29923743277091</v>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3926,6 +4411,102 @@
           <t>5285775539195330560</t>
         </is>
       </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>5285775539195330560</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>5285775539195330560</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>5285775539195330560</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>108.2768913871574</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-63.34238904353339</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9.05973434832096</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.570058822631836</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>9.300670623779297</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>7.744371891021729</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.556298732757568</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>51.05388225075709</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>4179.2197</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.15366574</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.74814504</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.4133280492459198</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.3434973018235495</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.913173990332276</v>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>HD  56533</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>GJ 9226, GJ 268.2</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>34890</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT23" t="n">
+        <v>1.43282729890182</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>19.58714902597188</v>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4000,6 +4581,102 @@
           <t>4833654227548585856</t>
         </is>
       </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>4833654227548585856</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>4833654227548585856</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>4833654227548585856</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>53.75662455732397</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-48.41777462792747</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.559503447828293</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.020994186401367</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8.802591323852539</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>7.159848213195801</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.642743110656738</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>73.51988280065039</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>3850</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.6617253</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.1286912</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.7185779</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.3813171613997799</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.218216145001496</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.225959512009539</v>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>HD  22496</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>GJ 146</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>16711</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.783430422381145</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>13.60176270562762</v>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4167,7 +4844,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -4680,7 +5357,7 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -4850,7 +5527,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5692,7 @@
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5865,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5358,7 +6035,7 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5526,7 +6203,7 @@
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5701,7 +6378,7 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -5874,7 +6551,7 @@
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6721,7 @@
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6894,7 @@
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -6387,7 +7064,7 @@
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6565,7 +7242,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6645,6 +7322,102 @@
           <t>4258375617747092864</t>
         </is>
       </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>4258375617747092864</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>4258375617747092864</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>4258375617747092864</t>
+        </is>
+      </c>
+      <c r="Z40" t="n">
+        <v>281.8629551175184</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>-3.641055455311226</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>8.786167160444259</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.26960277557373</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>9.028376579284668</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>7.420927047729492</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.607449531555176</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>70.13347528858606</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>4022.2102</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.11139318</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.69506925</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.3533903924347861</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.2800848151418651</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.55802133070193</v>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>HD 173818</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>GJ 726</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>92200</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.084557182793672</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>14.25852627272766</v>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6815,7 +7588,7 @@
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6985,7 +7758,7 @@
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -7062,6 +7835,102 @@
           <t>6832674634380238848</t>
         </is>
       </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>6832674634380238848</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>6832674634380238848</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>6832674634380238848</t>
+        </is>
+      </c>
+      <c r="Z43" t="n">
+        <v>320.0567709913498</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>-19.85548923847976</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9.066298904175758</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.497677803039551</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>9.310630798339844</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>7.617907047271729</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.692723751068115</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>63.38643828104384</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>3939.6514</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.10051212</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.5759601</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.3363424972877731</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.3002265324091725</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.508423193722087</v>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>HD 203040</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>GJ 9736, GJ 826.1</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>105341</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT43" t="n">
+        <v>3.140321084148939</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>15.77624531553869</v>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7229,7 +8098,7 @@
       </c>
       <c r="AV44" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -7564,7 +8433,7 @@
       </c>
       <c r="AV46" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -7819,6 +8688,97 @@
           <t>6335064087152916224</t>
         </is>
       </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>6335064087152916224</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>6335064087152916224</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>6335064087152916224</t>
+        </is>
+      </c>
+      <c r="Z48" t="n">
+        <v>230.5157597977008</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-4.777508623880735</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>9.435870217838287</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8.901265144348145</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>9.678739547729492</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>8.044776916503906</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.633962631225586</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>52.21004716861264</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>4093.7727</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0.64730173</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.113832116</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.7120389</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0.3565852273888486</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0.3933991440170905</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>2.11386180640969</v>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>GJ 583</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>75201</t>
+        </is>
+      </c>
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT48" t="n">
+        <v>1.793063235341547</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>19.15340158131814</v>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7989,7 +8949,7 @@
       </c>
       <c r="AV49" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8066,6 +9026,102 @@
           <t>6313600142709958144</t>
         </is>
       </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>6313600142709958144</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>6313600142709958144</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>6313600142709958144</t>
+        </is>
+      </c>
+      <c r="Z50" t="n">
+        <v>225.1808186516746</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-11.13726849432206</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>9.452585903630256</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>8.844958305358887</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>9.698563575744629</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>7.939717769622803</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.758845806121826</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>56.06777131891592</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>3890.9976</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.110792436</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.764504</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.3535030973536811</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.3434949446544288</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.769296033820299</v>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>HD 132683</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>GJ 9507, GJ 571.1</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>73457</t>
+        </is>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT50" t="n">
+        <v>1.342801953045888</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>17.83555822670312</v>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8233,7 +9289,7 @@
       </c>
       <c r="AV51" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8406,7 +9462,7 @@
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8571,7 +9627,7 @@
       </c>
       <c r="AV53" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8648,6 +9704,102 @@
           <t>5073448642595674752</t>
         </is>
       </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>5073448642595674752</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>5073448642595674752</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>5073448642595674752</t>
+        </is>
+      </c>
+      <c r="Z54" t="n">
+        <v>48.68701104937745</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-26.44581248850255</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>9.127499003171922</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>8.660046577453613</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>9.367588996887207</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>7.845291137695312</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.522297859191895</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>53.55426056338445</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>4130.81</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0.662613</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0.12756857</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.69739515</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0.3771107961493197</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0.347385855302755</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.942157721485126</v>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP54" t="inlineStr">
+        <is>
+          <t>HD  20280</t>
+        </is>
+      </c>
+      <c r="AQ54" t="inlineStr">
+        <is>
+          <t>GJ 131</t>
+        </is>
+      </c>
+      <c r="AR54" t="inlineStr">
+        <is>
+          <t>15095</t>
+        </is>
+      </c>
+      <c r="AS54" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.953543939316974</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>18.67265068138592</v>
+      </c>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8818,7 +9970,7 @@
       </c>
       <c r="AV55" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -8988,7 +10140,7 @@
       </c>
       <c r="AV56" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9163,7 +10315,7 @@
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9237,6 +10389,92 @@
           <t>4072260704719970944</t>
         </is>
       </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>4072260704719970944</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>4072260704719970944</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>4072260704719970944</t>
+        </is>
+      </c>
+      <c r="Z58" t="n">
+        <v>282.587477867388</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-26.92373729815386</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>9.67037747138977</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>9.050765991210938</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>9.916899681091309</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>8.136176109313965</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.780723571777344</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>56.66021768982383</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0.4190619018868291</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0.3330449041784046</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.867779189947706</v>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AR58" t="inlineStr">
+        <is>
+          <t>92444</t>
+        </is>
+      </c>
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.7087251445485094</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>17.64906738400336</v>
+      </c>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9404,7 +10642,7 @@
       </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9484,6 +10722,102 @@
           <t>4111366313257506560</t>
         </is>
       </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>4111366313257506560</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>4111366313257506560</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>4111366313257506560</t>
+        </is>
+      </c>
+      <c r="Z60" t="n">
+        <v>262.2759143258954</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-23.83643565047791</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>9.582686301946641</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>9.06427001953125</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>9.824929237365723</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>8.216133117675781</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.608796119689941</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>54.36675345788812</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>4108.1836</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0.63693863</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0.08764215</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.5844045</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0.312766704585708</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0.4239206135824281</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>2.116175820186592</v>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP60" t="inlineStr">
+        <is>
+          <t>HD 158233</t>
+        </is>
+      </c>
+      <c r="AQ60" t="inlineStr">
+        <is>
+          <t>GJ 4008</t>
+        </is>
+      </c>
+      <c r="AR60" t="inlineStr">
+        <is>
+          <t>85561</t>
+        </is>
+      </c>
+      <c r="AS60" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT60" t="n">
+        <v>3.191221396749432</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>18.39359418021142</v>
+      </c>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9555,6 +10889,102 @@
           <t>4843073709303881728</t>
         </is>
       </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>4843073709303881728</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>4843073709303881728</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>4843073709303881728</t>
+        </is>
+      </c>
+      <c r="Z61" t="n">
+        <v>59.15194648780565</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>-41.3431573010344</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>8.834761856145859</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>8.376395225524902</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>9.074453353881836</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>7.56816577911377</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.506287574768066</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>56.93518463192297</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>4336.919</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.672662</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.14044195</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.6694981</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3932234203104373</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3230788704383446</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.858379847004002</v>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP61" t="inlineStr">
+        <is>
+          <t>HD  25004</t>
+        </is>
+      </c>
+      <c r="AQ61" t="inlineStr">
+        <is>
+          <t>GJ 1066</t>
+        </is>
+      </c>
+      <c r="AR61" t="inlineStr">
+        <is>
+          <t>18450</t>
+        </is>
+      </c>
+      <c r="AS61" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT61" t="n">
+        <v>2.241552152343242</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>17.56383168799474</v>
+      </c>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9717,7 +11147,7 @@
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9887,7 +11317,7 @@
       </c>
       <c r="AV63" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -10057,7 +11487,7 @@
       </c>
       <c r="AV64" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -10232,7 +11662,7 @@
       </c>
       <c r="AV65" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -10399,7 +11829,7 @@
       </c>
       <c r="AV66" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -10569,7 +11999,7 @@
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10646,6 +12076,102 @@
           <t>3498481592531208576</t>
         </is>
       </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>3498481592531208576</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>3498481592531208576</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>3498481592531208576</t>
+        </is>
+      </c>
+      <c r="Z68" t="n">
+        <v>192.0400474542226</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>-24.80394386396552</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>9.903611348943711</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>9.304690361022949</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>10.14919948577881</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>8.406003952026367</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.743195533752441</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>53.39872999671822</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>3973.937</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0.59998924</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0.07866455999999999</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.5917184</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0.2973165950806304</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0.4533946297083031</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>2.141736311873126</v>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>HD 111261B</t>
+        </is>
+      </c>
+      <c r="AQ68" t="inlineStr">
+        <is>
+          <t>GJ 1164 B</t>
+        </is>
+      </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>62471</t>
+        </is>
+      </c>
+      <c r="AS68" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT68" t="n">
+        <v>2.895997877367483</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>18.72703714229642</v>
+      </c>
+      <c r="AV68" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10723,6 +12249,97 @@
           <t>6260386975385254656</t>
         </is>
       </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>6260386975385254656</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>6260386975385254656</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>6260386975385254656</t>
+        </is>
+      </c>
+      <c r="Z69" t="n">
+        <v>235.1447950075073</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>-18.04862887919031</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>8.889188472819328</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>8.362634658813477</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>9.131756782531738</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>7.509888172149658</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.62186861038208</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>64.18253335778927</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>4101.4546</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0.6586084</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>0.12352164</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.6961553700000001</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0.3713759460688757</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0.3070159535824746</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.69820117765091</v>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>HD 139763</t>
+        </is>
+      </c>
+      <c r="AR69" t="inlineStr">
+        <is>
+          <t>76779</t>
+        </is>
+      </c>
+      <c r="AS69" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.95212998726749</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>15.58056293018915</v>
+      </c>
+      <c r="AV69" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10890,7 +12507,7 @@
       </c>
       <c r="AV70" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11060,7 +12677,7 @@
       </c>
       <c r="AV71" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11233,7 +12850,7 @@
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11406,7 +13023,7 @@
       </c>
       <c r="AV73" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11579,7 +13196,7 @@
       </c>
       <c r="AV74" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11749,7 +13366,7 @@
       </c>
       <c r="AV75" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11919,7 +13536,7 @@
       </c>
       <c r="AV76" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -12089,7 +13706,7 @@
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -12256,7 +13873,7 @@
       </c>
       <c r="AV78" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -12429,7 +14046,7 @@
       </c>
       <c r="AV79" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -12516,50 +14133,55 @@
           <t>2552288133874677760</t>
         </is>
       </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2552288133874677760</t>
+        </is>
+      </c>
       <c r="Z80" t="n">
-        <v>15.60373575245375</v>
+        <v>15.60377702114439</v>
       </c>
       <c r="AA80" t="n">
-        <v>5.06248962829555</v>
+        <v>5.062519159832716</v>
       </c>
       <c r="AB80" t="n">
-        <v>8.16461388376236</v>
+        <v>8.138711054863929</v>
       </c>
       <c r="AC80" t="n">
-        <v>7.887868881225586</v>
+        <v>8.022833824157715</v>
       </c>
       <c r="AD80" t="n">
-        <v>8.399222373962402</v>
+        <v>8.372888565063477</v>
       </c>
       <c r="AE80" t="n">
-        <v>7.097153663635254</v>
+        <v>7.088135242462158</v>
       </c>
       <c r="AF80" t="n">
-        <v>1.302068710327148</v>
+        <v>1.284753322601318</v>
       </c>
       <c r="AG80" t="n">
-        <v>65.76032180609275</v>
+        <v>44.45961683567542</v>
       </c>
       <c r="AH80" t="n">
-        <v>4753.16</v>
+        <v>4620</v>
       </c>
       <c r="AI80" t="n">
         <v>0.7</v>
       </c>
       <c r="AJ80" t="n">
-        <v>0.14162683</v>
+        <v>0.401</v>
       </c>
       <c r="AK80" t="n">
-        <v>0.5549585</v>
+        <v>1.02</v>
       </c>
       <c r="AL80" t="n">
-        <v>0.3885521458696633</v>
+        <v>0.657532490378953</v>
       </c>
       <c r="AM80" t="n">
-        <v>0.24021713357441</v>
+        <v>0.2356941195577267</v>
       </c>
       <c r="AN80" t="n">
-        <v>1.401151048948318</v>
+        <v>1.788397427293551</v>
       </c>
       <c r="AO80" t="inlineStr">
         <is>
@@ -12587,14 +14209,14 @@
         </is>
       </c>
       <c r="AT80" t="n">
-        <v>4.095590407139206</v>
+        <v>0.659625634182931</v>
       </c>
       <c r="AU80" t="n">
-        <v>15.20673823569016</v>
+        <v>22.49232159818294</v>
       </c>
       <c r="AV80" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -12674,6 +14296,102 @@
           <t>2395031273585836288</t>
         </is>
       </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>2395031273585836288</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>2395031273585836288</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2395031273585836288</t>
+        </is>
+      </c>
+      <c r="Z81" t="n">
+        <v>353.2074101827482</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>-16.84661852217994</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>8.587043935575485</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>8.085914611816406</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>8.828512191772461</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>7.250840187072754</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.577672004699707</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>68.73564590379422</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>4066.7944</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0.6749642</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>0.13573194</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>0.7526889</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>0.3896531512744821</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>0.2623562655211376</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.504798516942306</v>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP81" t="inlineStr">
+        <is>
+          <t>HD 221503</t>
+        </is>
+      </c>
+      <c r="AQ81" t="inlineStr">
+        <is>
+          <t>GJ 898</t>
+        </is>
+      </c>
+      <c r="AR81" t="inlineStr">
+        <is>
+          <t>116215</t>
+        </is>
+      </c>
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT81" t="n">
+        <v>1.582829748692533</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>14.54849207934481</v>
+      </c>
+      <c r="AV81" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12921,7 +14639,7 @@
       </c>
       <c r="AV83" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13168,7 +14886,7 @@
       </c>
       <c r="AV85" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13338,7 +15056,7 @@
       </c>
       <c r="AV86" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13415,6 +15133,97 @@
           <t>4805806449875760384</t>
         </is>
       </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>4805806449875760384</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>4805806449875760384</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>4805806449875760384</t>
+        </is>
+      </c>
+      <c r="Z87" t="n">
+        <v>82.55855476960322</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>-42.69796597525414</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>9.68979214331627</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>9.101789474487305</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>9.934929847717285</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>8.209831237792969</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.725098609924316</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>52.19632472037114</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>4000.1545</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0.63111806</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>0.09948211999999999</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>0.65671146</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0.3341422746926936</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>0.4185498602889894</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>2.149692954629578</v>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP87" t="inlineStr">
+        <is>
+          <t>HD 274255</t>
+        </is>
+      </c>
+      <c r="AR87" t="inlineStr">
+        <is>
+          <t>25775</t>
+        </is>
+      </c>
+      <c r="AS87" t="inlineStr">
+        <is>
+          <t>BYDraV*_Candidate</t>
+        </is>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.228367536626836</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>19.15843702324353</v>
+      </c>
+      <c r="AV87" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13582,7 +15391,7 @@
       </c>
       <c r="AV88" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13752,7 +15561,7 @@
       </c>
       <c r="AV89" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13917,7 +15726,7 @@
       </c>
       <c r="AV90" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14087,7 +15896,7 @@
       </c>
       <c r="AV91" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14260,7 +16069,7 @@
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14430,7 +16239,7 @@
       </c>
       <c r="AV93" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14603,7 +16412,7 @@
       </c>
       <c r="AV94" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -14773,7 +16582,7 @@
       </c>
       <c r="AV95" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14943,7 +16752,7 @@
       </c>
       <c r="AV96" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -15113,7 +16922,7 @@
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -15190,6 +16999,102 @@
           <t>6866310172545095424</t>
         </is>
       </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>6866310172545095424</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>6866310172545095424</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>6866310172545095424</t>
+        </is>
+      </c>
+      <c r="Z98" t="n">
+        <v>302.5795144151588</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>-20.4950698499972</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>8.888467973728179</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>8.386856079101562</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>9.130548477172852</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>7.528278350830078</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.602270126342773</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>63.20742001816341</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>4124.9</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>0.6622315600000001</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>0.12293527</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>0.7342213</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0.3702590183811431</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0.3103460500167974</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.718745875167374</v>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP98" t="inlineStr">
+        <is>
+          <t>HD 191391</t>
+        </is>
+      </c>
+      <c r="AQ98" t="inlineStr">
+        <is>
+          <t>GJ 782</t>
+        </is>
+      </c>
+      <c r="AR98" t="inlineStr">
+        <is>
+          <t>99385</t>
+        </is>
+      </c>
+      <c r="AS98" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT98" t="n">
+        <v>1.673127109034097</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>15.82092734860303</v>
+      </c>
+      <c r="AV98" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15360,7 +17265,7 @@
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -15530,7 +17435,7 @@
       </c>
       <c r="AV100" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -15604,6 +17509,102 @@
           <t>4270814637616488064</t>
         </is>
       </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>4270814637616488064</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>4270814637616488064</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>4270814637616488064</t>
+        </is>
+      </c>
+      <c r="Z101" t="n">
+        <v>274.9618362969113</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>-1.938612759804832</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>9.632092778863907</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>9.063088417053223</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>9.876449584960938</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>8.182724952697754</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.693724632263184</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>52.39629220529056</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>4205</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>0.102434</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0.3372117479355314</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>0.4512559326716648</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>2.270169891124356</v>
+      </c>
+      <c r="AO101" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP101" t="inlineStr">
+        <is>
+          <t>HD 168442</t>
+        </is>
+      </c>
+      <c r="AQ101" t="inlineStr">
+        <is>
+          <t>GJ 710</t>
+        </is>
+      </c>
+      <c r="AR101" t="inlineStr">
+        <is>
+          <t>89825</t>
+        </is>
+      </c>
+      <c r="AS101" t="inlineStr">
+        <is>
+          <t>Variable*</t>
+        </is>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.6635472110517399</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>19.08531993221894</v>
+      </c>
+      <c r="AV101" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -15771,7 +17772,7 @@
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -15848,6 +17849,97 @@
           <t>4819591920506512768</t>
         </is>
       </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>4819591920506512768</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>4819591920506512768</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>4819591920506512768</t>
+        </is>
+      </c>
+      <c r="Z103" t="n">
+        <v>81.12595314463759</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>-38.96990653268172</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>9.031418509688377</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>8.539438247680664</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>9.272552490234375</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>7.708310604095459</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.564241886138916</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>57.27060617763743</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>4265.911</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>0.670469</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>0.12170362</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>0.6386978</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>0.3668865106019408</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>0.3485261764443434</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.933296656800961</v>
+      </c>
+      <c r="AO103" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP103" t="inlineStr">
+        <is>
+          <t>HD  35650</t>
+        </is>
+      </c>
+      <c r="AR103" t="inlineStr">
+        <is>
+          <t>25283</t>
+        </is>
+      </c>
+      <c r="AS103" t="inlineStr">
+        <is>
+          <t>RotV*</t>
+        </is>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.573311979644731</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>17.46096412701272</v>
+      </c>
+      <c r="AV103" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16015,7 +18107,7 @@
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -16180,7 +18272,7 @@
       </c>
       <c r="AV105" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -16352,7 +18444,7 @@
       </c>
       <c r="AV106" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -16429,6 +18521,102 @@
           <t>6508401923473282432</t>
         </is>
       </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>6508401923473282432</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>6508401923473282432</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>6508401923473282432</t>
+        </is>
+      </c>
+      <c r="Z107" t="n">
+        <v>335.5661138004264</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>-54.5595680078303</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>8.960261054987907</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>8.409995079040527</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>9.203866004943848</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>7.540348529815674</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.663517475128174</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>76.15946505307657</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>3920</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0.4589700401978843</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0.2811993874321437</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.650402802109548</v>
+      </c>
+      <c r="AO107" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP107" t="inlineStr">
+        <is>
+          <t>HD 211970</t>
+        </is>
+      </c>
+      <c r="AQ107" t="inlineStr">
+        <is>
+          <t>GJ 1267</t>
+        </is>
+      </c>
+      <c r="AR107" t="inlineStr">
+        <is>
+          <t>110443</t>
+        </is>
+      </c>
+      <c r="AS107" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT107" t="n">
+        <v>0.6635472110517399</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>13.13034432822088</v>
+      </c>
+      <c r="AV107" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -16596,7 +18784,7 @@
       </c>
       <c r="AV108" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>

--- a/results/test_merged_result_MJ.xlsx
+++ b/results/test_merged_result_MJ.xlsx
@@ -1745,7 +1745,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>Brightest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="AV49" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10472,7 +10472,7 @@
       </c>
       <c r="AV58" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -10642,7 +10642,7 @@
       </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -14639,7 +14639,7 @@
       </c>
       <c r="AV83" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -16582,7 +16582,7 @@
       </c>
       <c r="AV95" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -17602,7 +17602,7 @@
       </c>
       <c r="AV101" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -18107,7 +18107,7 @@
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>

--- a/results/test_merged_result_MJ.xlsx
+++ b/results/test_merged_result_MJ.xlsx
@@ -478,7 +478,7 @@
     <col width="21" customWidth="1" min="39" max="39"/>
     <col width="33" customWidth="1" min="40" max="40"/>
     <col width="15" customWidth="1" min="41" max="41"/>
-    <col width="23" customWidth="1" min="42" max="42"/>
+    <col width="20" customWidth="1" min="42" max="42"/>
     <col width="30" customWidth="1" min="43" max="43"/>
     <col width="12" customWidth="1" min="44" max="44"/>
     <col width="19" customWidth="1" min="45" max="45"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>HD 196761</t>
+          <t>HD196761</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>HD 172051</t>
+          <t>HD172051</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>HD 130992</t>
+          <t>HD130992</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>HD 220339</t>
+          <t>HD220339</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>HD  10700</t>
+          <t>HD10700</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>HD  35854</t>
+          <t>HD35854</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>HD  82342</t>
+          <t>HD82342</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>HD  52919</t>
+          <t>HD52919</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>HD 189567</t>
+          <t>HD189567</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>HD 156274</t>
+          <t>HD156274</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>HD 113538</t>
+          <t>HD113538</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>HD 142709</t>
+          <t>HD142709</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>HD 136352</t>
+          <t>HD136352</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>HD 115617</t>
+          <t>HD115617</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>HD 102438</t>
+          <t>HD102438</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>HD     55</t>
+          <t>HD55</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>HD 170493</t>
+          <t>HD170493</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>HD 196877</t>
+          <t>HD196877</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>HD 101581</t>
+          <t>HD101581</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>HD 192961</t>
+          <t>HD192961</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>HD  21209A, HD  21209</t>
+          <t>HD21209A,HD21209</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>HD  56533</t>
+          <t>HD56533</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>HD  22496</t>
+          <t>HD22496</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>HD   2025</t>
+          <t>HD2025</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>HD  20794</t>
+          <t>HD20794</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>HD  26965</t>
+          <t>HD26965</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>HD  21749</t>
+          <t>HD21749</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>HD 160346</t>
+          <t>HD160346</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>HD 157347</t>
+          <t>HD157347</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>HD 154363</t>
+          <t>HD154363</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>HD  76151</t>
+          <t>HD76151</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>HD  23356</t>
+          <t>HD23356</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>HD  20766</t>
+          <t>HD20766</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>HD 200779</t>
+          <t>HD200779</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>HD 222335</t>
+          <t>HD222335</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>HD 120467</t>
+          <t>HD120467</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>HD 181321</t>
+          <t>HD181321</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>HD 213042</t>
+          <t>HD213042</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>HD 173818</t>
+          <t>HD173818</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>HD 154088</t>
+          <t>HD154088</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>HD 192310</t>
+          <t>HD192310</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>HD 203040</t>
+          <t>HD203040</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>HD  14412</t>
+          <t>HD14412</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>HD  22049</t>
+          <t>HD22049</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>HD 177565</t>
+          <t>HD177565</t>
         </is>
       </c>
       <c r="AQ46" t="inlineStr">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>HD 190248</t>
+          <t>HD190248</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="AP49" t="inlineStr">
         <is>
-          <t>HD  85512</t>
+          <t>HD85512</t>
         </is>
       </c>
       <c r="AQ49" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="AP50" t="inlineStr">
         <is>
-          <t>HD 132683</t>
+          <t>HD132683</t>
         </is>
       </c>
       <c r="AQ50" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="AP51" t="inlineStr">
         <is>
-          <t>HD  69830</t>
+          <t>HD69830</t>
         </is>
       </c>
       <c r="AQ51" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>HD 131977</t>
+          <t>HD131977</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AP53" t="inlineStr">
         <is>
-          <t>HD 120690</t>
+          <t>HD120690</t>
         </is>
       </c>
       <c r="AQ53" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="AP54" t="inlineStr">
         <is>
-          <t>HD  20280</t>
+          <t>HD20280</t>
         </is>
       </c>
       <c r="AQ54" t="inlineStr">
@@ -9944,7 +9944,7 @@
       </c>
       <c r="AP55" t="inlineStr">
         <is>
-          <t>HD 209100</t>
+          <t>HD209100</t>
         </is>
       </c>
       <c r="AQ55" t="inlineStr">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="AP56" t="inlineStr">
         <is>
-          <t>HD   4391</t>
+          <t>HD4391</t>
         </is>
       </c>
       <c r="AQ56" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>HD  21175</t>
+          <t>HD21175</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="AP59" t="inlineStr">
         <is>
-          <t>HD  30876</t>
+          <t>HD30876</t>
         </is>
       </c>
       <c r="AQ59" t="inlineStr">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="AP60" t="inlineStr">
         <is>
-          <t>HD 158233</t>
+          <t>HD158233</t>
         </is>
       </c>
       <c r="AQ60" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="AP61" t="inlineStr">
         <is>
-          <t>HD  25004</t>
+          <t>HD25004</t>
         </is>
       </c>
       <c r="AQ61" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="AP62" t="inlineStr">
         <is>
-          <t>HD  16160</t>
+          <t>HD16160</t>
         </is>
       </c>
       <c r="AQ62" t="inlineStr">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="AP63" t="inlineStr">
         <is>
-          <t>HD  20807</t>
+          <t>HD20807</t>
         </is>
       </c>
       <c r="AQ63" t="inlineStr">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="AP64" t="inlineStr">
         <is>
-          <t>HD   1237A, HD   1237</t>
+          <t>HD1237A,HD1237</t>
         </is>
       </c>
       <c r="AQ64" t="inlineStr">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="AP65" t="inlineStr">
         <is>
-          <t>HD 146233</t>
+          <t>HD146233</t>
         </is>
       </c>
       <c r="AQ65" t="inlineStr">
@@ -11803,7 +11803,7 @@
       </c>
       <c r="AP66" t="inlineStr">
         <is>
-          <t>HD  41593</t>
+          <t>HD41593</t>
         </is>
       </c>
       <c r="AQ66" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>HD  31560</t>
+          <t>HD31560</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="AP68" t="inlineStr">
         <is>
-          <t>HD 111261B</t>
+          <t>HD111261B</t>
         </is>
       </c>
       <c r="AQ68" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="AP69" t="inlineStr">
         <is>
-          <t>HD 139763</t>
+          <t>HD139763</t>
         </is>
       </c>
       <c r="AR69" t="inlineStr">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="AP70" t="inlineStr">
         <is>
-          <t>HD  45088</t>
+          <t>HD45088</t>
         </is>
       </c>
       <c r="AQ70" t="inlineStr">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="AP71" t="inlineStr">
         <is>
-          <t>HD 222237</t>
+          <t>HD222237</t>
         </is>
       </c>
       <c r="AQ71" t="inlineStr">
@@ -12824,7 +12824,7 @@
       </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>HD  24916, HD  24916A</t>
+          <t>HD24916,HD24916A</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
@@ -12997,7 +12997,7 @@
       </c>
       <c r="AP73" t="inlineStr">
         <is>
-          <t>HD  32147</t>
+          <t>HD32147</t>
         </is>
       </c>
       <c r="AQ73" t="inlineStr">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="AP74" t="inlineStr">
         <is>
-          <t>HD 216803</t>
+          <t>HD216803</t>
         </is>
       </c>
       <c r="AQ74" t="inlineStr">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="AP75" t="inlineStr">
         <is>
-          <t>HD  65277, HD  65277A</t>
+          <t>HD65277,HD65277A</t>
         </is>
       </c>
       <c r="AQ75" t="inlineStr">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="AP76" t="inlineStr">
         <is>
-          <t>HD  38858</t>
+          <t>HD38858</t>
         </is>
       </c>
       <c r="AQ76" t="inlineStr">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>HD  30495</t>
+          <t>HD30495</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
@@ -13847,7 +13847,7 @@
       </c>
       <c r="AP78" t="inlineStr">
         <is>
-          <t>HD   4628</t>
+          <t>HD4628</t>
         </is>
       </c>
       <c r="AQ78" t="inlineStr">
@@ -14020,7 +14020,7 @@
       </c>
       <c r="AP79" t="inlineStr">
         <is>
-          <t>HD 166348</t>
+          <t>HD166348</t>
         </is>
       </c>
       <c r="AQ79" t="inlineStr">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="AP80" t="inlineStr">
         <is>
-          <t>HD   6101</t>
+          <t>HD6101</t>
         </is>
       </c>
       <c r="AQ80" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="AP81" t="inlineStr">
         <is>
-          <t>HD 221503</t>
+          <t>HD221503</t>
         </is>
       </c>
       <c r="AQ81" t="inlineStr">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="AP83" t="inlineStr">
         <is>
-          <t>HD  36003</t>
+          <t>HD36003</t>
         </is>
       </c>
       <c r="AQ83" t="inlineStr">
@@ -14860,7 +14860,7 @@
       </c>
       <c r="AP85" t="inlineStr">
         <is>
-          <t>HD  75732</t>
+          <t>HD75732</t>
         </is>
       </c>
       <c r="AQ85" t="inlineStr">
@@ -15030,7 +15030,7 @@
       </c>
       <c r="AP86" t="inlineStr">
         <is>
-          <t>HD 152391</t>
+          <t>HD152391</t>
         </is>
       </c>
       <c r="AQ86" t="inlineStr">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>HD 274255</t>
+          <t>HD274255</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="AP88" t="inlineStr">
         <is>
-          <t>HD  40307</t>
+          <t>HD40307</t>
         </is>
       </c>
       <c r="AQ88" t="inlineStr">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="AP89" t="inlineStr">
         <is>
-          <t>HD  53143</t>
+          <t>HD53143</t>
         </is>
       </c>
       <c r="AQ89" t="inlineStr">
@@ -15700,7 +15700,7 @@
       </c>
       <c r="AP90" t="inlineStr">
         <is>
-          <t>HD 140538A, HD 140538</t>
+          <t>HD140538A,HD140538</t>
         </is>
       </c>
       <c r="AQ90" t="inlineStr">
@@ -15870,7 +15870,7 @@
       </c>
       <c r="AP91" t="inlineStr">
         <is>
-          <t>HD  72673</t>
+          <t>HD72673</t>
         </is>
       </c>
       <c r="AQ91" t="inlineStr">
@@ -16043,7 +16043,7 @@
       </c>
       <c r="AP92" t="inlineStr">
         <is>
-          <t>HD  94765</t>
+          <t>HD94765</t>
         </is>
       </c>
       <c r="AQ92" t="inlineStr">
@@ -16213,7 +16213,7 @@
       </c>
       <c r="AP93" t="inlineStr">
         <is>
-          <t>HD  17925</t>
+          <t>HD17925</t>
         </is>
       </c>
       <c r="AQ93" t="inlineStr">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="AP94" t="inlineStr">
         <is>
-          <t>HD  82558</t>
+          <t>HD82558</t>
         </is>
       </c>
       <c r="AQ94" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="AP95" t="inlineStr">
         <is>
-          <t>HD 145417</t>
+          <t>HD145417</t>
         </is>
       </c>
       <c r="AQ95" t="inlineStr">
@@ -16726,7 +16726,7 @@
       </c>
       <c r="AP96" t="inlineStr">
         <is>
-          <t>HD 144628</t>
+          <t>HD144628</t>
         </is>
       </c>
       <c r="AQ96" t="inlineStr">
@@ -16896,7 +16896,7 @@
       </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>HD 109200</t>
+          <t>HD109200</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="AP98" t="inlineStr">
         <is>
-          <t>HD 191391</t>
+          <t>HD191391</t>
         </is>
       </c>
       <c r="AQ98" t="inlineStr">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="AP99" t="inlineStr">
         <is>
-          <t>HD 125072</t>
+          <t>HD125072</t>
         </is>
       </c>
       <c r="AQ99" t="inlineStr">
@@ -17409,7 +17409,7 @@
       </c>
       <c r="AP100" t="inlineStr">
         <is>
-          <t>HD 154577</t>
+          <t>HD154577</t>
         </is>
       </c>
       <c r="AQ100" t="inlineStr">
@@ -17576,7 +17576,7 @@
       </c>
       <c r="AP101" t="inlineStr">
         <is>
-          <t>HD 168442</t>
+          <t>HD168442</t>
         </is>
       </c>
       <c r="AQ101" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="AP102" t="inlineStr">
         <is>
-          <t>HD 149661</t>
+          <t>HD149661</t>
         </is>
       </c>
       <c r="AQ102" t="inlineStr">
@@ -17916,7 +17916,7 @@
       </c>
       <c r="AP103" t="inlineStr">
         <is>
-          <t>HD  35650</t>
+          <t>HD35650</t>
         </is>
       </c>
       <c r="AR103" t="inlineStr">
@@ -18081,7 +18081,7 @@
       </c>
       <c r="AP104" t="inlineStr">
         <is>
-          <t>HD 189733, HD 189733A</t>
+          <t>HD189733,HD189733A</t>
         </is>
       </c>
       <c r="AQ104" t="inlineStr">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="AP105" t="inlineStr">
         <is>
-          <t>HD 192263</t>
+          <t>HD192263</t>
         </is>
       </c>
       <c r="AR105" t="inlineStr">
@@ -18418,7 +18418,7 @@
       </c>
       <c r="AP106" t="inlineStr">
         <is>
-          <t>HD  42807</t>
+          <t>HD42807</t>
         </is>
       </c>
       <c r="AQ106" t="inlineStr">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="AP107" t="inlineStr">
         <is>
-          <t>HD 211970</t>
+          <t>HD211970</t>
         </is>
       </c>
       <c r="AQ107" t="inlineStr">
@@ -18758,7 +18758,7 @@
       </c>
       <c r="AP108" t="inlineStr">
         <is>
-          <t>HD  13445</t>
+          <t>HD13445</t>
         </is>
       </c>
       <c r="AQ108" t="inlineStr">
